--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C4100-BBAD-4D3A-845C-DC8CF4E60829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1459F9-9D08-4BAA-8A85-72D13E27479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="1215" windowWidth="20970" windowHeight="14865" activeTab="1" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
+    <workbookView xWindow="7140" yWindow="705" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>PINS</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>FCF Margin</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -299,7 +302,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -662,7 +665,7 @@
   <dimension ref="A13:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>24.68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,7 +700,7 @@
       </c>
       <c r="G16" s="2">
         <f>G15*G14</f>
-        <v>16738.963199999998</v>
+        <v>17634.240000000002</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
       </c>
       <c r="G19" s="2">
         <f>G16+G18-G17</f>
-        <v>14226.163199999999</v>
+        <v>15121.440000000002</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
@@ -737,8 +740,8 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <f>G14/Sheet2!K28</f>
-        <v>20.65985281794509</v>
+        <f>G14/Sheet2!K29</f>
+        <v>19.628932077739936</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
@@ -750,7 +753,7 @@
       </c>
       <c r="H22" s="3">
         <f>$G$19/G22</f>
-        <v>15.134216170212765</v>
+        <v>16.086638297872344</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
       </c>
       <c r="H23" s="3">
         <f>$G$19/G23</f>
-        <v>3.7835540425531913</v>
+        <v>4.0216595744680861</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
@@ -776,7 +779,7 @@
       </c>
       <c r="H24" s="3">
         <f>$G$19/G24</f>
-        <v>3.4395945841392646</v>
+        <v>3.6560541586073505</v>
       </c>
     </row>
   </sheetData>
@@ -786,13 +789,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6302D-E6E4-44F9-948E-28184C84453C}">
-  <dimension ref="A1:EQ35"/>
+  <dimension ref="A1:EQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,20 +882,20 @@
         <v>4192.8999999999996</v>
       </c>
       <c r="L2" s="6">
-        <f>K2*1.13</f>
-        <v>4737.976999999999</v>
+        <f>K2*1.11</f>
+        <v>4654.1189999999997</v>
       </c>
       <c r="M2" s="6">
-        <f t="shared" ref="M2:O2" si="1">L2*1.13</f>
-        <v>5353.9140099999986</v>
+        <f t="shared" ref="M2:O2" si="1">L2*1.11</f>
+        <v>5166.0720899999997</v>
       </c>
       <c r="N2" s="6">
         <f t="shared" si="1"/>
-        <v>6049.9228312999976</v>
+        <v>5734.3400198999998</v>
       </c>
       <c r="O2" s="6">
         <f t="shared" si="1"/>
-        <v>6836.4127993689963</v>
+        <v>6365.1174220890007</v>
       </c>
     </row>
     <row r="3" spans="1:121" x14ac:dyDescent="0.25">
@@ -918,19 +921,19 @@
       </c>
       <c r="L3" s="2">
         <f>L2*(1-L19)</f>
-        <v>899.45221988224966</v>
+        <v>883.53271156574988</v>
       </c>
       <c r="M3" s="2">
         <f>M2*(1-M19)</f>
-        <v>973.00567845161163</v>
+        <v>938.86780203636226</v>
       </c>
       <c r="N3" s="2">
         <f>N2*(1-N19)</f>
-        <v>1049.9921525038239</v>
+        <v>995.22129266396541</v>
       </c>
       <c r="O3" s="2">
         <f>O2*(1-O19)</f>
-        <v>1129.9919156589242</v>
+        <v>1052.0914169846819</v>
       </c>
     </row>
     <row r="4" spans="1:121" x14ac:dyDescent="0.25">
@@ -975,19 +978,19 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="2"/>
-        <v>3838.5247801177493</v>
+        <v>3770.5862884342496</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>4380.9083315483867</v>
+        <v>4227.2042879636374</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="2"/>
-        <v>4999.9306787961741</v>
+        <v>4739.1187272360348</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="2"/>
-        <v>5706.4208837100723</v>
+        <v>5313.0260051043188</v>
       </c>
     </row>
     <row r="5" spans="1:121" x14ac:dyDescent="0.25">
@@ -1009,19 +1012,19 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:O5" si="3">K5*(1+L18-0.05)</f>
-        <v>1473.7900319999999</v>
+        <v>1446.4976240000001</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>1591.6932345599996</v>
+        <v>1533.2874814400002</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
-        <v>1719.0286933247994</v>
+        <v>1625.2847303264002</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="3"/>
-        <v>1856.5509887907831</v>
+        <v>1722.8018141459843</v>
       </c>
     </row>
     <row r="6" spans="1:121" x14ac:dyDescent="0.25">
@@ -1043,19 +1046,19 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" ref="L6:O6" si="4">K6*(1+L18-0.05)</f>
-        <v>1201.9851359999998</v>
+        <v>1179.7261520000002</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
-        <v>1298.1439468799995</v>
+        <v>1250.5097211200002</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1401.9954626303993</v>
+        <v>1325.5403043872002</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>1514.1550996408309</v>
+        <v>1405.0727226504323</v>
       </c>
     </row>
     <row r="7" spans="1:121" x14ac:dyDescent="0.25">
@@ -1134,19 +1137,19 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" ref="L8" si="10">SUM(L5:L7)</f>
-        <v>3186.9581129999997</v>
+        <v>3137.4067210000003</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ref="M8" si="11">SUM(M5:M7)</f>
-        <v>3426.5792736899989</v>
+        <v>3320.5392948100002</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ref="N8" si="12">SUM(N5:N7)</f>
-        <v>3684.603352817699</v>
+        <v>3514.4042315761008</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" ref="O8" si="13">SUM(O5:O7)</f>
-        <v>3962.4642451372397</v>
+        <v>3719.632693502042</v>
       </c>
     </row>
     <row r="9" spans="1:121" x14ac:dyDescent="0.25">
@@ -1163,24 +1166,24 @@
         <v>127</v>
       </c>
       <c r="K9" s="2">
-        <f>J29*$R$20</f>
+        <f>J30*$R$17</f>
         <v>150.768</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" ref="L9:O9" si="14">K29*$R$20</f>
+        <f>K30*$R$17</f>
         <v>177.48094954050001</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="14"/>
-        <v>217.77266371009094</v>
+        <f>L30*$R$17</f>
+        <v>216.87905066547282</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="14"/>
-        <v>274.73680737831904</v>
+        <f>M30*$R$17</f>
+        <v>271.48329119508156</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="14"/>
-        <v>352.0139242594592</v>
+        <f>N30*$R$17</f>
+        <v>344.19850363623533</v>
       </c>
     </row>
     <row r="10" spans="1:121" x14ac:dyDescent="0.25">
@@ -1221,11 +1224,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:D11" si="15">C4-C8+C10+C9</f>
+        <f t="shared" ref="C11:D11" si="14">C4-C8+C10+C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -1237,36 +1240,36 @@
         <v>686.57299999999998</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:M11" si="16">H4-H8+H10+H9</f>
+        <f t="shared" ref="H11:M11" si="15">H4-H8+H10+H9</f>
         <v>2802</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="15"/>
+        <v>-16.460000000000306</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="15"/>
+        <v>287.43599999999981</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="15"/>
+        <v>549.64916749999975</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="15"/>
+        <v>810.66051697474927</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="15"/>
+        <v>1123.5440438191099</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:O11" si="16">N4-N8+N10+N9</f>
+        <v>1496.1977868550157</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="16"/>
-        <v>-16.460000000000306</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="16"/>
-        <v>287.43599999999981</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="16"/>
-        <v>549.64916749999975</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="16"/>
-        <v>829.04761665824958</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="16"/>
-        <v>1172.1017215684788</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:O11" si="17">N4-N8+N10+N9</f>
-        <v>1590.0641333567942</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="17"/>
-        <v>2095.9705628322918</v>
+        <v>1937.591815238512</v>
       </c>
     </row>
     <row r="12" spans="1:121" x14ac:dyDescent="0.25">
@@ -1283,24 +1286,24 @@
         <v>-1574.501</v>
       </c>
       <c r="K12" s="2">
-        <f>K11*K22</f>
+        <f>K11*K23</f>
         <v>104.43334182499996</v>
       </c>
       <c r="L12" s="2">
-        <f>L11*L22</f>
-        <v>157.51904716506743</v>
+        <f>L11*L23</f>
+        <v>154.02549822520237</v>
       </c>
       <c r="M12" s="2">
-        <f>M11*M22</f>
-        <v>222.69932709801097</v>
+        <f>M11*M23</f>
+        <v>213.47336832563087</v>
       </c>
       <c r="N12" s="2">
-        <f>N11*N22</f>
-        <v>302.11218533779089</v>
+        <f>N11*N23</f>
+        <v>284.27757950245297</v>
       </c>
       <c r="O12" s="2">
-        <f>O11*O22</f>
-        <v>398.23440693813546</v>
+        <f>O11*O23</f>
+        <v>368.14244489531728</v>
       </c>
     </row>
     <row r="13" spans="1:121" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1334,452 +1337,452 @@
         <v>-35</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" ref="J13:O13" si="18">J11-J12</f>
+        <f t="shared" ref="J13:O13" si="17">J11-J12</f>
         <v>1861.9369999999999</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>445.21582567499979</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="18"/>
-        <v>671.5285694931822</v>
+        <f t="shared" si="17"/>
+        <v>656.63501874954693</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="18"/>
-        <v>949.40239447046781</v>
+        <f t="shared" si="17"/>
+        <v>910.07067549347903</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="18"/>
-        <v>1287.9519480190033</v>
+        <f t="shared" si="17"/>
+        <v>1211.9202073525628</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="18"/>
-        <v>1697.7361558941564</v>
+        <f t="shared" si="17"/>
+        <v>1569.4493703431947</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13:AU13" si="19">O13*(1+$R$21)</f>
-        <v>1714.7135174530979</v>
+        <f>O13*(1+$R$18)</f>
+        <v>1585.1438640466267</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="19"/>
-        <v>1731.860652627629</v>
+        <f>P13*(1+$R$18)</f>
+        <v>1600.995302687093</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="19"/>
-        <v>1749.1792591539052</v>
+        <f>Q13*(1+$R$18)</f>
+        <v>1617.0052557139641</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="19"/>
-        <v>1766.6710517454442</v>
+        <f>R13*(1+$R$18)</f>
+        <v>1633.1753082711036</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="19"/>
-        <v>1784.3377622628987</v>
+        <f>S13*(1+$R$18)</f>
+        <v>1649.5070613538146</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="19"/>
-        <v>1802.1811398855277</v>
+        <f>T13*(1+$R$18)</f>
+        <v>1666.0021319673529</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="19"/>
-        <v>1820.2029512843831</v>
+        <f>U13*(1+$R$18)</f>
+        <v>1682.6621532870263</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="19"/>
-        <v>1838.4049807972269</v>
+        <f>V13*(1+$R$18)</f>
+        <v>1699.4887748198967</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" si="19"/>
-        <v>1856.7890306051993</v>
+        <f>W13*(1+$R$18)</f>
+        <v>1716.4836625680957</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="19"/>
-        <v>1875.3569209112513</v>
+        <f>X13*(1+$R$18)</f>
+        <v>1733.6484991937766</v>
       </c>
       <c r="Z13" s="6">
-        <f t="shared" si="19"/>
-        <v>1894.1104901203639</v>
+        <f>Y13*(1+$R$18)</f>
+        <v>1750.9849841857144</v>
       </c>
       <c r="AA13" s="6">
-        <f t="shared" si="19"/>
-        <v>1913.0515950215677</v>
+        <f>Z13*(1+$R$18)</f>
+        <v>1768.4948340275716</v>
       </c>
       <c r="AB13" s="6">
-        <f t="shared" si="19"/>
-        <v>1932.1821109717835</v>
+        <f>AA13*(1+$R$18)</f>
+        <v>1786.1797823678473</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" si="19"/>
-        <v>1951.5039320815013</v>
+        <f>AB13*(1+$R$18)</f>
+        <v>1804.0415801915258</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" si="19"/>
-        <v>1971.0189714023163</v>
+        <f>AC13*(1+$R$18)</f>
+        <v>1822.0819959934411</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" si="19"/>
-        <v>1990.7291611163396</v>
+        <f>AD13*(1+$R$18)</f>
+        <v>1840.3028159533756</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" si="19"/>
-        <v>2010.636452727503</v>
+        <f>AE13*(1+$R$18)</f>
+        <v>1858.7058441129093</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="19"/>
-        <v>2030.7428172547779</v>
+        <f>AF13*(1+$R$18)</f>
+        <v>1877.2929025540384</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="19"/>
-        <v>2051.0502454273255</v>
+        <f>AG13*(1+$R$18)</f>
+        <v>1896.0658315795788</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" si="19"/>
-        <v>2071.5607478815987</v>
+        <f>AH13*(1+$R$18)</f>
+        <v>1915.0264898953747</v>
       </c>
       <c r="AJ13" s="6">
-        <f t="shared" si="19"/>
-        <v>2092.2763553604145</v>
+        <f>AI13*(1+$R$18)</f>
+        <v>1934.1767547943284</v>
       </c>
       <c r="AK13" s="6">
-        <f t="shared" si="19"/>
-        <v>2113.1991189140185</v>
+        <f>AJ13*(1+$R$18)</f>
+        <v>1953.5185223422718</v>
       </c>
       <c r="AL13" s="6">
-        <f t="shared" si="19"/>
-        <v>2134.3311101031586</v>
+        <f>AK13*(1+$R$18)</f>
+        <v>1973.0537075656946</v>
       </c>
       <c r="AM13" s="6">
-        <f t="shared" si="19"/>
-        <v>2155.6744212041904</v>
+        <f>AL13*(1+$R$18)</f>
+        <v>1992.7842446413515</v>
       </c>
       <c r="AN13" s="6">
-        <f t="shared" si="19"/>
-        <v>2177.2311654162322</v>
+        <f>AM13*(1+$R$18)</f>
+        <v>2012.712087087765</v>
       </c>
       <c r="AO13" s="6">
-        <f t="shared" si="19"/>
-        <v>2199.0034770703946</v>
+        <f>AN13*(1+$R$18)</f>
+        <v>2032.8392079586426</v>
       </c>
       <c r="AP13" s="6">
-        <f t="shared" si="19"/>
-        <v>2220.9935118410986</v>
+        <f>AO13*(1+$R$18)</f>
+        <v>2053.167600038229</v>
       </c>
       <c r="AQ13" s="6">
-        <f t="shared" si="19"/>
-        <v>2243.2034469595096</v>
+        <f>AP13*(1+$R$18)</f>
+        <v>2073.6992760386115</v>
       </c>
       <c r="AR13" s="6">
-        <f t="shared" si="19"/>
-        <v>2265.6354814291049</v>
+        <f>AQ13*(1+$R$18)</f>
+        <v>2094.4362687989978</v>
       </c>
       <c r="AS13" s="6">
-        <f t="shared" si="19"/>
-        <v>2288.2918362433961</v>
+        <f>AR13*(1+$R$18)</f>
+        <v>2115.380631486988</v>
       </c>
       <c r="AT13" s="6">
-        <f t="shared" si="19"/>
-        <v>2311.17475460583</v>
+        <f>AS13*(1+$R$18)</f>
+        <v>2136.5344378018581</v>
       </c>
       <c r="AU13" s="6">
-        <f t="shared" si="19"/>
-        <v>2334.2865021518883</v>
+        <f>AT13*(1+$R$18)</f>
+        <v>2157.8997821798766</v>
       </c>
       <c r="AV13" s="6">
-        <f t="shared" ref="AV13:BW13" si="20">AU13*(1+$R$21)</f>
-        <v>2357.629367173407</v>
+        <f>AU13*(1+$R$18)</f>
+        <v>2179.4787800016752</v>
       </c>
       <c r="AW13" s="6">
-        <f t="shared" si="20"/>
-        <v>2381.2056608451412</v>
+        <f>AV13*(1+$R$18)</f>
+        <v>2201.273567801692</v>
       </c>
       <c r="AX13" s="6">
-        <f t="shared" si="20"/>
-        <v>2405.0177174535925</v>
+        <f>AW13*(1+$R$18)</f>
+        <v>2223.2863034797087</v>
       </c>
       <c r="AY13" s="6">
-        <f t="shared" si="20"/>
-        <v>2429.0678946281282</v>
+        <f>AX13*(1+$R$18)</f>
+        <v>2245.5191665145057</v>
       </c>
       <c r="AZ13" s="6">
-        <f t="shared" si="20"/>
-        <v>2453.3585735744095</v>
+        <f>AY13*(1+$R$18)</f>
+        <v>2267.9743581796506</v>
       </c>
       <c r="BA13" s="6">
-        <f t="shared" si="20"/>
-        <v>2477.8921593101536</v>
+        <f>AZ13*(1+$R$18)</f>
+        <v>2290.6541017614472</v>
       </c>
       <c r="BB13" s="6">
-        <f t="shared" si="20"/>
-        <v>2502.6710809032552</v>
+        <f>BA13*(1+$R$18)</f>
+        <v>2313.5606427790617</v>
       </c>
       <c r="BC13" s="6">
-        <f t="shared" si="20"/>
-        <v>2527.6977917122877</v>
+        <f>BB13*(1+$R$18)</f>
+        <v>2336.6962492068524</v>
       </c>
       <c r="BD13" s="6">
-        <f t="shared" si="20"/>
-        <v>2552.9747696294107</v>
+        <f>BC13*(1+$R$18)</f>
+        <v>2360.0632116989209</v>
       </c>
       <c r="BE13" s="6">
-        <f t="shared" si="20"/>
-        <v>2578.5045173257049</v>
+        <f>BD13*(1+$R$18)</f>
+        <v>2383.6638438159102</v>
       </c>
       <c r="BF13" s="6">
-        <f t="shared" si="20"/>
-        <v>2604.2895624989619</v>
+        <f>BE13*(1+$R$18)</f>
+        <v>2407.5004822540695</v>
       </c>
       <c r="BG13" s="6">
-        <f t="shared" si="20"/>
-        <v>2630.3324581239517</v>
+        <f>BF13*(1+$R$18)</f>
+        <v>2431.5754870766104</v>
       </c>
       <c r="BH13" s="6">
-        <f t="shared" si="20"/>
-        <v>2656.6357827051911</v>
+        <f>BG13*(1+$R$18)</f>
+        <v>2455.8912419473768</v>
       </c>
       <c r="BI13" s="6">
-        <f t="shared" si="20"/>
-        <v>2683.202140532243</v>
+        <f>BH13*(1+$R$18)</f>
+        <v>2480.4501543668507</v>
       </c>
       <c r="BJ13" s="6">
-        <f t="shared" si="20"/>
-        <v>2710.0341619375654</v>
+        <f>BI13*(1+$R$18)</f>
+        <v>2505.2546559105194</v>
       </c>
       <c r="BK13" s="6">
-        <f t="shared" si="20"/>
-        <v>2737.1345035569411</v>
+        <f>BJ13*(1+$R$18)</f>
+        <v>2530.3072024696248</v>
       </c>
       <c r="BL13" s="6">
-        <f t="shared" si="20"/>
-        <v>2764.5058485925106</v>
+        <f>BK13*(1+$R$18)</f>
+        <v>2555.6102744943209</v>
       </c>
       <c r="BM13" s="6">
-        <f t="shared" si="20"/>
-        <v>2792.1509070784359</v>
+        <f>BL13*(1+$R$18)</f>
+        <v>2581.166377239264</v>
       </c>
       <c r="BN13" s="6">
-        <f t="shared" si="20"/>
-        <v>2820.0724161492203</v>
+        <f>BM13*(1+$R$18)</f>
+        <v>2606.9780410116568</v>
       </c>
       <c r="BO13" s="6">
-        <f t="shared" si="20"/>
-        <v>2848.2731403107127</v>
+        <f>BN13*(1+$R$18)</f>
+        <v>2633.0478214217733</v>
       </c>
       <c r="BP13" s="6">
-        <f t="shared" si="20"/>
-        <v>2876.7558717138199</v>
+        <f>BO13*(1+$R$18)</f>
+        <v>2659.378299635991</v>
       </c>
       <c r="BQ13" s="6">
-        <f t="shared" si="20"/>
-        <v>2905.5234304309583</v>
+        <f>BP13*(1+$R$18)</f>
+        <v>2685.972082632351</v>
       </c>
       <c r="BR13" s="6">
-        <f t="shared" si="20"/>
-        <v>2934.5786647352679</v>
+        <f>BQ13*(1+$R$18)</f>
+        <v>2712.8318034586746</v>
       </c>
       <c r="BS13" s="6">
-        <f t="shared" si="20"/>
-        <v>2963.9244513826206</v>
+        <f>BR13*(1+$R$18)</f>
+        <v>2739.9601214932613</v>
       </c>
       <c r="BT13" s="6">
-        <f t="shared" si="20"/>
-        <v>2993.5636958964469</v>
+        <f>BS13*(1+$R$18)</f>
+        <v>2767.3597227081941</v>
       </c>
       <c r="BU13" s="6">
-        <f t="shared" si="20"/>
-        <v>3023.4993328554115</v>
+        <f>BT13*(1+$R$18)</f>
+        <v>2795.0333199352763</v>
       </c>
       <c r="BV13" s="6">
-        <f t="shared" si="20"/>
-        <v>3053.7343261839655</v>
+        <f>BU13*(1+$R$18)</f>
+        <v>2822.9836531346291</v>
       </c>
       <c r="BW13" s="6">
-        <f t="shared" si="20"/>
-        <v>3084.2716694458054</v>
+        <f>BV13*(1+$R$18)</f>
+        <v>2851.2134896659754</v>
       </c>
       <c r="BX13" s="6">
-        <f t="shared" ref="BX13" si="21">BW13*(1+$R$21)</f>
-        <v>3115.1143861402634</v>
+        <f>BW13*(1+$R$18)</f>
+        <v>2879.7256245626354</v>
       </c>
       <c r="BY13" s="6">
-        <f t="shared" ref="BY13" si="22">BX13*(1+$R$21)</f>
-        <v>3146.2655300016659</v>
+        <f>BX13*(1+$R$18)</f>
+        <v>2908.5228808082616</v>
       </c>
       <c r="BZ13" s="6">
-        <f t="shared" ref="BZ13" si="23">BY13*(1+$R$21)</f>
-        <v>3177.7281853016825</v>
+        <f>BY13*(1+$R$18)</f>
+        <v>2937.6081096163443</v>
       </c>
       <c r="CA13" s="6">
-        <f t="shared" ref="CA13" si="24">BZ13*(1+$R$21)</f>
-        <v>3209.5054671546995</v>
+        <f>BZ13*(1+$R$18)</f>
+        <v>2966.9841907125078</v>
       </c>
       <c r="CB13" s="6">
-        <f t="shared" ref="CB13" si="25">CA13*(1+$R$21)</f>
-        <v>3241.6005218262467</v>
+        <f>CA13*(1+$R$18)</f>
+        <v>2996.6540326196327</v>
       </c>
       <c r="CC13" s="6">
-        <f t="shared" ref="CC13" si="26">CB13*(1+$R$21)</f>
-        <v>3274.0165270445091</v>
+        <f>CB13*(1+$R$18)</f>
+        <v>3026.6205729458293</v>
       </c>
       <c r="CD13" s="6">
-        <f t="shared" ref="CD13" si="27">CC13*(1+$R$21)</f>
-        <v>3306.7566923149543</v>
+        <f>CC13*(1+$R$18)</f>
+        <v>3056.8867786752876</v>
       </c>
       <c r="CE13" s="6">
-        <f t="shared" ref="CE13" si="28">CD13*(1+$R$21)</f>
-        <v>3339.8242592381039</v>
+        <f>CD13*(1+$R$18)</f>
+        <v>3087.4556464620405</v>
       </c>
       <c r="CF13" s="6">
-        <f t="shared" ref="CF13" si="29">CE13*(1+$R$21)</f>
-        <v>3373.2225018304848</v>
+        <f>CE13*(1+$R$18)</f>
+        <v>3118.3302029266611</v>
       </c>
       <c r="CG13" s="6">
-        <f t="shared" ref="CG13" si="30">CF13*(1+$R$21)</f>
-        <v>3406.9547268487895</v>
+        <f>CF13*(1+$R$18)</f>
+        <v>3149.5135049559276</v>
       </c>
       <c r="CH13" s="6">
-        <f t="shared" ref="CH13" si="31">CG13*(1+$R$21)</f>
-        <v>3441.0242741172774</v>
+        <f>CG13*(1+$R$18)</f>
+        <v>3181.008640005487</v>
       </c>
       <c r="CI13" s="6">
-        <f t="shared" ref="CI13" si="32">CH13*(1+$R$21)</f>
-        <v>3475.43451685845</v>
+        <f>CH13*(1+$R$18)</f>
+        <v>3212.8187264055418</v>
       </c>
       <c r="CJ13" s="6">
-        <f t="shared" ref="CJ13" si="33">CI13*(1+$R$21)</f>
-        <v>3510.1888620270347</v>
+        <f>CI13*(1+$R$18)</f>
+        <v>3244.9469136695975</v>
       </c>
       <c r="CK13" s="6">
-        <f t="shared" ref="CK13" si="34">CJ13*(1+$R$21)</f>
-        <v>3545.2907506473052</v>
+        <f>CJ13*(1+$R$18)</f>
+        <v>3277.3963828062933</v>
       </c>
       <c r="CL13" s="6">
-        <f t="shared" ref="CL13" si="35">CK13*(1+$R$21)</f>
-        <v>3580.7436581537781</v>
+        <f>CK13*(1+$R$18)</f>
+        <v>3310.1703466343565</v>
       </c>
       <c r="CM13" s="6">
-        <f t="shared" ref="CM13" si="36">CL13*(1+$R$21)</f>
-        <v>3616.5510947353159</v>
+        <f>CL13*(1+$R$18)</f>
+        <v>3343.2720501007002</v>
       </c>
       <c r="CN13" s="6">
-        <f t="shared" ref="CN13" si="37">CM13*(1+$R$21)</f>
-        <v>3652.7166056826691</v>
+        <f>CM13*(1+$R$18)</f>
+        <v>3376.7047706017074</v>
       </c>
       <c r="CO13" s="6">
-        <f t="shared" ref="CO13" si="38">CN13*(1+$R$21)</f>
-        <v>3689.243771739496</v>
+        <f>CN13*(1+$R$18)</f>
+        <v>3410.4718183077243</v>
       </c>
       <c r="CP13" s="6">
-        <f t="shared" ref="CP13" si="39">CO13*(1+$R$21)</f>
-        <v>3726.1362094568908</v>
+        <f>CO13*(1+$R$18)</f>
+        <v>3444.5765364908016</v>
       </c>
       <c r="CQ13" s="6">
-        <f t="shared" ref="CQ13" si="40">CP13*(1+$R$21)</f>
-        <v>3763.3975715514598</v>
+        <f>CP13*(1+$R$18)</f>
+        <v>3479.0223018557094</v>
       </c>
       <c r="CR13" s="6">
-        <f t="shared" ref="CR13" si="41">CQ13*(1+$R$21)</f>
-        <v>3801.0315472669745</v>
+        <f>CQ13*(1+$R$18)</f>
+        <v>3513.8125248742667</v>
       </c>
       <c r="CS13" s="6">
-        <f t="shared" ref="CS13" si="42">CR13*(1+$R$21)</f>
-        <v>3839.0418627396443</v>
+        <f>CR13*(1+$R$18)</f>
+        <v>3548.9506501230094</v>
       </c>
       <c r="CT13" s="6">
-        <f t="shared" ref="CT13" si="43">CS13*(1+$R$21)</f>
-        <v>3877.432281367041</v>
+        <f>CS13*(1+$R$18)</f>
+        <v>3584.4401566242395</v>
       </c>
       <c r="CU13" s="6">
-        <f t="shared" ref="CU13" si="44">CT13*(1+$R$21)</f>
-        <v>3916.2066041807116</v>
+        <f>CT13*(1+$R$18)</f>
+        <v>3620.2845581904821</v>
       </c>
       <c r="CV13" s="6">
-        <f t="shared" ref="CV13" si="45">CU13*(1+$R$21)</f>
-        <v>3955.3686702225186</v>
+        <f>CU13*(1+$R$18)</f>
+        <v>3656.4874037723871</v>
       </c>
       <c r="CW13" s="6">
-        <f t="shared" ref="CW13" si="46">CV13*(1+$R$21)</f>
-        <v>3994.9223569247438</v>
+        <f>CV13*(1+$R$18)</f>
+        <v>3693.0522778101108</v>
       </c>
       <c r="CX13" s="6">
-        <f t="shared" ref="CX13" si="47">CW13*(1+$R$21)</f>
-        <v>4034.8715804939911</v>
+        <f>CW13*(1+$R$18)</f>
+        <v>3729.9828005882118</v>
       </c>
       <c r="CY13" s="6">
-        <f t="shared" ref="CY13" si="48">CX13*(1+$R$21)</f>
-        <v>4075.2202962989309</v>
+        <f>CX13*(1+$R$18)</f>
+        <v>3767.2826285940941</v>
       </c>
       <c r="CZ13" s="6">
-        <f t="shared" ref="CZ13" si="49">CY13*(1+$R$21)</f>
-        <v>4115.9724992619203</v>
+        <f>CY13*(1+$R$18)</f>
+        <v>3804.9554548800352</v>
       </c>
       <c r="DA13" s="6">
-        <f t="shared" ref="DA13" si="50">CZ13*(1+$R$21)</f>
-        <v>4157.1322242545393</v>
+        <f>CZ13*(1+$R$18)</f>
+        <v>3843.0050094288354</v>
       </c>
       <c r="DB13" s="6">
-        <f t="shared" ref="DB13" si="51">DA13*(1+$R$21)</f>
-        <v>4198.703546497085</v>
+        <f>DA13*(1+$R$18)</f>
+        <v>3881.4350595231235</v>
       </c>
       <c r="DC13" s="6">
-        <f t="shared" ref="DC13" si="52">DB13*(1+$R$21)</f>
-        <v>4240.6905819620561</v>
+        <f>DB13*(1+$R$18)</f>
+        <v>3920.2494101183547</v>
       </c>
       <c r="DD13" s="6">
-        <f t="shared" ref="DD13" si="53">DC13*(1+$R$21)</f>
-        <v>4283.097487781677</v>
+        <f>DC13*(1+$R$18)</f>
+        <v>3959.4519042195384</v>
       </c>
       <c r="DE13" s="6">
-        <f t="shared" ref="DE13" si="54">DD13*(1+$R$21)</f>
-        <v>4325.9284626594936</v>
+        <f>DD13*(1+$R$18)</f>
+        <v>3999.0464232617337</v>
       </c>
       <c r="DF13" s="6">
-        <f t="shared" ref="DF13" si="55">DE13*(1+$R$21)</f>
-        <v>4369.1877472860888</v>
+        <f>DE13*(1+$R$18)</f>
+        <v>4039.036887494351</v>
       </c>
       <c r="DG13" s="6">
-        <f t="shared" ref="DG13" si="56">DF13*(1+$R$21)</f>
-        <v>4412.8796247589498</v>
+        <f>DF13*(1+$R$18)</f>
+        <v>4079.4272563692948</v>
       </c>
       <c r="DH13" s="6">
-        <f t="shared" ref="DH13" si="57">DG13*(1+$R$21)</f>
-        <v>4457.0084210065397</v>
+        <f>DG13*(1+$R$18)</f>
+        <v>4120.2215289329879</v>
       </c>
       <c r="DI13" s="6">
-        <f t="shared" ref="DI13" si="58">DH13*(1+$R$21)</f>
-        <v>4501.5785052166048</v>
+        <f>DH13*(1+$R$18)</f>
+        <v>4161.4237442223175</v>
       </c>
       <c r="DJ13" s="6">
-        <f t="shared" ref="DJ13" si="59">DI13*(1+$R$21)</f>
-        <v>4546.5942902687711</v>
+        <f>DI13*(1+$R$18)</f>
+        <v>4203.0379816645409</v>
       </c>
       <c r="DK13" s="6">
-        <f t="shared" ref="DK13" si="60">DJ13*(1+$R$21)</f>
-        <v>4592.060233171459</v>
+        <f>DJ13*(1+$R$18)</f>
+        <v>4245.068361481186</v>
       </c>
       <c r="DL13" s="6">
-        <f t="shared" ref="DL13" si="61">DK13*(1+$R$21)</f>
-        <v>4637.9808355031737</v>
+        <f>DK13*(1+$R$18)</f>
+        <v>4287.5190450959981</v>
       </c>
       <c r="DM13" s="6">
-        <f t="shared" ref="DM13" si="62">DL13*(1+$R$21)</f>
-        <v>4684.3606438582055</v>
+        <f>DL13*(1+$R$18)</f>
+        <v>4330.394235546958</v>
       </c>
       <c r="DN13" s="6">
-        <f t="shared" ref="DN13" si="63">DM13*(1+$R$21)</f>
-        <v>4731.2042502967879</v>
+        <f>DM13*(1+$R$18)</f>
+        <v>4373.6981779024272</v>
       </c>
       <c r="DO13" s="6">
-        <f t="shared" ref="DO13" si="64">DN13*(1+$R$21)</f>
-        <v>4778.5162927997562</v>
+        <f>DN13*(1+$R$18)</f>
+        <v>4417.4351596814513</v>
       </c>
       <c r="DP13" s="6">
-        <f t="shared" ref="DP13" si="65">DO13*(1+$R$21)</f>
-        <v>4826.3014557277538</v>
+        <f>DO13*(1+$R$18)</f>
+        <v>4461.6095112782659</v>
       </c>
       <c r="DQ13" s="6">
-        <f t="shared" ref="DQ13" si="66">DP13*(1+$R$21)</f>
-        <v>4874.5644702850313</v>
+        <f>DP13*(1+$R$18)</f>
+        <v>4506.225606391049</v>
       </c>
     </row>
     <row r="14" spans="1:121" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1814,24 +1817,24 @@
         <v>2.7452479948100965</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" ref="K15:O15" si="67">K13/K14</f>
+        <f t="shared" ref="K15:O15" si="18">K13/K14</f>
         <v>0.65642814589968124</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="67"/>
-        <v>0.99010463772880131</v>
+        <f t="shared" si="18"/>
+        <v>0.96814552186474834</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="67"/>
-        <v>1.3998030114273234</v>
+        <f t="shared" si="18"/>
+        <v>1.3418121542425676</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="67"/>
-        <v>1.8989619427031779</v>
+        <f t="shared" si="18"/>
+        <v>1.7868604142376781</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="67"/>
-        <v>2.5031495575226415</v>
+        <f t="shared" si="18"/>
+        <v>2.3140029640587323</v>
       </c>
     </row>
     <row r="16" spans="1:121" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1840,36 +1843,42 @@
         <v>39</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:O17" si="68">H5/H2</f>
+        <f t="shared" ref="H17:O17" si="19">H5/H2</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="19"/>
         <v>0.34972176759410806</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="19"/>
         <v>0.34025342841470108</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="19"/>
         <v>0.32545980109232275</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="68"/>
-        <v>0.31105892493779524</v>
+        <f t="shared" si="19"/>
+        <v>0.3107994496917677</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="68"/>
-        <v>0.29729525569276</v>
+        <f t="shared" si="19"/>
+        <v>0.29679947448042682</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="68"/>
-        <v>0.28414059836122196</v>
+        <f t="shared" si="19"/>
+        <v>0.2834301287831103</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="68"/>
-        <v>0.27156800551338028</v>
+        <f t="shared" si="19"/>
+        <v>0.27066300586495212</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:147" x14ac:dyDescent="0.25">
@@ -1884,32 +1893,38 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7">
-        <f t="shared" ref="I18:O18" si="69">I2/H2-1</f>
+        <f t="shared" ref="I18:O18" si="20">I2/H2-1</f>
         <v>9.0292648108494022E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="20"/>
         <v>0.1934533551554829</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="20"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="69"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" si="20"/>
+        <v>0.1100000000000001</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="69"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" si="20"/>
+        <v>0.1100000000000001</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="69"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" si="20"/>
+        <v>0.1100000000000001</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="69"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" si="20"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:147" x14ac:dyDescent="0.25">
@@ -1952,20 +1967,26 @@
         <v>0.80213972846955572</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:O19" si="70">K19*1.01</f>
+        <f t="shared" ref="L19:O19" si="21">K19*1.01</f>
         <v>0.81016112575425125</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="21"/>
         <v>0.81826273701179375</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="21"/>
         <v>0.82644536438191174</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="21"/>
         <v>0.83470981802573085</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:147" x14ac:dyDescent="0.25">
@@ -1981,920 +2002,859 @@
         <v>0.80773294117647054</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:O20" si="71">H13/H2</f>
+        <f t="shared" ref="H20:O20" si="22">H13/H2</f>
         <v>-3.4261241970021415E-2</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="22"/>
         <v>-1.1456628477905073E-2</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="22"/>
         <v>0.51067937465715851</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="22"/>
         <v>0.10618326830475323</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="71"/>
-        <v>0.14173318475230723</v>
+        <f t="shared" si="22"/>
+        <v>0.14108685634156476</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="71"/>
-        <v>0.17732865949979426</v>
+        <f t="shared" si="22"/>
+        <v>0.17616298410839232</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="71"/>
-        <v>0.21288733491865885</v>
+        <f t="shared" si="22"/>
+        <v>0.2113443226503505</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="71"/>
-        <v>0.24833727946487638</v>
+        <f t="shared" si="22"/>
+        <v>0.24657037196151349</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0.06</v>
+        <v>23</v>
+      </c>
+      <c r="R20" s="2">
+        <f>NPV(R19,K27:EQ27)+Sheet1!G17-Sheet1!G18</f>
+        <v>23660.862902947098</v>
       </c>
     </row>
     <row r="21" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4">
+        <f>H27/H2</f>
+        <v>0.12169878658101356</v>
+      </c>
+      <c r="I21" s="4">
+        <f>I27/I2</f>
+        <v>0.18854337152209494</v>
+      </c>
+      <c r="J21" s="4">
+        <f>J27/J2</f>
+        <v>0.20405924300603401</v>
+      </c>
+      <c r="K21" s="4">
+        <f>J21*1.05</f>
+        <v>0.21426220515633571</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" ref="L21:O21" si="23">K21*1.05</f>
+        <v>0.2249753154141525</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="23"/>
+        <v>0.23622408118486013</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="23"/>
+        <v>0.24803528524410315</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="23"/>
+        <v>0.2604370495063083</v>
+      </c>
       <c r="Q21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <f>R20/Sheet1!G15</f>
+        <v>34.885678967544081</v>
       </c>
     </row>
     <row r="22" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="4">
+        <f>R21/Sheet1!G14-1</f>
+        <v>0.3417568833670801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>0.21</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>0.21</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <f>H12/H11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <f>I12/I11</f>
         <v>-1.1646415552855192</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="4">
         <f>J12/J11</f>
         <v>-5.4777446109742725</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K23" s="4">
         <v>0.19</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="4">
         <v>0.19</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="4">
         <v>0.19</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="4">
         <v>0.19</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>0.19</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="H23" s="4">
-        <f>H24/H4</f>
-        <v>0.16738044254104212</v>
-      </c>
-      <c r="I23" s="4">
-        <f>I24/I4</f>
-        <v>0.25906078842382857</v>
-      </c>
-      <c r="J23" s="4">
-        <f>J24/J4</f>
-        <v>0.33325908390013281</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="L23" s="4">
-        <f>K23*1.05</f>
-        <v>0.34650000000000003</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" ref="M23:O23" si="72">L23*1.05</f>
-        <v>0.36382500000000007</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="72"/>
-        <v>0.38201625000000006</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="72"/>
-        <v>0.40111706250000007</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="2">
-        <f>NPV(R22,K26:EQ26)+Sheet1!G17-Sheet1!G18</f>
-        <v>23587.050628653757</v>
-      </c>
     </row>
     <row r="24" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="2">
-        <v>469</v>
-      </c>
-      <c r="I24" s="2">
-        <v>613</v>
-      </c>
-      <c r="J24" s="2">
-        <v>965</v>
-      </c>
-      <c r="K24" s="2">
-        <f>K23*K4</f>
-        <v>1109.8862502749998</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" ref="L24:O24" si="73">L23*L4</f>
-        <v>1330.0488363108002</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="73"/>
-        <v>1593.8839737255921</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="73"/>
-        <v>1910.0547681736693</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="73"/>
-        <v>2288.9427822624389</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2">
-        <f>R23/Sheet1!G15</f>
-        <v>34.776849829932999</v>
-      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2">
+        <v>469</v>
+      </c>
+      <c r="I25" s="2">
+        <v>613</v>
+      </c>
+      <c r="J25" s="2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>128</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>37</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="2">
         <v>221</v>
       </c>
-      <c r="K25" s="2">
-        <f>K24*K27</f>
-        <v>299.66928757424995</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" ref="L25:O25" si="74">L24*L27</f>
-        <v>359.11318580391605</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="74"/>
-        <v>430.34867290590989</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="74"/>
-        <v>515.71478740689076</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="74"/>
-        <v>618.01455121085849</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="4">
-        <f>R24/Sheet1!G14-1</f>
-        <v>0.40911060899242302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="6">
-        <f>B24-B25</f>
+      <c r="B27" s="6">
+        <f>B25-B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="6">
-        <f>C24-C25</f>
+      <c r="C27" s="6">
+        <f>C25-C26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="6">
-        <f>D24-D25</f>
+      <c r="D27" s="6">
+        <f>D25-D26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="6">
-        <f>E24-E25</f>
+      <c r="E27" s="6">
+        <f>E25-E26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="6">
-        <f>F24-F25</f>
+      <c r="F27" s="6">
+        <f>F25-F26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
-        <f>H24-H25</f>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <f>H25-H26</f>
         <v>341</v>
       </c>
-      <c r="I26" s="6">
-        <f>I24-I25</f>
+      <c r="I27" s="6">
+        <f>I25-I26</f>
         <v>576</v>
       </c>
-      <c r="J26" s="6">
-        <f>J24-J25</f>
+      <c r="J27" s="6">
+        <f>J25-J26</f>
         <v>744</v>
       </c>
-      <c r="K26" s="6">
-        <f>K24-K25</f>
-        <v>810.21696270074995</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" ref="L26:O26" si="75">L24-L25</f>
-        <v>970.93565050688414</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="75"/>
-        <v>1163.5353008196821</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="75"/>
-        <v>1394.3399807667786</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="75"/>
-        <v>1670.9282310515805</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" ref="P26" si="76">O26*(1+$R$21)</f>
-        <v>1687.6375133620963</v>
-      </c>
-      <c r="Q26" s="6">
-        <f t="shared" ref="Q26" si="77">P26*(1+$R$21)</f>
-        <v>1704.5138884957173</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" ref="R26" si="78">Q26*(1+$R$21)</f>
-        <v>1721.5590273806745</v>
-      </c>
-      <c r="S26" s="6">
-        <f t="shared" ref="S26" si="79">R26*(1+$R$21)</f>
-        <v>1738.7746176544813</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" ref="T26" si="80">S26*(1+$R$21)</f>
-        <v>1756.1623638310261</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" ref="U26" si="81">T26*(1+$R$21)</f>
-        <v>1773.7239874693364</v>
-      </c>
-      <c r="V26" s="6">
-        <f t="shared" ref="V26" si="82">U26*(1+$R$21)</f>
-        <v>1791.4612273440298</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" ref="W26" si="83">V26*(1+$R$21)</f>
-        <v>1809.3758396174701</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" ref="X26" si="84">W26*(1+$R$21)</f>
-        <v>1827.4695980136448</v>
-      </c>
-      <c r="Y26" s="6">
-        <f t="shared" ref="Y26" si="85">X26*(1+$R$21)</f>
-        <v>1845.7442939937812</v>
-      </c>
-      <c r="Z26" s="6">
-        <f t="shared" ref="Z26" si="86">Y26*(1+$R$21)</f>
-        <v>1864.2017369337191</v>
-      </c>
-      <c r="AA26" s="6">
-        <f t="shared" ref="AA26" si="87">Z26*(1+$R$21)</f>
-        <v>1882.8437543030564</v>
-      </c>
-      <c r="AB26" s="6">
-        <f t="shared" ref="AB26" si="88">AA26*(1+$R$21)</f>
-        <v>1901.6721918460869</v>
-      </c>
-      <c r="AC26" s="6">
-        <f t="shared" ref="AC26" si="89">AB26*(1+$R$21)</f>
-        <v>1920.6889137645478</v>
-      </c>
-      <c r="AD26" s="6">
-        <f t="shared" ref="AD26" si="90">AC26*(1+$R$21)</f>
-        <v>1939.8958029021933</v>
-      </c>
-      <c r="AE26" s="6">
-        <f t="shared" ref="AE26" si="91">AD26*(1+$R$21)</f>
-        <v>1959.2947609312153</v>
-      </c>
-      <c r="AF26" s="6">
-        <f t="shared" ref="AF26" si="92">AE26*(1+$R$21)</f>
-        <v>1978.8877085405275</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" ref="AG26" si="93">AF26*(1+$R$21)</f>
-        <v>1998.6765856259328</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" ref="AH26" si="94">AG26*(1+$R$21)</f>
-        <v>2018.6633514821922</v>
-      </c>
-      <c r="AI26" s="6">
-        <f t="shared" ref="AI26" si="95">AH26*(1+$R$21)</f>
-        <v>2038.8499849970142</v>
-      </c>
-      <c r="AJ26" s="6">
-        <f t="shared" ref="AJ26" si="96">AI26*(1+$R$21)</f>
-        <v>2059.2384848469842</v>
-      </c>
-      <c r="AK26" s="6">
-        <f t="shared" ref="AK26" si="97">AJ26*(1+$R$21)</f>
-        <v>2079.8308696954541</v>
-      </c>
-      <c r="AL26" s="6">
-        <f t="shared" ref="AL26" si="98">AK26*(1+$R$21)</f>
-        <v>2100.6291783924084</v>
-      </c>
-      <c r="AM26" s="6">
-        <f t="shared" ref="AM26" si="99">AL26*(1+$R$21)</f>
-        <v>2121.6354701763325</v>
-      </c>
-      <c r="AN26" s="6">
-        <f t="shared" ref="AN26" si="100">AM26*(1+$R$21)</f>
-        <v>2142.8518248780961</v>
-      </c>
-      <c r="AO26" s="6">
-        <f t="shared" ref="AO26" si="101">AN26*(1+$R$21)</f>
-        <v>2164.2803431268771</v>
-      </c>
-      <c r="AP26" s="6">
-        <f t="shared" ref="AP26" si="102">AO26*(1+$R$21)</f>
-        <v>2185.9231465581461</v>
-      </c>
-      <c r="AQ26" s="6">
-        <f t="shared" ref="AQ26" si="103">AP26*(1+$R$21)</f>
-        <v>2207.7823780237277</v>
-      </c>
-      <c r="AR26" s="6">
-        <f t="shared" ref="AR26" si="104">AQ26*(1+$R$21)</f>
-        <v>2229.8602018039651</v>
-      </c>
-      <c r="AS26" s="6">
-        <f t="shared" ref="AS26" si="105">AR26*(1+$R$21)</f>
-        <v>2252.1588038220048</v>
-      </c>
-      <c r="AT26" s="6">
-        <f t="shared" ref="AT26" si="106">AS26*(1+$R$21)</f>
-        <v>2274.680391860225</v>
-      </c>
-      <c r="AU26" s="6">
-        <f t="shared" ref="AU26" si="107">AT26*(1+$R$21)</f>
-        <v>2297.4271957788274</v>
-      </c>
-      <c r="AV26" s="6">
-        <f t="shared" ref="AV26" si="108">AU26*(1+$R$21)</f>
-        <v>2320.4014677366158</v>
-      </c>
-      <c r="AW26" s="6">
-        <f t="shared" ref="AW26" si="109">AV26*(1+$R$21)</f>
-        <v>2343.6054824139819</v>
-      </c>
-      <c r="AX26" s="6">
-        <f t="shared" ref="AX26" si="110">AW26*(1+$R$21)</f>
-        <v>2367.0415372381217</v>
-      </c>
-      <c r="AY26" s="6">
-        <f t="shared" ref="AY26" si="111">AX26*(1+$R$21)</f>
-        <v>2390.711952610503</v>
-      </c>
-      <c r="AZ26" s="6">
-        <f t="shared" ref="AZ26" si="112">AY26*(1+$R$21)</f>
-        <v>2414.6190721366079</v>
-      </c>
-      <c r="BA26" s="6">
-        <f t="shared" ref="BA26" si="113">AZ26*(1+$R$21)</f>
-        <v>2438.765262857974</v>
-      </c>
-      <c r="BB26" s="6">
-        <f t="shared" ref="BB26" si="114">BA26*(1+$R$21)</f>
-        <v>2463.1529154865539</v>
-      </c>
-      <c r="BC26" s="6">
-        <f t="shared" ref="BC26" si="115">BB26*(1+$R$21)</f>
-        <v>2487.7844446414192</v>
-      </c>
-      <c r="BD26" s="6">
-        <f t="shared" ref="BD26" si="116">BC26*(1+$R$21)</f>
-        <v>2512.6622890878334</v>
-      </c>
-      <c r="BE26" s="6">
-        <f t="shared" ref="BE26" si="117">BD26*(1+$R$21)</f>
-        <v>2537.7889119787119</v>
-      </c>
-      <c r="BF26" s="6">
-        <f t="shared" ref="BF26" si="118">BE26*(1+$R$21)</f>
-        <v>2563.166801098499</v>
-      </c>
-      <c r="BG26" s="6">
-        <f t="shared" ref="BG26" si="119">BF26*(1+$R$21)</f>
-        <v>2588.7984691094839</v>
-      </c>
-      <c r="BH26" s="6">
-        <f t="shared" ref="BH26" si="120">BG26*(1+$R$21)</f>
-        <v>2614.6864538005789</v>
-      </c>
-      <c r="BI26" s="6">
-        <f t="shared" ref="BI26" si="121">BH26*(1+$R$21)</f>
-        <v>2640.8333183385848</v>
-      </c>
-      <c r="BJ26" s="6">
-        <f t="shared" ref="BJ26" si="122">BI26*(1+$R$21)</f>
-        <v>2667.2416515219707</v>
-      </c>
-      <c r="BK26" s="6">
-        <f t="shared" ref="BK26" si="123">BJ26*(1+$R$21)</f>
-        <v>2693.9140680371902</v>
-      </c>
-      <c r="BL26" s="6">
-        <f t="shared" ref="BL26" si="124">BK26*(1+$R$21)</f>
-        <v>2720.8532087175622</v>
-      </c>
-      <c r="BM26" s="6">
-        <f t="shared" ref="BM26" si="125">BL26*(1+$R$21)</f>
-        <v>2748.0617408047378</v>
-      </c>
-      <c r="BN26" s="6">
-        <f t="shared" ref="BN26" si="126">BM26*(1+$R$21)</f>
-        <v>2775.5423582127851</v>
-      </c>
-      <c r="BO26" s="6">
-        <f t="shared" ref="BO26" si="127">BN26*(1+$R$21)</f>
-        <v>2803.2977817949131</v>
-      </c>
-      <c r="BP26" s="6">
-        <f t="shared" ref="BP26" si="128">BO26*(1+$R$21)</f>
-        <v>2831.3307596128625</v>
-      </c>
-      <c r="BQ26" s="6">
-        <f t="shared" ref="BQ26" si="129">BP26*(1+$R$21)</f>
-        <v>2859.6440672089911</v>
-      </c>
-      <c r="BR26" s="6">
-        <f t="shared" ref="BR26" si="130">BQ26*(1+$R$21)</f>
-        <v>2888.2405078810812</v>
-      </c>
-      <c r="BS26" s="6">
-        <f t="shared" ref="BS26" si="131">BR26*(1+$R$21)</f>
-        <v>2917.1229129598919</v>
-      </c>
-      <c r="BT26" s="6">
-        <f t="shared" ref="BT26" si="132">BS26*(1+$R$21)</f>
-        <v>2946.2941420894908</v>
-      </c>
-      <c r="BU26" s="6">
-        <f t="shared" ref="BU26" si="133">BT26*(1+$R$21)</f>
-        <v>2975.7570835103857</v>
-      </c>
-      <c r="BV26" s="6">
-        <f t="shared" ref="BV26" si="134">BU26*(1+$R$21)</f>
-        <v>3005.5146543454894</v>
-      </c>
-      <c r="BW26" s="6">
-        <f t="shared" ref="BW26" si="135">BV26*(1+$R$21)</f>
-        <v>3035.5698008889444</v>
-      </c>
-      <c r="BX26" s="6">
-        <f t="shared" ref="BX26" si="136">BW26*(1+$R$21)</f>
-        <v>3065.9254988978337</v>
-      </c>
-      <c r="BY26" s="6">
-        <f t="shared" ref="BY26" si="137">BX26*(1+$R$21)</f>
-        <v>3096.584753886812</v>
-      </c>
-      <c r="BZ26" s="6">
-        <f t="shared" ref="BZ26" si="138">BY26*(1+$R$21)</f>
-        <v>3127.5506014256803</v>
-      </c>
-      <c r="CA26" s="6">
-        <f t="shared" ref="CA26" si="139">BZ26*(1+$R$21)</f>
-        <v>3158.826107439937</v>
-      </c>
-      <c r="CB26" s="6">
-        <f t="shared" ref="CB26" si="140">CA26*(1+$R$21)</f>
-        <v>3190.4143685143363</v>
-      </c>
-      <c r="CC26" s="6">
-        <f t="shared" ref="CC26" si="141">CB26*(1+$R$21)</f>
-        <v>3222.3185121994798</v>
-      </c>
-      <c r="CD26" s="6">
-        <f t="shared" ref="CD26" si="142">CC26*(1+$R$21)</f>
-        <v>3254.5416973214747</v>
-      </c>
-      <c r="CE26" s="6">
-        <f t="shared" ref="CE26" si="143">CD26*(1+$R$21)</f>
-        <v>3287.0871142946894</v>
-      </c>
-      <c r="CF26" s="6">
-        <f t="shared" ref="CF26" si="144">CE26*(1+$R$21)</f>
-        <v>3319.9579854376361</v>
-      </c>
-      <c r="CG26" s="6">
-        <f t="shared" ref="CG26" si="145">CF26*(1+$R$21)</f>
-        <v>3353.1575652920124</v>
-      </c>
-      <c r="CH26" s="6">
-        <f t="shared" ref="CH26" si="146">CG26*(1+$R$21)</f>
-        <v>3386.6891409449327</v>
-      </c>
-      <c r="CI26" s="6">
-        <f t="shared" ref="CI26" si="147">CH26*(1+$R$21)</f>
-        <v>3420.5560323543818</v>
-      </c>
-      <c r="CJ26" s="6">
-        <f t="shared" ref="CJ26" si="148">CI26*(1+$R$21)</f>
-        <v>3454.7615926779258</v>
-      </c>
-      <c r="CK26" s="6">
-        <f t="shared" ref="CK26" si="149">CJ26*(1+$R$21)</f>
-        <v>3489.309208604705</v>
-      </c>
-      <c r="CL26" s="6">
-        <f t="shared" ref="CL26" si="150">CK26*(1+$R$21)</f>
-        <v>3524.2023006907521</v>
-      </c>
-      <c r="CM26" s="6">
-        <f t="shared" ref="CM26" si="151">CL26*(1+$R$21)</f>
-        <v>3559.4443236976595</v>
-      </c>
-      <c r="CN26" s="6">
-        <f t="shared" ref="CN26" si="152">CM26*(1+$R$21)</f>
-        <v>3595.038766934636</v>
-      </c>
-      <c r="CO26" s="6">
-        <f t="shared" ref="CO26" si="153">CN26*(1+$R$21)</f>
-        <v>3630.9891546039826</v>
-      </c>
-      <c r="CP26" s="6">
-        <f t="shared" ref="CP26" si="154">CO26*(1+$R$21)</f>
-        <v>3667.2990461500226</v>
-      </c>
-      <c r="CQ26" s="6">
-        <f t="shared" ref="CQ26" si="155">CP26*(1+$R$21)</f>
-        <v>3703.972036611523</v>
-      </c>
-      <c r="CR26" s="6">
-        <f t="shared" ref="CR26" si="156">CQ26*(1+$R$21)</f>
-        <v>3741.0117569776385</v>
-      </c>
-      <c r="CS26" s="6">
-        <f t="shared" ref="CS26" si="157">CR26*(1+$R$21)</f>
-        <v>3778.421874547415</v>
-      </c>
-      <c r="CT26" s="6">
-        <f t="shared" ref="CT26" si="158">CS26*(1+$R$21)</f>
-        <v>3816.2060932928894</v>
-      </c>
-      <c r="CU26" s="6">
-        <f t="shared" ref="CU26" si="159">CT26*(1+$R$21)</f>
-        <v>3854.3681542258182</v>
-      </c>
-      <c r="CV26" s="6">
-        <f t="shared" ref="CV26" si="160">CU26*(1+$R$21)</f>
-        <v>3892.9118357680763</v>
-      </c>
-      <c r="CW26" s="6">
-        <f t="shared" ref="CW26" si="161">CV26*(1+$R$21)</f>
-        <v>3931.840954125757</v>
-      </c>
-      <c r="CX26" s="6">
-        <f t="shared" ref="CX26" si="162">CW26*(1+$R$21)</f>
-        <v>3971.1593636670145</v>
-      </c>
-      <c r="CY26" s="6">
-        <f t="shared" ref="CY26" si="163">CX26*(1+$R$21)</f>
-        <v>4010.8709573036849</v>
-      </c>
-      <c r="CZ26" s="6">
-        <f t="shared" ref="CZ26" si="164">CY26*(1+$R$21)</f>
-        <v>4050.9796668767217</v>
-      </c>
-      <c r="DA26" s="6">
-        <f t="shared" ref="DA26" si="165">CZ26*(1+$R$21)</f>
-        <v>4091.4894635454889</v>
-      </c>
-      <c r="DB26" s="6">
-        <f t="shared" ref="DB26" si="166">DA26*(1+$R$21)</f>
-        <v>4132.4043581809437</v>
-      </c>
-      <c r="DC26" s="6">
-        <f t="shared" ref="DC26" si="167">DB26*(1+$R$21)</f>
-        <v>4173.7284017627535</v>
-      </c>
-      <c r="DD26" s="6">
-        <f t="shared" ref="DD26" si="168">DC26*(1+$R$21)</f>
-        <v>4215.4656857803811</v>
-      </c>
-      <c r="DE26" s="6">
-        <f t="shared" ref="DE26" si="169">DD26*(1+$R$21)</f>
-        <v>4257.6203426381853</v>
-      </c>
-      <c r="DF26" s="6">
-        <f t="shared" ref="DF26" si="170">DE26*(1+$R$21)</f>
-        <v>4300.196546064567</v>
-      </c>
-      <c r="DG26" s="6">
-        <f t="shared" ref="DG26" si="171">DF26*(1+$R$21)</f>
-        <v>4343.1985115252128</v>
-      </c>
-      <c r="DH26" s="6">
-        <f t="shared" ref="DH26" si="172">DG26*(1+$R$21)</f>
-        <v>4386.630496640465</v>
-      </c>
-      <c r="DI26" s="6">
-        <f t="shared" ref="DI26" si="173">DH26*(1+$R$21)</f>
-        <v>4430.4968016068697</v>
-      </c>
-      <c r="DJ26" s="6">
-        <f t="shared" ref="DJ26" si="174">DI26*(1+$R$21)</f>
-        <v>4474.8017696229381</v>
-      </c>
-      <c r="DK26" s="6">
-        <f t="shared" ref="DK26" si="175">DJ26*(1+$R$21)</f>
-        <v>4519.5497873191671</v>
-      </c>
-      <c r="DL26" s="6">
-        <f t="shared" ref="DL26" si="176">DK26*(1+$R$21)</f>
-        <v>4564.745285192359</v>
-      </c>
-      <c r="DM26" s="6">
-        <f t="shared" ref="DM26" si="177">DL26*(1+$R$21)</f>
-        <v>4610.3927380442829</v>
-      </c>
-      <c r="DN26" s="6">
-        <f t="shared" ref="DN26" si="178">DM26*(1+$R$21)</f>
-        <v>4656.4966654247255</v>
-      </c>
-      <c r="DO26" s="6">
-        <f t="shared" ref="DO26" si="179">DN26*(1+$R$21)</f>
-        <v>4703.0616320789732</v>
-      </c>
-      <c r="DP26" s="6">
-        <f t="shared" ref="DP26" si="180">DO26*(1+$R$21)</f>
-        <v>4750.0922483997629</v>
-      </c>
-      <c r="DQ26" s="6">
-        <f t="shared" ref="DQ26" si="181">DP26*(1+$R$21)</f>
-        <v>4797.5931708837606</v>
-      </c>
-      <c r="DR26" s="6">
-        <f t="shared" ref="DR26" si="182">DQ26*(1+$R$21)</f>
-        <v>4845.569102592598</v>
-      </c>
-      <c r="DS26" s="6">
-        <f t="shared" ref="DS26" si="183">DR26*(1+$R$21)</f>
-        <v>4894.0247936185242</v>
-      </c>
-      <c r="DT26" s="6">
-        <f t="shared" ref="DT26" si="184">DS26*(1+$R$21)</f>
-        <v>4942.9650415547094</v>
-      </c>
-      <c r="DU26" s="6">
-        <f t="shared" ref="DU26" si="185">DT26*(1+$R$21)</f>
-        <v>4992.3946919702566</v>
-      </c>
-      <c r="DV26" s="6">
-        <f t="shared" ref="DV26" si="186">DU26*(1+$R$21)</f>
-        <v>5042.3186388899594</v>
-      </c>
-      <c r="DW26" s="6">
-        <f t="shared" ref="DW26" si="187">DV26*(1+$R$21)</f>
-        <v>5092.7418252788593</v>
-      </c>
-      <c r="DX26" s="6">
-        <f t="shared" ref="DX26" si="188">DW26*(1+$R$21)</f>
-        <v>5143.6692435316481</v>
-      </c>
-      <c r="DY26" s="6">
-        <f t="shared" ref="DY26" si="189">DX26*(1+$R$21)</f>
-        <v>5195.1059359669644</v>
-      </c>
-      <c r="DZ26" s="6">
-        <f t="shared" ref="DZ26" si="190">DY26*(1+$R$21)</f>
-        <v>5247.056995326634</v>
-      </c>
-      <c r="EA26" s="6">
-        <f t="shared" ref="EA26" si="191">DZ26*(1+$R$21)</f>
-        <v>5299.5275652799</v>
-      </c>
-      <c r="EB26" s="6">
-        <f t="shared" ref="EB26" si="192">EA26*(1+$R$21)</f>
-        <v>5352.5228409326992</v>
-      </c>
-      <c r="EC26" s="6">
-        <f t="shared" ref="EC26" si="193">EB26*(1+$R$21)</f>
-        <v>5406.0480693420259</v>
-      </c>
-      <c r="ED26" s="6">
-        <f t="shared" ref="ED26" si="194">EC26*(1+$R$21)</f>
-        <v>5460.1085500354466</v>
-      </c>
-      <c r="EE26" s="6">
-        <f t="shared" ref="EE26" si="195">ED26*(1+$R$21)</f>
-        <v>5514.7096355358008</v>
-      </c>
-      <c r="EF26" s="6">
-        <f t="shared" ref="EF26" si="196">EE26*(1+$R$21)</f>
-        <v>5569.8567318911591</v>
-      </c>
-      <c r="EG26" s="6">
-        <f t="shared" ref="EG26" si="197">EF26*(1+$R$21)</f>
-        <v>5625.5552992100711</v>
-      </c>
-      <c r="EH26" s="6">
-        <f t="shared" ref="EH26" si="198">EG26*(1+$R$21)</f>
-        <v>5681.8108522021721</v>
-      </c>
-      <c r="EI26" s="6">
-        <f t="shared" ref="EI26" si="199">EH26*(1+$R$21)</f>
-        <v>5738.6289607241943</v>
-      </c>
-      <c r="EJ26" s="6">
-        <f t="shared" ref="EJ26" si="200">EI26*(1+$R$21)</f>
-        <v>5796.0152503314366</v>
-      </c>
-      <c r="EK26" s="6">
-        <f t="shared" ref="EK26" si="201">EJ26*(1+$R$21)</f>
-        <v>5853.9754028347506</v>
-      </c>
-      <c r="EL26" s="6">
-        <f t="shared" ref="EL26" si="202">EK26*(1+$R$21)</f>
-        <v>5912.5151568630981</v>
-      </c>
-      <c r="EM26" s="6">
-        <f t="shared" ref="EM26" si="203">EL26*(1+$R$21)</f>
-        <v>5971.640308431729</v>
-      </c>
-      <c r="EN26" s="6">
-        <f t="shared" ref="EN26" si="204">EM26*(1+$R$21)</f>
-        <v>6031.3567115160467</v>
-      </c>
-      <c r="EO26" s="6">
-        <f t="shared" ref="EO26" si="205">EN26*(1+$R$21)</f>
-        <v>6091.6702786312071</v>
-      </c>
-      <c r="EP26" s="6">
-        <f t="shared" ref="EP26" si="206">EO26*(1+$R$21)</f>
-        <v>6152.5869814175194</v>
-      </c>
-      <c r="EQ26" s="6">
-        <f t="shared" ref="EQ26" si="207">EP26*(1+$R$21)</f>
-        <v>6214.1128512316945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="H27" s="4">
-        <f>H25/H24</f>
-        <v>0.27292110874200426</v>
-      </c>
-      <c r="I27" s="4">
-        <f>I25/I24</f>
-        <v>6.0358890701468187E-2</v>
-      </c>
-      <c r="J27" s="4">
-        <f>J25/J24</f>
-        <v>0.22901554404145077</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0.27</v>
+      <c r="K27" s="6">
+        <f>K21*K2</f>
+        <v>898.37999999999988</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" ref="L27:O27" si="24">L21*L2</f>
+        <v>1047.0618899999999</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="24"/>
+        <v>1220.3506327949999</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="24"/>
+        <v>1422.3186625225726</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="24"/>
+        <v>1657.7124011700585</v>
+      </c>
+      <c r="P27" s="6">
+        <f>O27*(1+$R$18)</f>
+        <v>1674.289525181759</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>P27*(1+$R$18)</f>
+        <v>1691.0324204335766</v>
+      </c>
+      <c r="R27" s="6">
+        <f>Q27*(1+$R$18)</f>
+        <v>1707.9427446379125</v>
+      </c>
+      <c r="S27" s="6">
+        <f>R27*(1+$R$18)</f>
+        <v>1725.0221720842917</v>
+      </c>
+      <c r="T27" s="6">
+        <f>S27*(1+$R$18)</f>
+        <v>1742.2723938051347</v>
+      </c>
+      <c r="U27" s="6">
+        <f>T27*(1+$R$18)</f>
+        <v>1759.6951177431861</v>
+      </c>
+      <c r="V27" s="6">
+        <f>U27*(1+$R$18)</f>
+        <v>1777.292068920618</v>
+      </c>
+      <c r="W27" s="6">
+        <f>V27*(1+$R$18)</f>
+        <v>1795.0649896098241</v>
+      </c>
+      <c r="X27" s="6">
+        <f>W27*(1+$R$18)</f>
+        <v>1813.0156395059223</v>
+      </c>
+      <c r="Y27" s="6">
+        <f>X27*(1+$R$18)</f>
+        <v>1831.1457959009815</v>
+      </c>
+      <c r="Z27" s="6">
+        <f>Y27*(1+$R$18)</f>
+        <v>1849.4572538599914</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>Z27*(1+$R$18)</f>
+        <v>1867.9518263985913</v>
+      </c>
+      <c r="AB27" s="6">
+        <f>AA27*(1+$R$18)</f>
+        <v>1886.6313446625772</v>
+      </c>
+      <c r="AC27" s="6">
+        <f>AB27*(1+$R$18)</f>
+        <v>1905.497658109203</v>
+      </c>
+      <c r="AD27" s="6">
+        <f>AC27*(1+$R$18)</f>
+        <v>1924.552634690295</v>
+      </c>
+      <c r="AE27" s="6">
+        <f>AD27*(1+$R$18)</f>
+        <v>1943.798161037198</v>
+      </c>
+      <c r="AF27" s="6">
+        <f>AE27*(1+$R$18)</f>
+        <v>1963.23614264757</v>
+      </c>
+      <c r="AG27" s="6">
+        <f>AF27*(1+$R$18)</f>
+        <v>1982.8685040740456</v>
+      </c>
+      <c r="AH27" s="6">
+        <f>AG27*(1+$R$18)</f>
+        <v>2002.6971891147862</v>
+      </c>
+      <c r="AI27" s="6">
+        <f>AH27*(1+$R$18)</f>
+        <v>2022.7241610059341</v>
+      </c>
+      <c r="AJ27" s="6">
+        <f>AI27*(1+$R$18)</f>
+        <v>2042.9514026159934</v>
+      </c>
+      <c r="AK27" s="6">
+        <f>AJ27*(1+$R$18)</f>
+        <v>2063.3809166421534</v>
+      </c>
+      <c r="AL27" s="6">
+        <f>AK27*(1+$R$18)</f>
+        <v>2084.0147258085749</v>
+      </c>
+      <c r="AM27" s="6">
+        <f>AL27*(1+$R$18)</f>
+        <v>2104.8548730666607</v>
+      </c>
+      <c r="AN27" s="6">
+        <f>AM27*(1+$R$18)</f>
+        <v>2125.9034217973272</v>
+      </c>
+      <c r="AO27" s="6">
+        <f>AN27*(1+$R$18)</f>
+        <v>2147.1624560153004</v>
+      </c>
+      <c r="AP27" s="6">
+        <f>AO27*(1+$R$18)</f>
+        <v>2168.6340805754535</v>
+      </c>
+      <c r="AQ27" s="6">
+        <f>AP27*(1+$R$18)</f>
+        <v>2190.3204213812082</v>
+      </c>
+      <c r="AR27" s="6">
+        <f>AQ27*(1+$R$18)</f>
+        <v>2212.2236255950202</v>
+      </c>
+      <c r="AS27" s="6">
+        <f>AR27*(1+$R$18)</f>
+        <v>2234.3458618509703</v>
+      </c>
+      <c r="AT27" s="6">
+        <f>AS27*(1+$R$18)</f>
+        <v>2256.6893204694802</v>
+      </c>
+      <c r="AU27" s="6">
+        <f>AT27*(1+$R$18)</f>
+        <v>2279.2562136741749</v>
+      </c>
+      <c r="AV27" s="6">
+        <f>AU27*(1+$R$18)</f>
+        <v>2302.0487758109166</v>
+      </c>
+      <c r="AW27" s="6">
+        <f>AV27*(1+$R$18)</f>
+        <v>2325.0692635690257</v>
+      </c>
+      <c r="AX27" s="6">
+        <f>AW27*(1+$R$18)</f>
+        <v>2348.3199562047162</v>
+      </c>
+      <c r="AY27" s="6">
+        <f>AX27*(1+$R$18)</f>
+        <v>2371.8031557667632</v>
+      </c>
+      <c r="AZ27" s="6">
+        <f>AY27*(1+$R$18)</f>
+        <v>2395.5211873244307</v>
+      </c>
+      <c r="BA27" s="6">
+        <f>AZ27*(1+$R$18)</f>
+        <v>2419.4763991976752</v>
+      </c>
+      <c r="BB27" s="6">
+        <f>BA27*(1+$R$18)</f>
+        <v>2443.6711631896519</v>
+      </c>
+      <c r="BC27" s="6">
+        <f>BB27*(1+$R$18)</f>
+        <v>2468.1078748215486</v>
+      </c>
+      <c r="BD27" s="6">
+        <f>BC27*(1+$R$18)</f>
+        <v>2492.7889535697641</v>
+      </c>
+      <c r="BE27" s="6">
+        <f>BD27*(1+$R$18)</f>
+        <v>2517.716843105462</v>
+      </c>
+      <c r="BF27" s="6">
+        <f>BE27*(1+$R$18)</f>
+        <v>2542.8940115365167</v>
+      </c>
+      <c r="BG27" s="6">
+        <f>BF27*(1+$R$18)</f>
+        <v>2568.3229516518818</v>
+      </c>
+      <c r="BH27" s="6">
+        <f>BG27*(1+$R$18)</f>
+        <v>2594.0061811684004</v>
+      </c>
+      <c r="BI27" s="6">
+        <f>BH27*(1+$R$18)</f>
+        <v>2619.9462429800847</v>
+      </c>
+      <c r="BJ27" s="6">
+        <f>BI27*(1+$R$18)</f>
+        <v>2646.1457054098855</v>
+      </c>
+      <c r="BK27" s="6">
+        <f>BJ27*(1+$R$18)</f>
+        <v>2672.6071624639844</v>
+      </c>
+      <c r="BL27" s="6">
+        <f>BK27*(1+$R$18)</f>
+        <v>2699.3332340886241</v>
+      </c>
+      <c r="BM27" s="6">
+        <f>BL27*(1+$R$18)</f>
+        <v>2726.3265664295104</v>
+      </c>
+      <c r="BN27" s="6">
+        <f>BM27*(1+$R$18)</f>
+        <v>2753.5898320938054</v>
+      </c>
+      <c r="BO27" s="6">
+        <f>BN27*(1+$R$18)</f>
+        <v>2781.1257304147434</v>
+      </c>
+      <c r="BP27" s="6">
+        <f>BO27*(1+$R$18)</f>
+        <v>2808.936987718891</v>
+      </c>
+      <c r="BQ27" s="6">
+        <f>BP27*(1+$R$18)</f>
+        <v>2837.0263575960798</v>
+      </c>
+      <c r="BR27" s="6">
+        <f>BQ27*(1+$R$18)</f>
+        <v>2865.3966211720408</v>
+      </c>
+      <c r="BS27" s="6">
+        <f>BR27*(1+$R$18)</f>
+        <v>2894.050587383761</v>
+      </c>
+      <c r="BT27" s="6">
+        <f>BS27*(1+$R$18)</f>
+        <v>2922.9910932575985</v>
+      </c>
+      <c r="BU27" s="6">
+        <f>BT27*(1+$R$18)</f>
+        <v>2952.2210041901744</v>
+      </c>
+      <c r="BV27" s="6">
+        <f>BU27*(1+$R$18)</f>
+        <v>2981.7432142320763</v>
+      </c>
+      <c r="BW27" s="6">
+        <f>BV27*(1+$R$18)</f>
+        <v>3011.560646374397</v>
+      </c>
+      <c r="BX27" s="6">
+        <f>BW27*(1+$R$18)</f>
+        <v>3041.676252838141</v>
+      </c>
+      <c r="BY27" s="6">
+        <f>BX27*(1+$R$18)</f>
+        <v>3072.0930153665222</v>
+      </c>
+      <c r="BZ27" s="6">
+        <f>BY27*(1+$R$18)</f>
+        <v>3102.8139455201876</v>
+      </c>
+      <c r="CA27" s="6">
+        <f>BZ27*(1+$R$18)</f>
+        <v>3133.8420849753898</v>
+      </c>
+      <c r="CB27" s="6">
+        <f>CA27*(1+$R$18)</f>
+        <v>3165.1805058251439</v>
+      </c>
+      <c r="CC27" s="6">
+        <f>CB27*(1+$R$18)</f>
+        <v>3196.8323108833952</v>
+      </c>
+      <c r="CD27" s="6">
+        <f>CC27*(1+$R$18)</f>
+        <v>3228.800633992229</v>
+      </c>
+      <c r="CE27" s="6">
+        <f>CD27*(1+$R$18)</f>
+        <v>3261.0886403321515</v>
+      </c>
+      <c r="CF27" s="6">
+        <f>CE27*(1+$R$18)</f>
+        <v>3293.6995267354732</v>
+      </c>
+      <c r="CG27" s="6">
+        <f>CF27*(1+$R$18)</f>
+        <v>3326.6365220028279</v>
+      </c>
+      <c r="CH27" s="6">
+        <f>CG27*(1+$R$18)</f>
+        <v>3359.902887222856</v>
+      </c>
+      <c r="CI27" s="6">
+        <f>CH27*(1+$R$18)</f>
+        <v>3393.5019160950847</v>
+      </c>
+      <c r="CJ27" s="6">
+        <f>CI27*(1+$R$18)</f>
+        <v>3427.4369352560357</v>
+      </c>
+      <c r="CK27" s="6">
+        <f>CJ27*(1+$R$18)</f>
+        <v>3461.711304608596</v>
+      </c>
+      <c r="CL27" s="6">
+        <f>CK27*(1+$R$18)</f>
+        <v>3496.3284176546822</v>
+      </c>
+      <c r="CM27" s="6">
+        <f>CL27*(1+$R$18)</f>
+        <v>3531.2917018312291</v>
+      </c>
+      <c r="CN27" s="6">
+        <f>CM27*(1+$R$18)</f>
+        <v>3566.6046188495416</v>
+      </c>
+      <c r="CO27" s="6">
+        <f>CN27*(1+$R$18)</f>
+        <v>3602.2706650380369</v>
+      </c>
+      <c r="CP27" s="6">
+        <f>CO27*(1+$R$18)</f>
+        <v>3638.2933716884172</v>
+      </c>
+      <c r="CQ27" s="6">
+        <f>CP27*(1+$R$18)</f>
+        <v>3674.6763054053013</v>
+      </c>
+      <c r="CR27" s="6">
+        <f>CQ27*(1+$R$18)</f>
+        <v>3711.4230684593545</v>
+      </c>
+      <c r="CS27" s="6">
+        <f>CR27*(1+$R$18)</f>
+        <v>3748.5372991439481</v>
+      </c>
+      <c r="CT27" s="6">
+        <f>CS27*(1+$R$18)</f>
+        <v>3786.0226721353874</v>
+      </c>
+      <c r="CU27" s="6">
+        <f>CT27*(1+$R$18)</f>
+        <v>3823.8828988567411</v>
+      </c>
+      <c r="CV27" s="6">
+        <f>CU27*(1+$R$18)</f>
+        <v>3862.1217278453087</v>
+      </c>
+      <c r="CW27" s="6">
+        <f>CV27*(1+$R$18)</f>
+        <v>3900.7429451237617</v>
+      </c>
+      <c r="CX27" s="6">
+        <f>CW27*(1+$R$18)</f>
+        <v>3939.7503745749996</v>
+      </c>
+      <c r="CY27" s="6">
+        <f>CX27*(1+$R$18)</f>
+        <v>3979.1478783207494</v>
+      </c>
+      <c r="CZ27" s="6">
+        <f>CY27*(1+$R$18)</f>
+        <v>4018.9393571039568</v>
+      </c>
+      <c r="DA27" s="6">
+        <f>CZ27*(1+$R$18)</f>
+        <v>4059.1287506749964</v>
+      </c>
+      <c r="DB27" s="6">
+        <f>DA27*(1+$R$18)</f>
+        <v>4099.7200381817465</v>
+      </c>
+      <c r="DC27" s="6">
+        <f>DB27*(1+$R$18)</f>
+        <v>4140.717238563564</v>
+      </c>
+      <c r="DD27" s="6">
+        <f>DC27*(1+$R$18)</f>
+        <v>4182.1244109492</v>
+      </c>
+      <c r="DE27" s="6">
+        <f>DD27*(1+$R$18)</f>
+        <v>4223.945655058692</v>
+      </c>
+      <c r="DF27" s="6">
+        <f>DE27*(1+$R$18)</f>
+        <v>4266.1851116092785</v>
+      </c>
+      <c r="DG27" s="6">
+        <f>DF27*(1+$R$18)</f>
+        <v>4308.8469627253717</v>
+      </c>
+      <c r="DH27" s="6">
+        <f>DG27*(1+$R$18)</f>
+        <v>4351.9354323526259</v>
+      </c>
+      <c r="DI27" s="6">
+        <f>DH27*(1+$R$18)</f>
+        <v>4395.4547866761523</v>
+      </c>
+      <c r="DJ27" s="6">
+        <f>DI27*(1+$R$18)</f>
+        <v>4439.4093345429137</v>
+      </c>
+      <c r="DK27" s="6">
+        <f>DJ27*(1+$R$18)</f>
+        <v>4483.8034278883433</v>
+      </c>
+      <c r="DL27" s="6">
+        <f>DK27*(1+$R$18)</f>
+        <v>4528.6414621672266</v>
+      </c>
+      <c r="DM27" s="6">
+        <f>DL27*(1+$R$18)</f>
+        <v>4573.9278767888991</v>
+      </c>
+      <c r="DN27" s="6">
+        <f>DM27*(1+$R$18)</f>
+        <v>4619.6671555567882</v>
+      </c>
+      <c r="DO27" s="6">
+        <f>DN27*(1+$R$18)</f>
+        <v>4665.8638271123564</v>
+      </c>
+      <c r="DP27" s="6">
+        <f>DO27*(1+$R$18)</f>
+        <v>4712.5224653834803</v>
+      </c>
+      <c r="DQ27" s="6">
+        <f>DP27*(1+$R$18)</f>
+        <v>4759.6476900373154</v>
+      </c>
+      <c r="DR27" s="6">
+        <f>DQ27*(1+$R$18)</f>
+        <v>4807.2441669376885</v>
+      </c>
+      <c r="DS27" s="6">
+        <f>DR27*(1+$R$18)</f>
+        <v>4855.3166086070651</v>
+      </c>
+      <c r="DT27" s="6">
+        <f>DS27*(1+$R$18)</f>
+        <v>4903.8697746931357</v>
+      </c>
+      <c r="DU27" s="6">
+        <f>DT27*(1+$R$18)</f>
+        <v>4952.9084724400673</v>
+      </c>
+      <c r="DV27" s="6">
+        <f>DU27*(1+$R$18)</f>
+        <v>5002.4375571644678</v>
+      </c>
+      <c r="DW27" s="6">
+        <f>DV27*(1+$R$18)</f>
+        <v>5052.4619327361124</v>
+      </c>
+      <c r="DX27" s="6">
+        <f>DW27*(1+$R$18)</f>
+        <v>5102.9865520634739</v>
+      </c>
+      <c r="DY27" s="6">
+        <f>DX27*(1+$R$18)</f>
+        <v>5154.0164175841091</v>
+      </c>
+      <c r="DZ27" s="6">
+        <f>DY27*(1+$R$18)</f>
+        <v>5205.5565817599499</v>
+      </c>
+      <c r="EA27" s="6">
+        <f>DZ27*(1+$R$18)</f>
+        <v>5257.6121475775499</v>
+      </c>
+      <c r="EB27" s="6">
+        <f>EA27*(1+$R$18)</f>
+        <v>5310.1882690533257</v>
+      </c>
+      <c r="EC27" s="6">
+        <f>EB27*(1+$R$18)</f>
+        <v>5363.2901517438586</v>
+      </c>
+      <c r="ED27" s="6">
+        <f>EC27*(1+$R$18)</f>
+        <v>5416.9230532612974</v>
+      </c>
+      <c r="EE27" s="6">
+        <f>ED27*(1+$R$18)</f>
+        <v>5471.0922837939106</v>
+      </c>
+      <c r="EF27" s="6">
+        <f>EE27*(1+$R$18)</f>
+        <v>5525.8032066318501</v>
+      </c>
+      <c r="EG27" s="6">
+        <f>EF27*(1+$R$18)</f>
+        <v>5581.0612386981684</v>
+      </c>
+      <c r="EH27" s="6">
+        <f>EG27*(1+$R$18)</f>
+        <v>5636.8718510851504</v>
+      </c>
+      <c r="EI27" s="6">
+        <f>EH27*(1+$R$18)</f>
+        <v>5693.2405695960024</v>
+      </c>
+      <c r="EJ27" s="6">
+        <f>EI27*(1+$R$18)</f>
+        <v>5750.1729752919628</v>
+      </c>
+      <c r="EK27" s="6">
+        <f>EJ27*(1+$R$18)</f>
+        <v>5807.6747050448821</v>
+      </c>
+      <c r="EL27" s="6">
+        <f>EK27*(1+$R$18)</f>
+        <v>5865.7514520953309</v>
+      </c>
+      <c r="EM27" s="6">
+        <f>EL27*(1+$R$18)</f>
+        <v>5924.4089666162845</v>
+      </c>
+      <c r="EN27" s="6">
+        <f>EM27*(1+$R$18)</f>
+        <v>5983.6530562824473</v>
+      </c>
+      <c r="EO27" s="6">
+        <f>EN27*(1+$R$18)</f>
+        <v>6043.4895868452722</v>
+      </c>
+      <c r="EP27" s="6">
+        <f>EO27*(1+$R$18)</f>
+        <v>6103.9244827137254</v>
+      </c>
+      <c r="EQ27" s="6">
+        <f>EP27*(1+$R$18)</f>
+        <v>6164.9637275408631</v>
       </c>
     </row>
     <row r="28" spans="1:147" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3">
-        <f>J26/J14</f>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3">
+        <f>J27/J14</f>
         <v>1.0969568294409058</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" ref="K28:O28" si="208">K26/K14</f>
-        <v>1.1945874066713109</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="208"/>
-        <v>1.4315517375956655</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="208"/>
-        <v>1.7155214980238294</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="208"/>
-        <v>2.0558209199793267</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="208"/>
-        <v>2.4636238367710259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="K29" s="3">
+        <f t="shared" ref="K29:O29" si="25">K27/K14</f>
+        <v>1.3245753715498936</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="25"/>
+        <v>1.5437925955414011</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="25"/>
+        <v>1.799290270103503</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="25"/>
+        <v>2.097072809805633</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="25"/>
+        <v>2.4441383598284654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="2">
-        <f>J31-J33</f>
+      <c r="J30" s="2">
+        <f>J32-J34</f>
         <v>2512.8000000000002</v>
       </c>
-      <c r="K29" s="2">
-        <f>J29+K13</f>
+      <c r="K30" s="2">
+        <f>J30+K13</f>
         <v>2958.0158256750001</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" ref="L29:O29" si="209">K29+L13</f>
-        <v>3629.5443951681823</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="209"/>
-        <v>4578.9467896386504</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="209"/>
-        <v>5866.8987376576533</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="209"/>
-        <v>7564.6348935518099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="L30" s="2">
+        <f t="shared" ref="L30:O30" si="26">K30+L13</f>
+        <v>3614.6508444245469</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="26"/>
+        <v>4524.7215199180264</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="26"/>
+        <v>5736.6417272705894</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="26"/>
+        <v>7306.0910976137839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <f>1136.4+1376.4</f>
         <v>2512.8000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>553</v>
       </c>
     </row>

--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4CAAE-22E9-4EFB-A8E5-E126114FA6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC7860-9CF4-4ED9-99B4-C12C3180D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
       </c>
       <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>19668.96</v>
+        <v>22381.920000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
       </c>
       <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>17156.16</v>
+        <v>19869.120000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
       </c>
       <c r="E8" s="9">
         <f>E2/Sheet2!K31</f>
-        <v>22.760890394789836</v>
+        <v>20.697562696537155</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
@@ -775,10 +775,10 @@
   <dimension ref="A1:EQ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,23 +1116,23 @@
       </c>
       <c r="K8" s="1">
         <f>K2*K23</f>
-        <v>2904.7555830000001</v>
+        <v>2967.2234449999996</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:O8" si="9">L2*L23</f>
-        <v>2998.5791883308998</v>
+        <v>3128.9371227524994</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="9"/>
-        <v>3095.433296113988</v>
+        <v>3299.4641959425103</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="9"/>
-        <v>3195.4157915784699</v>
+        <v>3479.2849946213769</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="9"/>
-        <v>3298.6277216464555</v>
+        <v>3668.9060268282428</v>
       </c>
     </row>
     <row r="9" spans="1:121" x14ac:dyDescent="0.2">
@@ -1153,23 +1153,23 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="10"/>
-        <v>458.53608449999956</v>
+        <v>396.06822250000005</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="10"/>
-        <v>772.00710010334979</v>
+        <v>641.64916568175022</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="10"/>
-        <v>1131.7709918496494</v>
+        <v>927.74009202112711</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="10"/>
-        <v>1543.7029356575649</v>
+        <v>1259.8337326146579</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="10"/>
-        <v>2014.3982834578633</v>
+        <v>1644.1199782760759</v>
       </c>
     </row>
     <row r="10" spans="1:121" x14ac:dyDescent="0.2">
@@ -1191,19 +1191,19 @@
       </c>
       <c r="L10" s="1">
         <f>K32*$R$32</f>
-        <v>180.38017850669999</v>
+        <v>177.34424041350002</v>
       </c>
       <c r="M10" s="1">
         <f>L32*$R$32</f>
-        <v>226.6662002471484</v>
+        <v>217.14731994972919</v>
       </c>
       <c r="N10" s="1">
         <f>M32*$R$32</f>
-        <v>292.68624778305275</v>
+        <v>272.78884817151277</v>
       </c>
       <c r="O10" s="1">
         <f>N32*$R$32</f>
-        <v>381.93476209826679</v>
+        <v>347.27430559772068</v>
       </c>
     </row>
     <row r="11" spans="1:121" x14ac:dyDescent="0.2">
@@ -1273,23 +1273,23 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="12"/>
-        <v>609.30408449999959</v>
+        <v>546.83622250000008</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="12"/>
-        <v>952.38727861004975</v>
+        <v>818.99340609525029</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="12"/>
-        <v>1358.4371920967978</v>
+        <v>1144.8874119708562</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="12"/>
-        <v>1836.3891834406177</v>
+        <v>1532.6225807861706</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="12"/>
-        <v>2396.3330455561299</v>
+        <v>1991.3942838737967</v>
       </c>
     </row>
     <row r="13" spans="1:121" x14ac:dyDescent="0.2">
@@ -1307,23 +1307,23 @@
       </c>
       <c r="K13" s="1">
         <f>K12*K25</f>
-        <v>115.76777605499993</v>
+        <v>103.89888227500002</v>
       </c>
       <c r="L13" s="1">
         <f>L12*L25</f>
-        <v>180.95358293590945</v>
+        <v>155.60874715809757</v>
       </c>
       <c r="M13" s="1">
         <f>M12*M25</f>
-        <v>258.10306649839157</v>
+        <v>217.52860827446267</v>
       </c>
       <c r="N13" s="1">
         <f>N12*N25</f>
-        <v>348.91394485371734</v>
+        <v>291.19829034937243</v>
       </c>
       <c r="O13" s="1">
         <f>O12*O25</f>
-        <v>455.30327865566471</v>
+        <v>378.36491393602137</v>
       </c>
     </row>
     <row r="14" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1362,447 +1362,447 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="13"/>
-        <v>493.53630844499969</v>
+        <v>442.93734022500007</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
-        <v>771.43369567414027</v>
+        <v>663.38465893715272</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
-        <v>1100.3341255984062</v>
+        <v>927.35880369639358</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="13"/>
-        <v>1487.4752385869003</v>
+        <v>1241.4242904367982</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="13"/>
-        <v>1941.0297669004653</v>
+        <v>1613.0293699377753</v>
       </c>
       <c r="P14" s="3">
-        <f>O14*(1+$R$33)</f>
-        <v>1960.44006456947</v>
+        <f t="shared" ref="P14:AU14" si="14">O14*(1+$R$33)</f>
+        <v>1629.159663637153</v>
       </c>
       <c r="Q14" s="3">
-        <f>P14*(1+$R$33)</f>
-        <v>1980.0444652151648</v>
+        <f t="shared" si="14"/>
+        <v>1645.4512602735247</v>
       </c>
       <c r="R14" s="3">
-        <f>Q14*(1+$R$33)</f>
-        <v>1999.8449098673163</v>
+        <f t="shared" si="14"/>
+        <v>1661.90577287626</v>
       </c>
       <c r="S14" s="3">
-        <f>R14*(1+$R$33)</f>
-        <v>2019.8433589659896</v>
+        <f t="shared" si="14"/>
+        <v>1678.5248306050225</v>
       </c>
       <c r="T14" s="3">
-        <f>S14*(1+$R$33)</f>
-        <v>2040.0417925556496</v>
+        <f t="shared" si="14"/>
+        <v>1695.3100789110729</v>
       </c>
       <c r="U14" s="3">
-        <f>T14*(1+$R$33)</f>
-        <v>2060.4422104812061</v>
+        <f t="shared" si="14"/>
+        <v>1712.2631797001836</v>
       </c>
       <c r="V14" s="3">
-        <f>U14*(1+$R$33)</f>
-        <v>2081.0466325860179</v>
+        <f t="shared" si="14"/>
+        <v>1729.3858114971854</v>
       </c>
       <c r="W14" s="3">
-        <f>V14*(1+$R$33)</f>
-        <v>2101.857098911878</v>
+        <f t="shared" si="14"/>
+        <v>1746.6796696121573</v>
       </c>
       <c r="X14" s="3">
-        <f>W14*(1+$R$33)</f>
-        <v>2122.8756699009969</v>
+        <f t="shared" si="14"/>
+        <v>1764.1464663082788</v>
       </c>
       <c r="Y14" s="3">
-        <f>X14*(1+$R$33)</f>
-        <v>2144.1044266000067</v>
+        <f t="shared" si="14"/>
+        <v>1781.7879309713617</v>
       </c>
       <c r="Z14" s="3">
-        <f>Y14*(1+$R$33)</f>
-        <v>2165.5454708660068</v>
+        <f t="shared" si="14"/>
+        <v>1799.6058102810753</v>
       </c>
       <c r="AA14" s="3">
-        <f>Z14*(1+$R$33)</f>
-        <v>2187.2009255746671</v>
+        <f t="shared" si="14"/>
+        <v>1817.6018683838861</v>
       </c>
       <c r="AB14" s="3">
-        <f>AA14*(1+$R$33)</f>
-        <v>2209.0729348304139</v>
+        <f t="shared" si="14"/>
+        <v>1835.777887067725</v>
       </c>
       <c r="AC14" s="3">
-        <f>AB14*(1+$R$33)</f>
-        <v>2231.1636641787181</v>
+        <f t="shared" si="14"/>
+        <v>1854.1356659384023</v>
       </c>
       <c r="AD14" s="3">
-        <f>AC14*(1+$R$33)</f>
-        <v>2253.4753008205053</v>
+        <f t="shared" si="14"/>
+        <v>1872.6770225977864</v>
       </c>
       <c r="AE14" s="3">
-        <f>AD14*(1+$R$33)</f>
-        <v>2276.0100538287102</v>
+        <f t="shared" si="14"/>
+        <v>1891.4037928237642</v>
       </c>
       <c r="AF14" s="3">
-        <f>AE14*(1+$R$33)</f>
-        <v>2298.7701543669973</v>
+        <f t="shared" si="14"/>
+        <v>1910.3178307520018</v>
       </c>
       <c r="AG14" s="3">
-        <f>AF14*(1+$R$33)</f>
-        <v>2321.7578559106673</v>
+        <f t="shared" si="14"/>
+        <v>1929.4210090595218</v>
       </c>
       <c r="AH14" s="3">
-        <f>AG14*(1+$R$33)</f>
-        <v>2344.975434469774</v>
+        <f t="shared" si="14"/>
+        <v>1948.715219150117</v>
       </c>
       <c r="AI14" s="3">
-        <f>AH14*(1+$R$33)</f>
-        <v>2368.4251888144718</v>
+        <f t="shared" si="14"/>
+        <v>1968.2023713416181</v>
       </c>
       <c r="AJ14" s="3">
-        <f>AI14*(1+$R$33)</f>
-        <v>2392.1094407026167</v>
+        <f t="shared" si="14"/>
+        <v>1987.8843950550342</v>
       </c>
       <c r="AK14" s="3">
-        <f>AJ14*(1+$R$33)</f>
-        <v>2416.0305351096426</v>
+        <f t="shared" si="14"/>
+        <v>2007.7632390055846</v>
       </c>
       <c r="AL14" s="3">
-        <f>AK14*(1+$R$33)</f>
-        <v>2440.1908404607393</v>
+        <f t="shared" si="14"/>
+        <v>2027.8408713956405</v>
       </c>
       <c r="AM14" s="3">
-        <f>AL14*(1+$R$33)</f>
-        <v>2464.5927488653469</v>
+        <f t="shared" si="14"/>
+        <v>2048.1192801095967</v>
       </c>
       <c r="AN14" s="3">
-        <f>AM14*(1+$R$33)</f>
-        <v>2489.2386763540003</v>
+        <f t="shared" si="14"/>
+        <v>2068.6004729106926</v>
       </c>
       <c r="AO14" s="3">
-        <f>AN14*(1+$R$33)</f>
-        <v>2514.1310631175402</v>
+        <f t="shared" si="14"/>
+        <v>2089.2864776397996</v>
       </c>
       <c r="AP14" s="3">
-        <f>AO14*(1+$R$33)</f>
-        <v>2539.2723737487154</v>
+        <f t="shared" si="14"/>
+        <v>2110.1793424161974</v>
       </c>
       <c r="AQ14" s="3">
-        <f>AP14*(1+$R$33)</f>
-        <v>2564.6650974862027</v>
+        <f t="shared" si="14"/>
+        <v>2131.2811358403592</v>
       </c>
       <c r="AR14" s="3">
-        <f>AQ14*(1+$R$33)</f>
-        <v>2590.3117484610648</v>
+        <f t="shared" si="14"/>
+        <v>2152.5939471987626</v>
       </c>
       <c r="AS14" s="3">
-        <f>AR14*(1+$R$33)</f>
-        <v>2616.2148659456752</v>
+        <f t="shared" si="14"/>
+        <v>2174.1198866707505</v>
       </c>
       <c r="AT14" s="3">
-        <f>AS14*(1+$R$33)</f>
-        <v>2642.377014605132</v>
+        <f t="shared" si="14"/>
+        <v>2195.8610855374582</v>
       </c>
       <c r="AU14" s="3">
-        <f>AT14*(1+$R$33)</f>
-        <v>2668.8007847511835</v>
+        <f t="shared" si="14"/>
+        <v>2217.8196963928326</v>
       </c>
       <c r="AV14" s="3">
-        <f>AU14*(1+$R$33)</f>
-        <v>2695.4887925986955</v>
+        <f t="shared" ref="AV14:CA14" si="15">AU14*(1+$R$33)</f>
+        <v>2239.9978933567609</v>
       </c>
       <c r="AW14" s="3">
-        <f>AV14*(1+$R$33)</f>
-        <v>2722.4436805246823</v>
+        <f t="shared" si="15"/>
+        <v>2262.3978722903285</v>
       </c>
       <c r="AX14" s="3">
-        <f>AW14*(1+$R$33)</f>
-        <v>2749.6681173299294</v>
+        <f t="shared" si="15"/>
+        <v>2285.0218510132318</v>
       </c>
       <c r="AY14" s="3">
-        <f>AX14*(1+$R$33)</f>
-        <v>2777.1647985032287</v>
+        <f t="shared" si="15"/>
+        <v>2307.8720695233642</v>
       </c>
       <c r="AZ14" s="3">
-        <f>AY14*(1+$R$33)</f>
-        <v>2804.936446488261</v>
+        <f t="shared" si="15"/>
+        <v>2330.9507902185978</v>
       </c>
       <c r="BA14" s="3">
-        <f>AZ14*(1+$R$33)</f>
-        <v>2832.9858109531438</v>
+        <f t="shared" si="15"/>
+        <v>2354.2602981207838</v>
       </c>
       <c r="BB14" s="3">
-        <f>BA14*(1+$R$33)</f>
-        <v>2861.3156690626752</v>
+        <f t="shared" si="15"/>
+        <v>2377.8029011019917</v>
       </c>
       <c r="BC14" s="3">
-        <f>BB14*(1+$R$33)</f>
-        <v>2889.9288257533021</v>
+        <f t="shared" si="15"/>
+        <v>2401.5809301130116</v>
       </c>
       <c r="BD14" s="3">
-        <f>BC14*(1+$R$33)</f>
-        <v>2918.8281140108352</v>
+        <f t="shared" si="15"/>
+        <v>2425.5967394141417</v>
       </c>
       <c r="BE14" s="3">
-        <f>BD14*(1+$R$33)</f>
-        <v>2948.0163951509435</v>
+        <f t="shared" si="15"/>
+        <v>2449.8527068082831</v>
       </c>
       <c r="BF14" s="3">
-        <f>BE14*(1+$R$33)</f>
-        <v>2977.4965591024529</v>
+        <f t="shared" si="15"/>
+        <v>2474.3512338763658</v>
       </c>
       <c r="BG14" s="3">
-        <f>BF14*(1+$R$33)</f>
-        <v>3007.2715246934777</v>
+        <f t="shared" si="15"/>
+        <v>2499.0947462151294</v>
       </c>
       <c r="BH14" s="3">
-        <f>BG14*(1+$R$33)</f>
-        <v>3037.3442399404125</v>
+        <f t="shared" si="15"/>
+        <v>2524.0856936772807</v>
       </c>
       <c r="BI14" s="3">
-        <f>BH14*(1+$R$33)</f>
-        <v>3067.7176823398167</v>
+        <f t="shared" si="15"/>
+        <v>2549.3265506140533</v>
       </c>
       <c r="BJ14" s="3">
-        <f>BI14*(1+$R$33)</f>
-        <v>3098.3948591632147</v>
+        <f t="shared" si="15"/>
+        <v>2574.819816120194</v>
       </c>
       <c r="BK14" s="3">
-        <f>BJ14*(1+$R$33)</f>
-        <v>3129.378807754847</v>
+        <f t="shared" si="15"/>
+        <v>2600.5680142813958</v>
       </c>
       <c r="BL14" s="3">
-        <f>BK14*(1+$R$33)</f>
-        <v>3160.6725958323955</v>
+        <f t="shared" si="15"/>
+        <v>2626.5736944242099</v>
       </c>
       <c r="BM14" s="3">
-        <f>BL14*(1+$R$33)</f>
-        <v>3192.2793217907197</v>
+        <f t="shared" si="15"/>
+        <v>2652.8394313684521</v>
       </c>
       <c r="BN14" s="3">
-        <f>BM14*(1+$R$33)</f>
-        <v>3224.2021150086271</v>
+        <f t="shared" si="15"/>
+        <v>2679.3678256821368</v>
       </c>
       <c r="BO14" s="3">
-        <f>BN14*(1+$R$33)</f>
-        <v>3256.4441361587133</v>
+        <f t="shared" si="15"/>
+        <v>2706.161503938958</v>
       </c>
       <c r="BP14" s="3">
-        <f>BO14*(1+$R$33)</f>
-        <v>3289.0085775203006</v>
+        <f t="shared" si="15"/>
+        <v>2733.2231189783474</v>
       </c>
       <c r="BQ14" s="3">
-        <f>BP14*(1+$R$33)</f>
-        <v>3321.8986632955039</v>
+        <f t="shared" si="15"/>
+        <v>2760.5553501681311</v>
       </c>
       <c r="BR14" s="3">
-        <f>BQ14*(1+$R$33)</f>
-        <v>3355.1176499284588</v>
+        <f t="shared" si="15"/>
+        <v>2788.1609036698123</v>
       </c>
       <c r="BS14" s="3">
-        <f>BR14*(1+$R$33)</f>
-        <v>3388.6688264277436</v>
+        <f t="shared" si="15"/>
+        <v>2816.0425127065105</v>
       </c>
       <c r="BT14" s="3">
-        <f>BS14*(1+$R$33)</f>
-        <v>3422.555514692021</v>
+        <f t="shared" si="15"/>
+        <v>2844.2029378335756</v>
       </c>
       <c r="BU14" s="3">
-        <f>BT14*(1+$R$33)</f>
-        <v>3456.7810698389412</v>
+        <f t="shared" si="15"/>
+        <v>2872.6449672119115</v>
       </c>
       <c r="BV14" s="3">
-        <f>BU14*(1+$R$33)</f>
-        <v>3491.3488805373308</v>
+        <f t="shared" si="15"/>
+        <v>2901.3714168840306</v>
       </c>
       <c r="BW14" s="3">
-        <f>BV14*(1+$R$33)</f>
-        <v>3526.262369342704</v>
+        <f t="shared" si="15"/>
+        <v>2930.3851310528707</v>
       </c>
       <c r="BX14" s="3">
-        <f>BW14*(1+$R$33)</f>
-        <v>3561.524993036131</v>
+        <f t="shared" si="15"/>
+        <v>2959.6889823633996</v>
       </c>
       <c r="BY14" s="3">
-        <f>BX14*(1+$R$33)</f>
-        <v>3597.1402429664922</v>
+        <f t="shared" si="15"/>
+        <v>2989.2858721870339</v>
       </c>
       <c r="BZ14" s="3">
-        <f>BY14*(1+$R$33)</f>
-        <v>3633.1116453961572</v>
+        <f t="shared" si="15"/>
+        <v>3019.1787309089041</v>
       </c>
       <c r="CA14" s="3">
-        <f>BZ14*(1+$R$33)</f>
-        <v>3669.4427618501186</v>
+        <f t="shared" si="15"/>
+        <v>3049.3705182179933</v>
       </c>
       <c r="CB14" s="3">
-        <f>CA14*(1+$R$33)</f>
-        <v>3706.1371894686199</v>
+        <f t="shared" ref="CB14:DG14" si="16">CA14*(1+$R$33)</f>
+        <v>3079.8642234001732</v>
       </c>
       <c r="CC14" s="3">
-        <f>CB14*(1+$R$33)</f>
-        <v>3743.198561363306</v>
+        <f t="shared" si="16"/>
+        <v>3110.662865634175</v>
       </c>
       <c r="CD14" s="3">
-        <f>CC14*(1+$R$33)</f>
-        <v>3780.6305469769391</v>
+        <f t="shared" si="16"/>
+        <v>3141.7694942905168</v>
       </c>
       <c r="CE14" s="3">
-        <f>CD14*(1+$R$33)</f>
-        <v>3818.4368524467086</v>
+        <f t="shared" si="16"/>
+        <v>3173.187189233422</v>
       </c>
       <c r="CF14" s="3">
-        <f>CE14*(1+$R$33)</f>
-        <v>3856.6212209711757</v>
+        <f t="shared" si="16"/>
+        <v>3204.9190611257563</v>
       </c>
       <c r="CG14" s="3">
-        <f>CF14*(1+$R$33)</f>
-        <v>3895.1874331808876</v>
+        <f t="shared" si="16"/>
+        <v>3236.9682517370138</v>
       </c>
       <c r="CH14" s="3">
-        <f>CG14*(1+$R$33)</f>
-        <v>3934.1393075126966</v>
+        <f t="shared" si="16"/>
+        <v>3269.337934254384</v>
       </c>
       <c r="CI14" s="3">
-        <f>CH14*(1+$R$33)</f>
-        <v>3973.4807005878238</v>
+        <f t="shared" si="16"/>
+        <v>3302.0313135969277</v>
       </c>
       <c r="CJ14" s="3">
-        <f>CI14*(1+$R$33)</f>
-        <v>4013.2155075937021</v>
+        <f t="shared" si="16"/>
+        <v>3335.0516267328971</v>
       </c>
       <c r="CK14" s="3">
-        <f>CJ14*(1+$R$33)</f>
-        <v>4053.3476626696392</v>
+        <f t="shared" si="16"/>
+        <v>3368.4021430002263</v>
       </c>
       <c r="CL14" s="3">
-        <f>CK14*(1+$R$33)</f>
-        <v>4093.8811392963357</v>
+        <f t="shared" si="16"/>
+        <v>3402.0861644302286</v>
       </c>
       <c r="CM14" s="3">
-        <f>CL14*(1+$R$33)</f>
-        <v>4134.8199506892988</v>
+        <f t="shared" si="16"/>
+        <v>3436.1070260745309</v>
       </c>
       <c r="CN14" s="3">
-        <f>CM14*(1+$R$33)</f>
-        <v>4176.1681501961921</v>
+        <f t="shared" si="16"/>
+        <v>3470.4680963352762</v>
       </c>
       <c r="CO14" s="3">
-        <f>CN14*(1+$R$33)</f>
-        <v>4217.929831698154</v>
+        <f t="shared" si="16"/>
+        <v>3505.1727772986292</v>
       </c>
       <c r="CP14" s="3">
-        <f>CO14*(1+$R$33)</f>
-        <v>4260.1091300151356</v>
+        <f t="shared" si="16"/>
+        <v>3540.2245050716156</v>
       </c>
       <c r="CQ14" s="3">
-        <f>CP14*(1+$R$33)</f>
-        <v>4302.7102213152866</v>
+        <f t="shared" si="16"/>
+        <v>3575.6267501223319</v>
       </c>
       <c r="CR14" s="3">
-        <f>CQ14*(1+$R$33)</f>
-        <v>4345.7373235284394</v>
+        <f t="shared" si="16"/>
+        <v>3611.3830176235551</v>
       </c>
       <c r="CS14" s="3">
-        <f>CR14*(1+$R$33)</f>
-        <v>4389.1946967637241</v>
+        <f t="shared" si="16"/>
+        <v>3647.4968477997909</v>
       </c>
       <c r="CT14" s="3">
-        <f>CS14*(1+$R$33)</f>
-        <v>4433.0866437313616</v>
+        <f t="shared" si="16"/>
+        <v>3683.971816277789</v>
       </c>
       <c r="CU14" s="3">
-        <f>CT14*(1+$R$33)</f>
-        <v>4477.4175101686751</v>
+        <f t="shared" si="16"/>
+        <v>3720.8115344405669</v>
       </c>
       <c r="CV14" s="3">
-        <f>CU14*(1+$R$33)</f>
-        <v>4522.1916852703616</v>
+        <f t="shared" si="16"/>
+        <v>3758.0196497849724</v>
       </c>
       <c r="CW14" s="3">
-        <f>CV14*(1+$R$33)</f>
-        <v>4567.4136021230652</v>
+        <f t="shared" si="16"/>
+        <v>3795.599846282822</v>
       </c>
       <c r="CX14" s="3">
-        <f>CW14*(1+$R$33)</f>
-        <v>4613.0877381442961</v>
+        <f t="shared" si="16"/>
+        <v>3833.5558447456501</v>
       </c>
       <c r="CY14" s="3">
-        <f>CX14*(1+$R$33)</f>
-        <v>4659.2186155257386</v>
+        <f t="shared" si="16"/>
+        <v>3871.8914031931067</v>
       </c>
       <c r="CZ14" s="3">
-        <f>CY14*(1+$R$33)</f>
-        <v>4705.8108016809965</v>
+        <f t="shared" si="16"/>
+        <v>3910.6103172250378</v>
       </c>
       <c r="DA14" s="3">
-        <f>CZ14*(1+$R$33)</f>
-        <v>4752.8689096978069</v>
+        <f t="shared" si="16"/>
+        <v>3949.7164203972879</v>
       </c>
       <c r="DB14" s="3">
-        <f>DA14*(1+$R$33)</f>
-        <v>4800.3975987947852</v>
+        <f t="shared" si="16"/>
+        <v>3989.2135846012607</v>
       </c>
       <c r="DC14" s="3">
-        <f>DB14*(1+$R$33)</f>
-        <v>4848.4015747827334</v>
+        <f t="shared" si="16"/>
+        <v>4029.1057204472731</v>
       </c>
       <c r="DD14" s="3">
-        <f>DC14*(1+$R$33)</f>
-        <v>4896.8855905305609</v>
+        <f t="shared" si="16"/>
+        <v>4069.3967776517461</v>
       </c>
       <c r="DE14" s="3">
-        <f>DD14*(1+$R$33)</f>
-        <v>4945.8544464358665</v>
+        <f t="shared" si="16"/>
+        <v>4110.0907454282633</v>
       </c>
       <c r="DF14" s="3">
-        <f>DE14*(1+$R$33)</f>
-        <v>4995.3129909002255</v>
+        <f t="shared" si="16"/>
+        <v>4151.1916528825459</v>
       </c>
       <c r="DG14" s="3">
-        <f>DF14*(1+$R$33)</f>
-        <v>5045.2661208092277</v>
+        <f t="shared" si="16"/>
+        <v>4192.7035694113711</v>
       </c>
       <c r="DH14" s="3">
-        <f>DG14*(1+$R$33)</f>
-        <v>5095.7187820173203</v>
+        <f t="shared" ref="DH14:DQ14" si="17">DG14*(1+$R$33)</f>
+        <v>4234.6306051054844</v>
       </c>
       <c r="DI14" s="3">
-        <f>DH14*(1+$R$33)</f>
-        <v>5146.6759698374935</v>
+        <f t="shared" si="17"/>
+        <v>4276.9769111565392</v>
       </c>
       <c r="DJ14" s="3">
-        <f>DI14*(1+$R$33)</f>
-        <v>5198.142729535869</v>
+        <f t="shared" si="17"/>
+        <v>4319.7466802681047</v>
       </c>
       <c r="DK14" s="3">
-        <f>DJ14*(1+$R$33)</f>
-        <v>5250.124156831228</v>
+        <f t="shared" si="17"/>
+        <v>4362.9441470707861</v>
       </c>
       <c r="DL14" s="3">
-        <f>DK14*(1+$R$33)</f>
-        <v>5302.6253983995402</v>
+        <f t="shared" si="17"/>
+        <v>4406.5735885414942</v>
       </c>
       <c r="DM14" s="3">
-        <f>DL14*(1+$R$33)</f>
-        <v>5355.6516523835353</v>
+        <f t="shared" si="17"/>
+        <v>4450.6393244269093</v>
       </c>
       <c r="DN14" s="3">
-        <f>DM14*(1+$R$33)</f>
-        <v>5409.2081689073711</v>
+        <f t="shared" si="17"/>
+        <v>4495.1457176711783</v>
       </c>
       <c r="DO14" s="3">
-        <f>DN14*(1+$R$33)</f>
-        <v>5463.300250596445</v>
+        <f t="shared" si="17"/>
+        <v>4540.0971748478905</v>
       </c>
       <c r="DP14" s="3">
-        <f>DO14*(1+$R$33)</f>
-        <v>5517.9332531024093</v>
+        <f t="shared" si="17"/>
+        <v>4585.4981465963692</v>
       </c>
       <c r="DQ14" s="3">
-        <f>DP14*(1+$R$33)</f>
-        <v>5573.1125856334338</v>
+        <f t="shared" si="17"/>
+        <v>4631.3531280623329</v>
       </c>
     </row>
     <row r="15" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1837,24 +1837,24 @@
         <v>2.7452479948100965</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:O16" si="14">K14/K15</f>
-        <v>0.72767207543789758</v>
+        <f t="shared" ref="K16:O16" si="18">K14/K15</f>
+        <v>0.653068737062102</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="14"/>
-        <v>1.1374051894228301</v>
+        <f t="shared" si="18"/>
+        <v>0.97809722065515559</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="14"/>
-        <v>1.6223374109436279</v>
+        <f t="shared" si="18"/>
+        <v>1.3673018455065959</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="14"/>
-        <v>2.1931399483765337</v>
+        <f t="shared" si="18"/>
+        <v>1.8303613624038662</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="14"/>
-        <v>2.8618627136418748</v>
+        <f t="shared" si="18"/>
+        <v>2.3782575046263497</v>
       </c>
     </row>
     <row r="17" spans="1:147" x14ac:dyDescent="0.2">
@@ -1879,31 +1879,31 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="5">
-        <f>I2/H2-1</f>
+        <f t="shared" ref="I18:O18" si="19">I2/H2-1</f>
         <v>9.0292648108494022E-2</v>
       </c>
       <c r="J18" s="5">
-        <f>J2/I2-1</f>
+        <f t="shared" si="19"/>
         <v>0.1934533551554829</v>
       </c>
       <c r="K18" s="5">
-        <f>K2/J2-1</f>
+        <f t="shared" si="19"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L18" s="5">
-        <f>L2/K2-1</f>
+        <f t="shared" si="19"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="M18" s="5">
-        <f>M2/L2-1</f>
+        <f t="shared" si="19"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="N18" s="5">
-        <f>N2/M2-1</f>
+        <f t="shared" si="19"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="O18" s="5">
-        <f>O2/N2-1</f>
+        <f t="shared" si="19"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
@@ -1964,19 +1964,19 @@
         <v>0.80213972846955572</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20:O20" si="15">K20*1.01</f>
+        <f t="shared" ref="L20:O20" si="20">K20*1.01</f>
         <v>0.81016112575425125</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.81826273701179375</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.82644536438191174</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.83470981802573085</v>
       </c>
     </row>
@@ -1987,36 +1987,36 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="H21" s="4">
-        <f>H9/H2</f>
+        <f t="shared" ref="H21:O21" si="21">H9/H2</f>
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <f>I9/I2</f>
+        <f t="shared" si="21"/>
         <v>-4.1132569558101573E-2</v>
       </c>
       <c r="J21" s="4">
-        <f>J9/J2</f>
+        <f t="shared" si="21"/>
         <v>4.9273450356555087E-2</v>
       </c>
       <c r="K21" s="4">
-        <f>K9/K2</f>
-        <v>0.10936012890839267</v>
+        <f t="shared" si="21"/>
+        <v>9.4461642896324763E-2</v>
       </c>
       <c r="L21" s="4">
-        <f>L9/L2</f>
-        <v>0.16587609816236967</v>
+        <f t="shared" si="21"/>
+        <v>0.13786694445968189</v>
       </c>
       <c r="M21" s="4">
-        <f>M9/M2</f>
-        <v>0.21907766135134391</v>
+        <f t="shared" si="21"/>
+        <v>0.17958326478195297</v>
       </c>
       <c r="N21" s="4">
-        <f>N9/N2</f>
-        <v>0.26920324401769347</v>
+        <f t="shared" si="21"/>
+        <v>0.21969986576356315</v>
       </c>
       <c r="O21" s="4">
-        <f>O9/O2</f>
-        <v>0.3164746460870077</v>
+        <f t="shared" si="21"/>
+        <v>0.25830159433829952</v>
       </c>
     </row>
     <row r="22" spans="1:147" x14ac:dyDescent="0.2">
@@ -2042,19 +2042,19 @@
         <v>0.20609983543609434</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" ref="L22:O22" si="16">K22*1.05</f>
+        <f t="shared" ref="L22:O22" si="22">K22*1.05</f>
         <v>0.21640482720789905</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.22722506856829403</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.23858632199670873</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.2505156380965442</v>
       </c>
     </row>
@@ -2069,32 +2069,32 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:O23" si="17">I8/I2</f>
+        <f t="shared" ref="I23:J23" si="23">I8/I2</f>
         <v>0.8156792144026187</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.74492430060340098</v>
       </c>
       <c r="K23" s="4">
-        <f>J23*0.93</f>
-        <v>0.69277959956116297</v>
+        <f>J23*0.95</f>
+        <v>0.70767808557323086</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:O23" si="18">K23*0.93</f>
-        <v>0.64428502759188155</v>
+        <f t="shared" ref="L23:O23" si="24">K23*0.95</f>
+        <v>0.6722941812945693</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="18"/>
-        <v>0.59918507566044987</v>
+        <f t="shared" si="24"/>
+        <v>0.63867947222984078</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="18"/>
-        <v>0.55724212036421839</v>
+        <f t="shared" si="24"/>
+        <v>0.6067454986183487</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="18"/>
-        <v>0.51823517193872315</v>
+        <f t="shared" si="24"/>
+        <v>0.57640822368743128</v>
       </c>
       <c r="R23" s="4"/>
     </row>
@@ -2147,14 +2147,38 @@
       </c>
     </row>
     <row r="26" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="H26" s="4">
+        <f>H27/H2</f>
+        <v>0.16738044254104212</v>
+      </c>
+      <c r="I26" s="4">
+        <f>I27/I2</f>
+        <v>0.20065466448445171</v>
+      </c>
+      <c r="J26" s="4">
+        <f>J27/J2</f>
+        <v>0.26467361492046076</v>
+      </c>
+      <c r="K26" s="4">
+        <f>J26*1.05</f>
+        <v>0.27790729566648381</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:O26" si="25">K26*1.05</f>
+        <v>0.29180266044980802</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="25"/>
+        <v>0.30639279347229842</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="25"/>
+        <v>0.32171243314591336</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="25"/>
+        <v>0.33779805480320901</v>
+      </c>
     </row>
     <row r="27" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2169,6 +2193,26 @@
       <c r="J27" s="1">
         <v>965</v>
       </c>
+      <c r="K27" s="1">
+        <f>K26*K2</f>
+        <v>1165.2375</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27:O27" si="26">L26*L2</f>
+        <v>1358.0843062500001</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="26"/>
+        <v>1582.8472589343748</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="26"/>
+        <v>1844.8084802880142</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="26"/>
+        <v>2150.1242837756809</v>
+      </c>
     </row>
     <row r="28" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2182,6 +2226,26 @@
       </c>
       <c r="J28" s="1">
         <v>221</v>
+      </c>
+      <c r="K28" s="1">
+        <f>K2*0.02</f>
+        <v>83.85799999999999</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:O28" si="27">L2*0.02</f>
+        <v>93.082380000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="27"/>
+        <v>103.3214418</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="27"/>
+        <v>114.686800398</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="27"/>
+        <v>127.30234844178001</v>
       </c>
     </row>
     <row r="29" spans="1:147" ht="15" x14ac:dyDescent="0.25">
@@ -2222,552 +2286,552 @@
         <v>744</v>
       </c>
       <c r="K29" s="3">
-        <f>K22*K2</f>
-        <v>864.15599999999984</v>
+        <f>K27-K28</f>
+        <v>1081.3795</v>
       </c>
       <c r="L29" s="3">
-        <f>L22*L2</f>
-        <v>1007.1738179999999</v>
+        <f t="shared" ref="L29:O29" si="28">L27-L28</f>
+        <v>1265.00192625</v>
       </c>
       <c r="M29" s="3">
-        <f>M22*M2</f>
-        <v>1173.8610848789999</v>
+        <f t="shared" si="28"/>
+        <v>1479.5258171343748</v>
       </c>
       <c r="N29" s="3">
-        <f>N22*N2</f>
-        <v>1368.1350944264746</v>
+        <f t="shared" si="28"/>
+        <v>1730.1216798900141</v>
       </c>
       <c r="O29" s="3">
-        <f>O22*O2</f>
-        <v>1594.5614525540566</v>
+        <f t="shared" si="28"/>
+        <v>2022.8219353339009</v>
       </c>
       <c r="P29" s="3">
-        <f>O29*(1+$R$33)</f>
-        <v>1610.5070670795972</v>
+        <f t="shared" ref="P29:AU29" si="29">O29*(1+$R$33)</f>
+        <v>2043.0501546872399</v>
       </c>
       <c r="Q29" s="3">
-        <f>P29*(1+$R$33)</f>
-        <v>1626.6121377503932</v>
+        <f t="shared" si="29"/>
+        <v>2063.4806562341123</v>
       </c>
       <c r="R29" s="3">
-        <f>Q29*(1+$R$33)</f>
-        <v>1642.8782591278971</v>
+        <f t="shared" si="29"/>
+        <v>2084.1154627964534</v>
       </c>
       <c r="S29" s="3">
-        <f>R29*(1+$R$33)</f>
-        <v>1659.3070417191761</v>
+        <f t="shared" si="29"/>
+        <v>2104.9566174244178</v>
       </c>
       <c r="T29" s="3">
-        <f>S29*(1+$R$33)</f>
-        <v>1675.9001121363679</v>
+        <f t="shared" si="29"/>
+        <v>2126.0061835986621</v>
       </c>
       <c r="U29" s="3">
-        <f>T29*(1+$R$33)</f>
-        <v>1692.6591132577316</v>
+        <f t="shared" si="29"/>
+        <v>2147.2662454346487</v>
       </c>
       <c r="V29" s="3">
-        <f>U29*(1+$R$33)</f>
-        <v>1709.585704390309</v>
+        <f t="shared" si="29"/>
+        <v>2168.7389078889951</v>
       </c>
       <c r="W29" s="3">
-        <f>V29*(1+$R$33)</f>
-        <v>1726.6815614342122</v>
+        <f t="shared" si="29"/>
+        <v>2190.4262969678853</v>
       </c>
       <c r="X29" s="3">
-        <f>W29*(1+$R$33)</f>
-        <v>1743.9483770485544</v>
+        <f t="shared" si="29"/>
+        <v>2212.330559937564</v>
       </c>
       <c r="Y29" s="3">
-        <f>X29*(1+$R$33)</f>
-        <v>1761.38786081904</v>
+        <f t="shared" si="29"/>
+        <v>2234.4538655369397</v>
       </c>
       <c r="Z29" s="3">
-        <f>Y29*(1+$R$33)</f>
-        <v>1779.0017394272304</v>
+        <f t="shared" si="29"/>
+        <v>2256.7984041923091</v>
       </c>
       <c r="AA29" s="3">
-        <f>Z29*(1+$R$33)</f>
-        <v>1796.7917568215028</v>
+        <f t="shared" si="29"/>
+        <v>2279.3663882342321</v>
       </c>
       <c r="AB29" s="3">
-        <f>AA29*(1+$R$33)</f>
-        <v>1814.7596743897177</v>
+        <f t="shared" si="29"/>
+        <v>2302.1600521165742</v>
       </c>
       <c r="AC29" s="3">
-        <f>AB29*(1+$R$33)</f>
-        <v>1832.9072711336148</v>
+        <f t="shared" si="29"/>
+        <v>2325.1816526377402</v>
       </c>
       <c r="AD29" s="3">
-        <f>AC29*(1+$R$33)</f>
-        <v>1851.2363438449511</v>
+        <f t="shared" si="29"/>
+        <v>2348.4334691641175</v>
       </c>
       <c r="AE29" s="3">
-        <f>AD29*(1+$R$33)</f>
-        <v>1869.7487072834006</v>
+        <f t="shared" si="29"/>
+        <v>2371.9178038557588</v>
       </c>
       <c r="AF29" s="3">
-        <f>AE29*(1+$R$33)</f>
-        <v>1888.4461943562346</v>
+        <f t="shared" si="29"/>
+        <v>2395.6369818943162</v>
       </c>
       <c r="AG29" s="3">
-        <f>AF29*(1+$R$33)</f>
-        <v>1907.3306562997971</v>
+        <f t="shared" si="29"/>
+        <v>2419.5933517132594</v>
       </c>
       <c r="AH29" s="3">
-        <f>AG29*(1+$R$33)</f>
-        <v>1926.403962862795</v>
+        <f t="shared" si="29"/>
+        <v>2443.7892852303921</v>
       </c>
       <c r="AI29" s="3">
-        <f>AH29*(1+$R$33)</f>
-        <v>1945.6680024914228</v>
+        <f t="shared" si="29"/>
+        <v>2468.2271780826959</v>
       </c>
       <c r="AJ29" s="3">
-        <f>AI29*(1+$R$33)</f>
-        <v>1965.1246825163371</v>
+        <f t="shared" si="29"/>
+        <v>2492.9094498635227</v>
       </c>
       <c r="AK29" s="3">
-        <f>AJ29*(1+$R$33)</f>
-        <v>1984.7759293415004</v>
+        <f t="shared" si="29"/>
+        <v>2517.8385443621578</v>
       </c>
       <c r="AL29" s="3">
-        <f>AK29*(1+$R$33)</f>
-        <v>2004.6236886349154</v>
+        <f t="shared" si="29"/>
+        <v>2543.0169298057795</v>
       </c>
       <c r="AM29" s="3">
-        <f>AL29*(1+$R$33)</f>
-        <v>2024.6699255212645</v>
+        <f t="shared" si="29"/>
+        <v>2568.4470991038374</v>
       </c>
       <c r="AN29" s="3">
-        <f>AM29*(1+$R$33)</f>
-        <v>2044.9166247764772</v>
+        <f t="shared" si="29"/>
+        <v>2594.1315700948758</v>
       </c>
       <c r="AO29" s="3">
-        <f>AN29*(1+$R$33)</f>
-        <v>2065.3657910242418</v>
+        <f t="shared" si="29"/>
+        <v>2620.0728857958247</v>
       </c>
       <c r="AP29" s="3">
-        <f>AO29*(1+$R$33)</f>
-        <v>2086.0194489344844</v>
+        <f t="shared" si="29"/>
+        <v>2646.2736146537832</v>
       </c>
       <c r="AQ29" s="3">
-        <f>AP29*(1+$R$33)</f>
-        <v>2106.8796434238293</v>
+        <f t="shared" si="29"/>
+        <v>2672.7363508003209</v>
       </c>
       <c r="AR29" s="3">
-        <f>AQ29*(1+$R$33)</f>
-        <v>2127.9484398580676</v>
+        <f t="shared" si="29"/>
+        <v>2699.4637143083241</v>
       </c>
       <c r="AS29" s="3">
-        <f>AR29*(1+$R$33)</f>
-        <v>2149.2279242566483</v>
+        <f t="shared" si="29"/>
+        <v>2726.4583514514075</v>
       </c>
       <c r="AT29" s="3">
-        <f>AS29*(1+$R$33)</f>
-        <v>2170.7202034992147</v>
+        <f t="shared" si="29"/>
+        <v>2753.7229349659215</v>
       </c>
       <c r="AU29" s="3">
-        <f>AT29*(1+$R$33)</f>
-        <v>2192.4274055342066</v>
+        <f t="shared" si="29"/>
+        <v>2781.2601643155808</v>
       </c>
       <c r="AV29" s="3">
-        <f>AU29*(1+$R$33)</f>
-        <v>2214.3516795895489</v>
+        <f t="shared" ref="AV29:CA29" si="30">AU29*(1+$R$33)</f>
+        <v>2809.0727659587365</v>
       </c>
       <c r="AW29" s="3">
-        <f>AV29*(1+$R$33)</f>
-        <v>2236.4951963854446</v>
+        <f t="shared" si="30"/>
+        <v>2837.1634936183236</v>
       </c>
       <c r="AX29" s="3">
-        <f>AW29*(1+$R$33)</f>
-        <v>2258.8601483492989</v>
+        <f t="shared" si="30"/>
+        <v>2865.5351285545071</v>
       </c>
       <c r="AY29" s="3">
-        <f>AX29*(1+$R$33)</f>
-        <v>2281.4487498327921</v>
+        <f t="shared" si="30"/>
+        <v>2894.1904798400524</v>
       </c>
       <c r="AZ29" s="3">
-        <f>AY29*(1+$R$33)</f>
-        <v>2304.2632373311203</v>
+        <f t="shared" si="30"/>
+        <v>2923.132384638453</v>
       </c>
       <c r="BA29" s="3">
-        <f>AZ29*(1+$R$33)</f>
-        <v>2327.3058697044316</v>
+        <f t="shared" si="30"/>
+        <v>2952.3637084848374</v>
       </c>
       <c r="BB29" s="3">
-        <f>BA29*(1+$R$33)</f>
-        <v>2350.5789284014759</v>
+        <f t="shared" si="30"/>
+        <v>2981.8873455696857</v>
       </c>
       <c r="BC29" s="3">
-        <f>BB29*(1+$R$33)</f>
-        <v>2374.0847176854904</v>
+        <f t="shared" si="30"/>
+        <v>3011.7062190253828</v>
       </c>
       <c r="BD29" s="3">
-        <f>BC29*(1+$R$33)</f>
-        <v>2397.8255648623453</v>
+        <f t="shared" si="30"/>
+        <v>3041.8232812156366</v>
       </c>
       <c r="BE29" s="3">
-        <f>BD29*(1+$R$33)</f>
-        <v>2421.8038205109688</v>
+        <f t="shared" si="30"/>
+        <v>3072.2415140277931</v>
       </c>
       <c r="BF29" s="3">
-        <f>BE29*(1+$R$33)</f>
-        <v>2446.0218587160784</v>
+        <f t="shared" si="30"/>
+        <v>3102.963929168071</v>
       </c>
       <c r="BG29" s="3">
-        <f>BF29*(1+$R$33)</f>
-        <v>2470.4820773032393</v>
+        <f t="shared" si="30"/>
+        <v>3133.9935684597517</v>
       </c>
       <c r="BH29" s="3">
-        <f>BG29*(1+$R$33)</f>
-        <v>2495.1868980762715</v>
+        <f t="shared" si="30"/>
+        <v>3165.3335041443493</v>
       </c>
       <c r="BI29" s="3">
-        <f>BH29*(1+$R$33)</f>
-        <v>2520.1387670570343</v>
+        <f t="shared" si="30"/>
+        <v>3196.9868391857926</v>
       </c>
       <c r="BJ29" s="3">
-        <f>BI29*(1+$R$33)</f>
-        <v>2545.3401547276048</v>
+        <f t="shared" si="30"/>
+        <v>3228.9567075776504</v>
       </c>
       <c r="BK29" s="3">
-        <f>BJ29*(1+$R$33)</f>
-        <v>2570.7935562748808</v>
+        <f t="shared" si="30"/>
+        <v>3261.246274653427</v>
       </c>
       <c r="BL29" s="3">
-        <f>BK29*(1+$R$33)</f>
-        <v>2596.5014918376296</v>
+        <f t="shared" si="30"/>
+        <v>3293.8587373999612</v>
       </c>
       <c r="BM29" s="3">
-        <f>BL29*(1+$R$33)</f>
-        <v>2622.4665067560059</v>
+        <f t="shared" si="30"/>
+        <v>3326.797324773961</v>
       </c>
       <c r="BN29" s="3">
-        <f>BM29*(1+$R$33)</f>
-        <v>2648.691171823566</v>
+        <f t="shared" si="30"/>
+        <v>3360.0652980217005</v>
       </c>
       <c r="BO29" s="3">
-        <f>BN29*(1+$R$33)</f>
-        <v>2675.1780835418017</v>
+        <f t="shared" si="30"/>
+        <v>3393.6659510019176</v>
       </c>
       <c r="BP29" s="3">
-        <f>BO29*(1+$R$33)</f>
-        <v>2701.9298643772199</v>
+        <f t="shared" si="30"/>
+        <v>3427.6026105119367</v>
       </c>
       <c r="BQ29" s="3">
-        <f>BP29*(1+$R$33)</f>
-        <v>2728.9491630209923</v>
+        <f t="shared" si="30"/>
+        <v>3461.8786366170561</v>
       </c>
       <c r="BR29" s="3">
-        <f>BQ29*(1+$R$33)</f>
-        <v>2756.2386546512021</v>
+        <f t="shared" si="30"/>
+        <v>3496.4974229832269</v>
       </c>
       <c r="BS29" s="3">
-        <f>BR29*(1+$R$33)</f>
-        <v>2783.8010411977143</v>
+        <f t="shared" si="30"/>
+        <v>3531.4623972130594</v>
       </c>
       <c r="BT29" s="3">
-        <f>BS29*(1+$R$33)</f>
-        <v>2811.6390516096917</v>
+        <f t="shared" si="30"/>
+        <v>3566.7770211851898</v>
       </c>
       <c r="BU29" s="3">
-        <f>BT29*(1+$R$33)</f>
-        <v>2839.7554421257887</v>
+        <f t="shared" si="30"/>
+        <v>3602.4447913970416</v>
       </c>
       <c r="BV29" s="3">
-        <f>BU29*(1+$R$33)</f>
-        <v>2868.1529965470468</v>
+        <f t="shared" si="30"/>
+        <v>3638.4692393110122</v>
       </c>
       <c r="BW29" s="3">
-        <f>BV29*(1+$R$33)</f>
-        <v>2896.8345265125172</v>
+        <f t="shared" si="30"/>
+        <v>3674.8539317041223</v>
       </c>
       <c r="BX29" s="3">
-        <f>BW29*(1+$R$33)</f>
-        <v>2925.8028717776424</v>
+        <f t="shared" si="30"/>
+        <v>3711.6024710211636</v>
       </c>
       <c r="BY29" s="3">
-        <f>BX29*(1+$R$33)</f>
-        <v>2955.060900495419</v>
+        <f t="shared" si="30"/>
+        <v>3748.7184957313752</v>
       </c>
       <c r="BZ29" s="3">
-        <f>BY29*(1+$R$33)</f>
-        <v>2984.6115095003734</v>
+        <f t="shared" si="30"/>
+        <v>3786.205680688689</v>
       </c>
       <c r="CA29" s="3">
-        <f>BZ29*(1+$R$33)</f>
-        <v>3014.4576245953772</v>
+        <f t="shared" si="30"/>
+        <v>3824.0677374955758</v>
       </c>
       <c r="CB29" s="3">
-        <f>CA29*(1+$R$33)</f>
-        <v>3044.6022008413311</v>
+        <f t="shared" ref="CB29:DG29" si="31">CA29*(1+$R$33)</f>
+        <v>3862.3084148705316</v>
       </c>
       <c r="CC29" s="3">
-        <f>CB29*(1+$R$33)</f>
-        <v>3075.0482228497444</v>
+        <f t="shared" si="31"/>
+        <v>3900.931499019237</v>
       </c>
       <c r="CD29" s="3">
-        <f>CC29*(1+$R$33)</f>
-        <v>3105.7987050782417</v>
+        <f t="shared" si="31"/>
+        <v>3939.9408140094292</v>
       </c>
       <c r="CE29" s="3">
-        <f>CD29*(1+$R$33)</f>
-        <v>3136.8566921290239</v>
+        <f t="shared" si="31"/>
+        <v>3979.3402221495235</v>
       </c>
       <c r="CF29" s="3">
-        <f>CE29*(1+$R$33)</f>
-        <v>3168.2252590503144</v>
+        <f t="shared" si="31"/>
+        <v>4019.1336243710189</v>
       </c>
       <c r="CG29" s="3">
-        <f>CF29*(1+$R$33)</f>
-        <v>3199.9075116408176</v>
+        <f t="shared" si="31"/>
+        <v>4059.3249606147292</v>
       </c>
       <c r="CH29" s="3">
-        <f>CG29*(1+$R$33)</f>
-        <v>3231.9065867572258</v>
+        <f t="shared" si="31"/>
+        <v>4099.918210220877</v>
       </c>
       <c r="CI29" s="3">
-        <f>CH29*(1+$R$33)</f>
-        <v>3264.2256526247979</v>
+        <f t="shared" si="31"/>
+        <v>4140.9173923230856</v>
       </c>
       <c r="CJ29" s="3">
-        <f>CI29*(1+$R$33)</f>
-        <v>3296.8679091510458</v>
+        <f t="shared" si="31"/>
+        <v>4182.3265662463164</v>
       </c>
       <c r="CK29" s="3">
-        <f>CJ29*(1+$R$33)</f>
-        <v>3329.8365882425564</v>
+        <f t="shared" si="31"/>
+        <v>4224.1498319087796</v>
       </c>
       <c r="CL29" s="3">
-        <f>CK29*(1+$R$33)</f>
-        <v>3363.134954124982</v>
+        <f t="shared" si="31"/>
+        <v>4266.391330227867</v>
       </c>
       <c r="CM29" s="3">
-        <f>CL29*(1+$R$33)</f>
-        <v>3396.766303666232</v>
+        <f t="shared" si="31"/>
+        <v>4309.0552435301461</v>
       </c>
       <c r="CN29" s="3">
-        <f>CM29*(1+$R$33)</f>
-        <v>3430.7339667028946</v>
+        <f t="shared" si="31"/>
+        <v>4352.1457959654472</v>
       </c>
       <c r="CO29" s="3">
-        <f>CN29*(1+$R$33)</f>
-        <v>3465.0413063699234</v>
+        <f t="shared" si="31"/>
+        <v>4395.6672539251012</v>
       </c>
       <c r="CP29" s="3">
-        <f>CO29*(1+$R$33)</f>
-        <v>3499.6917194336229</v>
+        <f t="shared" si="31"/>
+        <v>4439.6239264643527</v>
       </c>
       <c r="CQ29" s="3">
-        <f>CP29*(1+$R$33)</f>
-        <v>3534.6886366279591</v>
+        <f t="shared" si="31"/>
+        <v>4484.0201657289963</v>
       </c>
       <c r="CR29" s="3">
-        <f>CQ29*(1+$R$33)</f>
-        <v>3570.0355229942388</v>
+        <f t="shared" si="31"/>
+        <v>4528.8603673862863</v>
       </c>
       <c r="CS29" s="3">
-        <f>CR29*(1+$R$33)</f>
-        <v>3605.7358782241813</v>
+        <f t="shared" si="31"/>
+        <v>4574.1489710601491</v>
       </c>
       <c r="CT29" s="3">
-        <f>CS29*(1+$R$33)</f>
-        <v>3641.7932370064232</v>
+        <f t="shared" si="31"/>
+        <v>4619.8904607707509</v>
       </c>
       <c r="CU29" s="3">
-        <f>CT29*(1+$R$33)</f>
-        <v>3678.2111693764873</v>
+        <f t="shared" si="31"/>
+        <v>4666.0893653784588</v>
       </c>
       <c r="CV29" s="3">
-        <f>CU29*(1+$R$33)</f>
-        <v>3714.9932810702521</v>
+        <f t="shared" si="31"/>
+        <v>4712.7502590322438</v>
       </c>
       <c r="CW29" s="3">
-        <f>CV29*(1+$R$33)</f>
-        <v>3752.1432138809546</v>
+        <f t="shared" si="31"/>
+        <v>4759.8777616225661</v>
       </c>
       <c r="CX29" s="3">
-        <f>CW29*(1+$R$33)</f>
-        <v>3789.6646460197639</v>
+        <f t="shared" si="31"/>
+        <v>4807.4765392387917</v>
       </c>
       <c r="CY29" s="3">
-        <f>CX29*(1+$R$33)</f>
-        <v>3827.5612924799616</v>
+        <f t="shared" si="31"/>
+        <v>4855.5513046311798</v>
       </c>
       <c r="CZ29" s="3">
-        <f>CY29*(1+$R$33)</f>
-        <v>3865.8369054047612</v>
+        <f t="shared" si="31"/>
+        <v>4904.1068176774916</v>
       </c>
       <c r="DA29" s="3">
-        <f>CZ29*(1+$R$33)</f>
-        <v>3904.495274458809</v>
+        <f t="shared" si="31"/>
+        <v>4953.1478858542669</v>
       </c>
       <c r="DB29" s="3">
-        <f>DA29*(1+$R$33)</f>
-        <v>3943.5402272033971</v>
+        <f t="shared" si="31"/>
+        <v>5002.6793647128097</v>
       </c>
       <c r="DC29" s="3">
-        <f>DB29*(1+$R$33)</f>
-        <v>3982.9756294754311</v>
+        <f t="shared" si="31"/>
+        <v>5052.7061583599379</v>
       </c>
       <c r="DD29" s="3">
-        <f>DC29*(1+$R$33)</f>
-        <v>4022.8053857701852</v>
+        <f t="shared" si="31"/>
+        <v>5103.2332199435377</v>
       </c>
       <c r="DE29" s="3">
-        <f>DD29*(1+$R$33)</f>
-        <v>4063.0334396278872</v>
+        <f t="shared" si="31"/>
+        <v>5154.2655521429733</v>
       </c>
       <c r="DF29" s="3">
-        <f>DE29*(1+$R$33)</f>
-        <v>4103.6637740241658</v>
+        <f t="shared" si="31"/>
+        <v>5205.8082076644032</v>
       </c>
       <c r="DG29" s="3">
-        <f>DF29*(1+$R$33)</f>
-        <v>4144.7004117644074</v>
+        <f t="shared" si="31"/>
+        <v>5257.8662897410477</v>
       </c>
       <c r="DH29" s="3">
-        <f>DG29*(1+$R$33)</f>
-        <v>4186.1474158820511</v>
+        <f t="shared" ref="DH29:EQ29" si="32">DG29*(1+$R$33)</f>
+        <v>5310.4449526384578</v>
       </c>
       <c r="DI29" s="3">
-        <f>DH29*(1+$R$33)</f>
-        <v>4228.0088900408718</v>
+        <f t="shared" si="32"/>
+        <v>5363.5494021648428</v>
       </c>
       <c r="DJ29" s="3">
-        <f>DI29*(1+$R$33)</f>
-        <v>4270.2889789412802</v>
+        <f t="shared" si="32"/>
+        <v>5417.1848961864916</v>
       </c>
       <c r="DK29" s="3">
-        <f>DJ29*(1+$R$33)</f>
-        <v>4312.9918687306927</v>
+        <f t="shared" si="32"/>
+        <v>5471.3567451483568</v>
       </c>
       <c r="DL29" s="3">
-        <f>DK29*(1+$R$33)</f>
-        <v>4356.1217874179993</v>
+        <f t="shared" si="32"/>
+        <v>5526.0703125998407</v>
       </c>
       <c r="DM29" s="3">
-        <f>DL29*(1+$R$33)</f>
-        <v>4399.6830052921796</v>
+        <f t="shared" si="32"/>
+        <v>5581.3310157258393</v>
       </c>
       <c r="DN29" s="3">
-        <f>DM29*(1+$R$33)</f>
-        <v>4443.6798353451013</v>
+        <f t="shared" si="32"/>
+        <v>5637.1443258830977</v>
       </c>
       <c r="DO29" s="3">
-        <f>DN29*(1+$R$33)</f>
-        <v>4488.1166336985525</v>
+        <f t="shared" si="32"/>
+        <v>5693.515769141929</v>
       </c>
       <c r="DP29" s="3">
-        <f>DO29*(1+$R$33)</f>
-        <v>4532.9978000355377</v>
+        <f t="shared" si="32"/>
+        <v>5750.4509268333486</v>
       </c>
       <c r="DQ29" s="3">
-        <f>DP29*(1+$R$33)</f>
-        <v>4578.3277780358931</v>
+        <f t="shared" si="32"/>
+        <v>5807.9554361016817</v>
       </c>
       <c r="DR29" s="3">
-        <f>DQ29*(1+$R$33)</f>
-        <v>4624.1110558162518</v>
+        <f t="shared" si="32"/>
+        <v>5866.0349904626983</v>
       </c>
       <c r="DS29" s="3">
-        <f>DR29*(1+$R$33)</f>
-        <v>4670.3521663744141</v>
+        <f t="shared" si="32"/>
+        <v>5924.6953403673251</v>
       </c>
       <c r="DT29" s="3">
-        <f>DS29*(1+$R$33)</f>
-        <v>4717.0556880381582</v>
+        <f t="shared" si="32"/>
+        <v>5983.9422937709987</v>
       </c>
       <c r="DU29" s="3">
-        <f>DT29*(1+$R$33)</f>
-        <v>4764.22624491854</v>
+        <f t="shared" si="32"/>
+        <v>6043.7817167087087</v>
       </c>
       <c r="DV29" s="3">
-        <f>DU29*(1+$R$33)</f>
-        <v>4811.8685073677252</v>
+        <f t="shared" si="32"/>
+        <v>6104.2195338757956</v>
       </c>
       <c r="DW29" s="3">
-        <f>DV29*(1+$R$33)</f>
-        <v>4859.9871924414028</v>
+        <f t="shared" si="32"/>
+        <v>6165.2617292145533</v>
       </c>
       <c r="DX29" s="3">
-        <f>DW29*(1+$R$33)</f>
-        <v>4908.5870643658172</v>
+        <f t="shared" si="32"/>
+        <v>6226.9143465066991</v>
       </c>
       <c r="DY29" s="3">
-        <f>DX29*(1+$R$33)</f>
-        <v>4957.6729350094756</v>
+        <f t="shared" si="32"/>
+        <v>6289.183489971766</v>
       </c>
       <c r="DZ29" s="3">
-        <f>DY29*(1+$R$33)</f>
-        <v>5007.2496643595705</v>
+        <f t="shared" si="32"/>
+        <v>6352.0753248714836</v>
       </c>
       <c r="EA29" s="3">
-        <f>DZ29*(1+$R$33)</f>
-        <v>5057.322161003166</v>
+        <f t="shared" si="32"/>
+        <v>6415.5960781201984</v>
       </c>
       <c r="EB29" s="3">
-        <f>EA29*(1+$R$33)</f>
-        <v>5107.8953826131974</v>
+        <f t="shared" si="32"/>
+        <v>6479.7520389014007</v>
       </c>
       <c r="EC29" s="3">
-        <f>EB29*(1+$R$33)</f>
-        <v>5158.9743364393298</v>
+        <f t="shared" si="32"/>
+        <v>6544.5495592904144</v>
       </c>
       <c r="ED29" s="3">
-        <f>EC29*(1+$R$33)</f>
-        <v>5210.564079803723</v>
+        <f t="shared" si="32"/>
+        <v>6609.9950548833185</v>
       </c>
       <c r="EE29" s="3">
-        <f>ED29*(1+$R$33)</f>
-        <v>5262.6697206017607</v>
+        <f t="shared" si="32"/>
+        <v>6676.095005432152</v>
       </c>
       <c r="EF29" s="3">
-        <f>EE29*(1+$R$33)</f>
-        <v>5315.2964178077782</v>
+        <f t="shared" si="32"/>
+        <v>6742.8559554864732</v>
       </c>
       <c r="EG29" s="3">
-        <f>EF29*(1+$R$33)</f>
-        <v>5368.4493819858562</v>
+        <f t="shared" si="32"/>
+        <v>6810.2845150413377</v>
       </c>
       <c r="EH29" s="3">
-        <f>EG29*(1+$R$33)</f>
-        <v>5422.1338758057145</v>
+        <f t="shared" si="32"/>
+        <v>6878.3873601917512</v>
       </c>
       <c r="EI29" s="3">
-        <f>EH29*(1+$R$33)</f>
-        <v>5476.3552145637714</v>
+        <f t="shared" si="32"/>
+        <v>6947.1712337936688</v>
       </c>
       <c r="EJ29" s="3">
-        <f>EI29*(1+$R$33)</f>
-        <v>5531.1187667094091</v>
+        <f t="shared" si="32"/>
+        <v>7016.6429461316056</v>
       </c>
       <c r="EK29" s="3">
-        <f>EJ29*(1+$R$33)</f>
-        <v>5586.4299543765028</v>
+        <f t="shared" si="32"/>
+        <v>7086.8093755929222</v>
       </c>
       <c r="EL29" s="3">
-        <f>EK29*(1+$R$33)</f>
-        <v>5642.2942539202677</v>
+        <f t="shared" si="32"/>
+        <v>7157.6774693488514</v>
       </c>
       <c r="EM29" s="3">
-        <f>EL29*(1+$R$33)</f>
-        <v>5698.7171964594709</v>
+        <f t="shared" si="32"/>
+        <v>7229.2542440423404</v>
       </c>
       <c r="EN29" s="3">
-        <f>EM29*(1+$R$33)</f>
-        <v>5755.7043684240653</v>
+        <f t="shared" si="32"/>
+        <v>7301.5467864827642</v>
       </c>
       <c r="EO29" s="3">
-        <f>EN29*(1+$R$33)</f>
-        <v>5813.2614121083061</v>
+        <f t="shared" si="32"/>
+        <v>7374.562254347592</v>
       </c>
       <c r="EP29" s="3">
-        <f>EO29*(1+$R$33)</f>
-        <v>5871.3940262293891</v>
+        <f t="shared" si="32"/>
+        <v>7448.3078768910682</v>
       </c>
       <c r="EQ29" s="3">
-        <f>EP29*(1+$R$33)</f>
-        <v>5930.1079664916833</v>
+        <f t="shared" si="32"/>
+        <v>7522.7909556599789</v>
       </c>
     </row>
     <row r="30" spans="1:147" x14ac:dyDescent="0.2">
@@ -2784,28 +2848,28 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="7">
-        <f>J29/J15</f>
+        <f t="shared" ref="J31:O31" si="33">J29/J15</f>
         <v>1.0969568294409058</v>
       </c>
       <c r="K31" s="7">
-        <f>K29/K15</f>
-        <v>1.2741153573956119</v>
+        <f t="shared" si="33"/>
+        <v>1.5943906286860108</v>
       </c>
       <c r="L31" s="7">
-        <f>L29/L15</f>
-        <v>1.4849814490445858</v>
+        <f t="shared" si="33"/>
+        <v>1.8651243309890304</v>
       </c>
       <c r="M31" s="7">
-        <f>M29/M15</f>
-        <v>1.7307458788614649</v>
+        <f t="shared" si="33"/>
+        <v>2.1814192868813027</v>
       </c>
       <c r="N31" s="7">
-        <f>N29/N15</f>
-        <v>2.0171843218130374</v>
+        <f t="shared" si="33"/>
+        <v>2.5508989146762415</v>
       </c>
       <c r="O31" s="7">
-        <f>O29/O15</f>
-        <v>2.3510283270730961</v>
+        <f t="shared" si="33"/>
+        <v>2.9824574418110124</v>
       </c>
     </row>
     <row r="32" spans="1:147" x14ac:dyDescent="0.2">
@@ -2818,23 +2882,23 @@
       </c>
       <c r="K32" s="1">
         <f>J32+K14</f>
-        <v>3006.3363084449998</v>
+        <v>2955.7373402250005</v>
       </c>
       <c r="L32" s="1">
         <f>K32+L14</f>
-        <v>3777.7700041191401</v>
+        <v>3619.1219991621533</v>
       </c>
       <c r="M32" s="1">
         <f>L32+M14</f>
-        <v>4878.1041297175461</v>
+        <v>4546.4808028585467</v>
       </c>
       <c r="N32" s="1">
         <f>M32+N14</f>
-        <v>6365.5793683044467</v>
+        <v>5787.9050932953451</v>
       </c>
       <c r="O32" s="1">
         <f>N32+O14</f>
-        <v>8306.6091352049116</v>
+        <v>7400.9344632331204</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>35</v>
@@ -2871,8 +2935,8 @@
         <v>19</v>
       </c>
       <c r="R35" s="1">
-        <f>NPV(R34,K14:EQ14)+Sheet1!E5-Sheet1!E6</f>
-        <v>24223.620763088526</v>
+        <f>NPV(R34,K29:EQ29)+Sheet1!E5-Sheet1!E6</f>
+        <v>26450.902010726961</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2887,7 +2951,7 @@
       </c>
       <c r="R36" s="1">
         <f>R35/Sheet1!E3</f>
-        <v>35.715411599269473</v>
+        <v>38.999324738627863</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2896,7 +2960,7 @@
       </c>
       <c r="R37" s="4">
         <f>R36/Sheet1!E2-1</f>
-        <v>0.2315659172161888</v>
+        <v>0.18179771935235944</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">

--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC7860-9CF4-4ED9-99B4-C12C3180D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5507DAB-9283-418F-A083-CB867E319584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
+    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
       </c>
       <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>22381.920000000002</v>
+        <v>21703.68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
       </c>
       <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>19869.120000000003</v>
+        <v>19190.88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
       </c>
       <c r="E8" s="9">
         <f>E2/Sheet2!K31</f>
-        <v>20.697562696537155</v>
+        <v>20.070363826945119</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="R37" s="4">
         <f>R36/Sheet1!E2-1</f>
-        <v>0.18179771935235944</v>
+        <v>0.2187288980821207</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">

--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5507DAB-9283-418F-A083-CB867E319584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084C2168-BBA6-4510-8F36-4F70A60674F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -228,6 +231,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3DAB11-F388-4BB8-9EB8-C99DB9269CC8}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +691,7 @@
       <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>32</v>
       </c>
     </row>
@@ -774,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6302D-E6E4-44F9-948E-28184C84453C}">
   <dimension ref="A1:EQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,23 +1191,23 @@
       </c>
       <c r="K10" s="1">
         <f>J32*$R$32</f>
-        <v>150.768</v>
+        <v>100.51200000000001</v>
       </c>
       <c r="L10" s="1">
         <f>K32*$R$32</f>
-        <v>177.34424041350002</v>
+        <v>116.60119920900001</v>
       </c>
       <c r="M10" s="1">
         <f>L32*$R$32</f>
-        <v>217.14731994972919</v>
+        <v>141.16851103146033</v>
       </c>
       <c r="N10" s="1">
         <f>M32*$R$32</f>
-        <v>272.78884817151277</v>
+        <v>175.80114977036413</v>
       </c>
       <c r="O10" s="1">
         <f>N32*$R$32</f>
-        <v>347.27430559772068</v>
+        <v>222.31571995963884</v>
       </c>
     </row>
     <row r="11" spans="1:121" x14ac:dyDescent="0.2">
@@ -1273,23 +1277,23 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="12"/>
-        <v>546.83622250000008</v>
+        <v>496.58022250000005</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="12"/>
-        <v>818.99340609525029</v>
+        <v>758.25036489075023</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="12"/>
-        <v>1144.8874119708562</v>
+        <v>1068.9086030525875</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="12"/>
-        <v>1532.6225807861706</v>
+        <v>1435.6348823850221</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="12"/>
-        <v>1991.3942838737967</v>
+        <v>1866.4356982357149</v>
       </c>
     </row>
     <row r="13" spans="1:121" x14ac:dyDescent="0.2">
@@ -1307,23 +1311,23 @@
       </c>
       <c r="K13" s="1">
         <f>K12*K25</f>
-        <v>103.89888227500002</v>
+        <v>94.350242275000014</v>
       </c>
       <c r="L13" s="1">
         <f>L12*L25</f>
-        <v>155.60874715809757</v>
+        <v>144.06756932924256</v>
       </c>
       <c r="M13" s="1">
         <f>M12*M25</f>
-        <v>217.52860827446267</v>
+        <v>203.09263457999162</v>
       </c>
       <c r="N13" s="1">
         <f>N12*N25</f>
-        <v>291.19829034937243</v>
+        <v>272.77062765315424</v>
       </c>
       <c r="O13" s="1">
         <f>O12*O25</f>
-        <v>378.36491393602137</v>
+        <v>354.62278266478586</v>
       </c>
     </row>
     <row r="14" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1362,447 +1366,447 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="13"/>
-        <v>442.93734022500007</v>
+        <v>402.22998022500002</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
-        <v>663.38465893715272</v>
+        <v>614.18279556150765</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
-        <v>927.35880369639358</v>
+        <v>865.81596847259584</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="13"/>
-        <v>1241.4242904367982</v>
+        <v>1162.864254731868</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="13"/>
-        <v>1613.0293699377753</v>
+        <v>1511.8129155709289</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ref="P14:AU14" si="14">O14*(1+$R$33)</f>
-        <v>1629.159663637153</v>
+        <v>1526.9310447266382</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="14"/>
-        <v>1645.4512602735247</v>
+        <v>1542.2003551739047</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="14"/>
-        <v>1661.90577287626</v>
+        <v>1557.6223587256436</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="14"/>
-        <v>1678.5248306050225</v>
+        <v>1573.1985823129</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="14"/>
-        <v>1695.3100789110729</v>
+        <v>1588.930568136029</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="14"/>
-        <v>1712.2631797001836</v>
+        <v>1604.8198738173894</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="14"/>
-        <v>1729.3858114971854</v>
+        <v>1620.8680725555632</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="14"/>
-        <v>1746.6796696121573</v>
+        <v>1637.076753281119</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="14"/>
-        <v>1764.1464663082788</v>
+        <v>1653.4475208139302</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="14"/>
-        <v>1781.7879309713617</v>
+        <v>1669.9819960220696</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" si="14"/>
-        <v>1799.6058102810753</v>
+        <v>1686.6818159822903</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" si="14"/>
-        <v>1817.6018683838861</v>
+        <v>1703.5486341421133</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" si="14"/>
-        <v>1835.777887067725</v>
+        <v>1720.5841204835344</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" si="14"/>
-        <v>1854.1356659384023</v>
+        <v>1737.7899616883699</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" si="14"/>
-        <v>1872.6770225977864</v>
+        <v>1755.1678613052536</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" si="14"/>
-        <v>1891.4037928237642</v>
+        <v>1772.7195399183061</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="14"/>
-        <v>1910.3178307520018</v>
+        <v>1790.4467353174891</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" si="14"/>
-        <v>1929.4210090595218</v>
+        <v>1808.351202670664</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="14"/>
-        <v>1948.715219150117</v>
+        <v>1826.4347146973705</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="14"/>
-        <v>1968.2023713416181</v>
+        <v>1844.6990618443442</v>
       </c>
       <c r="AJ14" s="3">
         <f t="shared" si="14"/>
-        <v>1987.8843950550342</v>
+        <v>1863.1460524627876</v>
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="14"/>
-        <v>2007.7632390055846</v>
+        <v>1881.7775129874155</v>
       </c>
       <c r="AL14" s="3">
         <f t="shared" si="14"/>
-        <v>2027.8408713956405</v>
+        <v>1900.5952881172898</v>
       </c>
       <c r="AM14" s="3">
         <f t="shared" si="14"/>
-        <v>2048.1192801095967</v>
+        <v>1919.6012409984628</v>
       </c>
       <c r="AN14" s="3">
         <f t="shared" si="14"/>
-        <v>2068.6004729106926</v>
+        <v>1938.7972534084474</v>
       </c>
       <c r="AO14" s="3">
         <f t="shared" si="14"/>
-        <v>2089.2864776397996</v>
+        <v>1958.1852259425318</v>
       </c>
       <c r="AP14" s="3">
         <f t="shared" si="14"/>
-        <v>2110.1793424161974</v>
+        <v>1977.7670782019572</v>
       </c>
       <c r="AQ14" s="3">
         <f t="shared" si="14"/>
-        <v>2131.2811358403592</v>
+        <v>1997.5447489839769</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="14"/>
-        <v>2152.5939471987626</v>
+        <v>2017.5201964738167</v>
       </c>
       <c r="AS14" s="3">
         <f t="shared" si="14"/>
-        <v>2174.1198866707505</v>
+        <v>2037.6953984385548</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="14"/>
-        <v>2195.8610855374582</v>
+        <v>2058.0723524229402</v>
       </c>
       <c r="AU14" s="3">
         <f t="shared" si="14"/>
-        <v>2217.8196963928326</v>
+        <v>2078.6530759471698</v>
       </c>
       <c r="AV14" s="3">
         <f t="shared" ref="AV14:CA14" si="15">AU14*(1+$R$33)</f>
-        <v>2239.9978933567609</v>
+        <v>2099.4396067066414</v>
       </c>
       <c r="AW14" s="3">
         <f t="shared" si="15"/>
-        <v>2262.3978722903285</v>
+        <v>2120.434002773708</v>
       </c>
       <c r="AX14" s="3">
         <f t="shared" si="15"/>
-        <v>2285.0218510132318</v>
+        <v>2141.6383428014451</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" si="15"/>
-        <v>2307.8720695233642</v>
+        <v>2163.0547262294594</v>
       </c>
       <c r="AZ14" s="3">
         <f t="shared" si="15"/>
-        <v>2330.9507902185978</v>
+        <v>2184.6852734917543</v>
       </c>
       <c r="BA14" s="3">
         <f t="shared" si="15"/>
-        <v>2354.2602981207838</v>
+        <v>2206.5321262266721</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" si="15"/>
-        <v>2377.8029011019917</v>
+        <v>2228.597447488939</v>
       </c>
       <c r="BC14" s="3">
         <f t="shared" si="15"/>
-        <v>2401.5809301130116</v>
+        <v>2250.8834219638284</v>
       </c>
       <c r="BD14" s="3">
         <f t="shared" si="15"/>
-        <v>2425.5967394141417</v>
+        <v>2273.3922561834665</v>
       </c>
       <c r="BE14" s="3">
         <f t="shared" si="15"/>
-        <v>2449.8527068082831</v>
+        <v>2296.1261787453013</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" si="15"/>
-        <v>2474.3512338763658</v>
+        <v>2319.0874405327545</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" si="15"/>
-        <v>2499.0947462151294</v>
+        <v>2342.2783149380821</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" si="15"/>
-        <v>2524.0856936772807</v>
+        <v>2365.7010980874629</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="15"/>
-        <v>2549.3265506140533</v>
+        <v>2389.3581090683374</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" si="15"/>
-        <v>2574.819816120194</v>
+        <v>2413.2516901590207</v>
       </c>
       <c r="BK14" s="3">
         <f t="shared" si="15"/>
-        <v>2600.5680142813958</v>
+        <v>2437.3842070606111</v>
       </c>
       <c r="BL14" s="3">
         <f t="shared" si="15"/>
-        <v>2626.5736944242099</v>
+        <v>2461.7580491312174</v>
       </c>
       <c r="BM14" s="3">
         <f t="shared" si="15"/>
-        <v>2652.8394313684521</v>
+        <v>2486.3756296225297</v>
       </c>
       <c r="BN14" s="3">
         <f t="shared" si="15"/>
-        <v>2679.3678256821368</v>
+        <v>2511.239385918755</v>
       </c>
       <c r="BO14" s="3">
         <f t="shared" si="15"/>
-        <v>2706.161503938958</v>
+        <v>2536.3517797779427</v>
       </c>
       <c r="BP14" s="3">
         <f t="shared" si="15"/>
-        <v>2733.2231189783474</v>
+        <v>2561.7152975757222</v>
       </c>
       <c r="BQ14" s="3">
         <f t="shared" si="15"/>
-        <v>2760.5553501681311</v>
+        <v>2587.3324505514793</v>
       </c>
       <c r="BR14" s="3">
         <f t="shared" si="15"/>
-        <v>2788.1609036698123</v>
+        <v>2613.2057750569943</v>
       </c>
       <c r="BS14" s="3">
         <f t="shared" si="15"/>
-        <v>2816.0425127065105</v>
+        <v>2639.3378328075642</v>
       </c>
       <c r="BT14" s="3">
         <f t="shared" si="15"/>
-        <v>2844.2029378335756</v>
+        <v>2665.73121113564</v>
       </c>
       <c r="BU14" s="3">
         <f t="shared" si="15"/>
-        <v>2872.6449672119115</v>
+        <v>2692.3885232469966</v>
       </c>
       <c r="BV14" s="3">
         <f t="shared" si="15"/>
-        <v>2901.3714168840306</v>
+        <v>2719.3124084794667</v>
       </c>
       <c r="BW14" s="3">
         <f t="shared" si="15"/>
-        <v>2930.3851310528707</v>
+        <v>2746.5055325642616</v>
       </c>
       <c r="BX14" s="3">
         <f t="shared" si="15"/>
-        <v>2959.6889823633996</v>
+        <v>2773.970587889904</v>
       </c>
       <c r="BY14" s="3">
         <f t="shared" si="15"/>
-        <v>2989.2858721870339</v>
+        <v>2801.7102937688032</v>
       </c>
       <c r="BZ14" s="3">
         <f t="shared" si="15"/>
-        <v>3019.1787309089041</v>
+        <v>2829.7273967064912</v>
       </c>
       <c r="CA14" s="3">
         <f t="shared" si="15"/>
-        <v>3049.3705182179933</v>
+        <v>2858.0246706735561</v>
       </c>
       <c r="CB14" s="3">
         <f t="shared" ref="CB14:DG14" si="16">CA14*(1+$R$33)</f>
-        <v>3079.8642234001732</v>
+        <v>2886.6049173802917</v>
       </c>
       <c r="CC14" s="3">
         <f t="shared" si="16"/>
-        <v>3110.662865634175</v>
+        <v>2915.4709665540945</v>
       </c>
       <c r="CD14" s="3">
         <f t="shared" si="16"/>
-        <v>3141.7694942905168</v>
+        <v>2944.6256762196354</v>
       </c>
       <c r="CE14" s="3">
         <f t="shared" si="16"/>
-        <v>3173.187189233422</v>
+        <v>2974.0719329818317</v>
       </c>
       <c r="CF14" s="3">
         <f t="shared" si="16"/>
-        <v>3204.9190611257563</v>
+        <v>3003.8126523116498</v>
       </c>
       <c r="CG14" s="3">
         <f t="shared" si="16"/>
-        <v>3236.9682517370138</v>
+        <v>3033.8507788347665</v>
       </c>
       <c r="CH14" s="3">
         <f t="shared" si="16"/>
-        <v>3269.337934254384</v>
+        <v>3064.1892866231142</v>
       </c>
       <c r="CI14" s="3">
         <f t="shared" si="16"/>
-        <v>3302.0313135969277</v>
+        <v>3094.8311794893452</v>
       </c>
       <c r="CJ14" s="3">
         <f t="shared" si="16"/>
-        <v>3335.0516267328971</v>
+        <v>3125.7794912842387</v>
       </c>
       <c r="CK14" s="3">
         <f t="shared" si="16"/>
-        <v>3368.4021430002263</v>
+        <v>3157.0372861970809</v>
       </c>
       <c r="CL14" s="3">
         <f t="shared" si="16"/>
-        <v>3402.0861644302286</v>
+        <v>3188.6076590590519</v>
       </c>
       <c r="CM14" s="3">
         <f t="shared" si="16"/>
-        <v>3436.1070260745309</v>
+        <v>3220.4937356496425</v>
       </c>
       <c r="CN14" s="3">
         <f t="shared" si="16"/>
-        <v>3470.4680963352762</v>
+        <v>3252.698673006139</v>
       </c>
       <c r="CO14" s="3">
         <f t="shared" si="16"/>
-        <v>3505.1727772986292</v>
+        <v>3285.2256597362002</v>
       </c>
       <c r="CP14" s="3">
         <f t="shared" si="16"/>
-        <v>3540.2245050716156</v>
+        <v>3318.0779163335624</v>
       </c>
       <c r="CQ14" s="3">
         <f t="shared" si="16"/>
-        <v>3575.6267501223319</v>
+        <v>3351.2586954968979</v>
       </c>
       <c r="CR14" s="3">
         <f t="shared" si="16"/>
-        <v>3611.3830176235551</v>
+        <v>3384.7712824518667</v>
       </c>
       <c r="CS14" s="3">
         <f t="shared" si="16"/>
-        <v>3647.4968477997909</v>
+        <v>3418.6189952763852</v>
       </c>
       <c r="CT14" s="3">
         <f t="shared" si="16"/>
-        <v>3683.971816277789</v>
+        <v>3452.8051852291492</v>
       </c>
       <c r="CU14" s="3">
         <f t="shared" si="16"/>
-        <v>3720.8115344405669</v>
+        <v>3487.3332370814405</v>
       </c>
       <c r="CV14" s="3">
         <f t="shared" si="16"/>
-        <v>3758.0196497849724</v>
+        <v>3522.2065694522548</v>
       </c>
       <c r="CW14" s="3">
         <f t="shared" si="16"/>
-        <v>3795.599846282822</v>
+        <v>3557.4286351467772</v>
       </c>
       <c r="CX14" s="3">
         <f t="shared" si="16"/>
-        <v>3833.5558447456501</v>
+        <v>3593.0029214982451</v>
       </c>
       <c r="CY14" s="3">
         <f t="shared" si="16"/>
-        <v>3871.8914031931067</v>
+        <v>3628.9329507132275</v>
       </c>
       <c r="CZ14" s="3">
         <f t="shared" si="16"/>
-        <v>3910.6103172250378</v>
+        <v>3665.2222802203596</v>
       </c>
       <c r="DA14" s="3">
         <f t="shared" si="16"/>
-        <v>3949.7164203972879</v>
+        <v>3701.8745030225632</v>
       </c>
       <c r="DB14" s="3">
         <f t="shared" si="16"/>
-        <v>3989.2135846012607</v>
+        <v>3738.8932480527887</v>
       </c>
       <c r="DC14" s="3">
         <f t="shared" si="16"/>
-        <v>4029.1057204472731</v>
+        <v>3776.2821805333165</v>
       </c>
       <c r="DD14" s="3">
         <f t="shared" si="16"/>
-        <v>4069.3967776517461</v>
+        <v>3814.0450023386497</v>
       </c>
       <c r="DE14" s="3">
         <f t="shared" si="16"/>
-        <v>4110.0907454282633</v>
+        <v>3852.1854523620364</v>
       </c>
       <c r="DF14" s="3">
         <f t="shared" si="16"/>
-        <v>4151.1916528825459</v>
+        <v>3890.7073068856566</v>
       </c>
       <c r="DG14" s="3">
         <f t="shared" si="16"/>
-        <v>4192.7035694113711</v>
+        <v>3929.6143799545134</v>
       </c>
       <c r="DH14" s="3">
         <f t="shared" ref="DH14:DQ14" si="17">DG14*(1+$R$33)</f>
-        <v>4234.6306051054844</v>
+        <v>3968.9105237540584</v>
       </c>
       <c r="DI14" s="3">
         <f t="shared" si="17"/>
-        <v>4276.9769111565392</v>
+        <v>4008.5996289915993</v>
       </c>
       <c r="DJ14" s="3">
         <f t="shared" si="17"/>
-        <v>4319.7466802681047</v>
+        <v>4048.6856252815155</v>
       </c>
       <c r="DK14" s="3">
         <f t="shared" si="17"/>
-        <v>4362.9441470707861</v>
+        <v>4089.1724815343309</v>
       </c>
       <c r="DL14" s="3">
         <f t="shared" si="17"/>
-        <v>4406.5735885414942</v>
+        <v>4130.0642063496744</v>
       </c>
       <c r="DM14" s="3">
         <f t="shared" si="17"/>
-        <v>4450.6393244269093</v>
+        <v>4171.3648484131709</v>
       </c>
       <c r="DN14" s="3">
         <f t="shared" si="17"/>
-        <v>4495.1457176711783</v>
+        <v>4213.078496897303</v>
       </c>
       <c r="DO14" s="3">
         <f t="shared" si="17"/>
-        <v>4540.0971748478905</v>
+        <v>4255.2092818662759</v>
       </c>
       <c r="DP14" s="3">
         <f t="shared" si="17"/>
-        <v>4585.4981465963692</v>
+        <v>4297.7613746849383</v>
       </c>
       <c r="DQ14" s="3">
         <f t="shared" si="17"/>
-        <v>4631.3531280623329</v>
+        <v>4340.7389884317881</v>
       </c>
     </row>
     <row r="15" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1838,23 +1842,23 @@
       </c>
       <c r="K16" s="7">
         <f t="shared" ref="K16:O16" si="18">K14/K15</f>
-        <v>0.653068737062102</v>
+        <v>0.59304962878184719</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="18"/>
-        <v>0.97809722065515559</v>
+        <v>0.90555377972621443</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="18"/>
-        <v>1.3673018455065959</v>
+        <v>1.2765628221169436</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="18"/>
-        <v>1.8303613624038662</v>
+        <v>1.7145321047591826</v>
       </c>
       <c r="O16" s="7">
         <f t="shared" si="18"/>
-        <v>2.3782575046263497</v>
+        <v>2.229023524963035</v>
       </c>
     </row>
     <row r="17" spans="1:147" x14ac:dyDescent="0.2">
@@ -2882,36 +2886,36 @@
       </c>
       <c r="K32" s="1">
         <f>J32+K14</f>
-        <v>2955.7373402250005</v>
+        <v>2915.0299802250001</v>
       </c>
       <c r="L32" s="1">
         <f>K32+L14</f>
-        <v>3619.1219991621533</v>
+        <v>3529.2127757865078</v>
       </c>
       <c r="M32" s="1">
         <f>L32+M14</f>
-        <v>4546.4808028585467</v>
+        <v>4395.0287442591034</v>
       </c>
       <c r="N32" s="1">
         <f>M32+N14</f>
-        <v>5787.9050932953451</v>
+        <v>5557.8929989909711</v>
       </c>
       <c r="O32" s="1">
         <f>N32+O14</f>
-        <v>7400.9344632331204</v>
+        <v>7069.7059145619005</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="4">
-        <v>0.06</v>
+      <c r="R32" s="10">
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -2927,7 +2931,7 @@
         <v>18</v>
       </c>
       <c r="R34" s="6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2936,7 +2940,7 @@
       </c>
       <c r="R35" s="1">
         <f>NPV(R34,K29:EQ29)+Sheet1!E5-Sheet1!E6</f>
-        <v>26450.902010726961</v>
+        <v>24849.762774279887</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2949,9 +2953,9 @@
       <c r="Q36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="7">
         <f>R35/Sheet1!E3</f>
-        <v>38.999324738627863</v>
+        <v>36.638598098431068</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2960,7 +2964,7 @@
       </c>
       <c r="R37" s="4">
         <f>R36/Sheet1!E2-1</f>
-        <v>0.2187288980821207</v>
+        <v>0.14495619057597087</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">

--- a/PINS.xlsx
+++ b/PINS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084C2168-BBA6-4510-8F36-4F70A60674F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEFEB3-58F9-41BC-8F16-E040B6878750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{48687CDE-C838-4D92-92A6-E2D215D3B2F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
-  <si>
-    <t>PINS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Price</t>
   </si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Tax</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
   </si>
   <si>
     <t>MAU</t>
@@ -187,14 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -225,13 +219,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +255,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -311,7 +305,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -671,103 +665,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3DAB11-F388-4BB8-9EB8-C99DB9269CC8}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D2" s="9" t="s">
+      <c r="O2" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="O3" s="1">
+        <v>678.24</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>678.24</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="9" t="s">
+      <c r="O4" s="1">
+        <f>O3*O2</f>
+        <v>21703.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <f>E3*E2</f>
-        <v>21703.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="O5" s="1">
         <f>1136.4+1376.4</f>
         <v>2512.8000000000002</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="9" t="s">
+      <c r="P5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E4+E6-E5</f>
+      <c r="O7" s="1">
+        <f>O4+O6-O5</f>
         <v>19190.88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9">
-        <f>E2/Sheet2!K31</f>
-        <v>20.070363826945119</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="10">
+        <f>O2/model!K29</f>
+        <v>15.685737144393444</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,16 +768,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6302D-E6E4-44F9-948E-28184C84453C}">
-  <dimension ref="A1:EQ38"/>
+  <dimension ref="A1:EQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q34" sqref="Q34"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="16" width="9.140625" style="1"/>
@@ -795,19 +787,19 @@
   <sheetData>
     <row r="1" spans="1:121" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="2">
         <f>I1-1</f>
@@ -841,9 +833,9 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:121" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -887,7 +879,7 @@
     </row>
     <row r="3" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>196.9</v>
@@ -896,6 +888,8 @@
         <f>E3*F20</f>
         <v>163.42699999999999</v>
       </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1">
         <v>688.76</v>
       </c>
@@ -925,7 +919,7 @@
     </row>
     <row r="4" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <f>B2-B3</f>
@@ -982,7 +976,7 @@
     </row>
     <row r="5" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>320.7</v>
@@ -1016,7 +1010,7 @@
     </row>
     <row r="6" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>271.10000000000002</v>
@@ -1050,7 +1044,7 @@
     </row>
     <row r="7" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>103.7</v>
@@ -1084,7 +1078,7 @@
     </row>
     <row r="8" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B5:B7)</f>
@@ -1141,7 +1135,7 @@
     </row>
     <row r="9" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
         <f>H4-H8</f>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="10" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>28.6</v>
@@ -1190,29 +1184,29 @@
         <v>127</v>
       </c>
       <c r="K10" s="1">
-        <f>J32*$R$32</f>
-        <v>100.51200000000001</v>
+        <f>J30*$R$30</f>
+        <v>50.256000000000007</v>
       </c>
       <c r="L10" s="1">
-        <f>K32*$R$32</f>
-        <v>116.60119920900001</v>
+        <f>K30*$R$30</f>
+        <v>58.200571160500004</v>
       </c>
       <c r="M10" s="1">
-        <f>L32*$R$32</f>
-        <v>141.16851103146033</v>
+        <f>L30*$R$30</f>
+        <v>70.657896476292066</v>
       </c>
       <c r="N10" s="1">
-        <f>M32*$R$32</f>
-        <v>175.80114977036413</v>
+        <f>M30*$R$30</f>
+        <v>88.429380671546127</v>
       </c>
       <c r="O10" s="1">
-        <f>N32*$R$32</f>
-        <v>222.31571995963884</v>
+        <f>N30*$R$30</f>
+        <v>112.42846408804057</v>
       </c>
     </row>
     <row r="11" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>-13.3</v>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="12" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <f>B4-B8+B11+B10</f>
@@ -1277,28 +1271,28 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="12"/>
-        <v>496.58022250000005</v>
+        <v>446.32422250000008</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="12"/>
-        <v>758.25036489075023</v>
+        <v>699.84973684225019</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="12"/>
-        <v>1068.9086030525875</v>
+        <v>998.39798849741919</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="12"/>
-        <v>1435.6348823850221</v>
+        <v>1348.2631132862041</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="12"/>
-        <v>1866.4356982357149</v>
+        <v>1756.5484423641165</v>
       </c>
     </row>
     <row r="13" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>-1570.6</v>
@@ -1310,29 +1304,29 @@
         <v>-1574.501</v>
       </c>
       <c r="K13" s="1">
-        <f>K12*K25</f>
-        <v>94.350242275000014</v>
+        <f>K12*0.11</f>
+        <v>49.095664475000007</v>
       </c>
       <c r="L13" s="1">
-        <f>L12*L25</f>
-        <v>144.06756932924256</v>
+        <f t="shared" ref="L13:O13" si="13">L12*0.11</f>
+        <v>76.983471052647516</v>
       </c>
       <c r="M13" s="1">
-        <f>M12*M25</f>
-        <v>203.09263457999162</v>
+        <f t="shared" si="13"/>
+        <v>109.82377873471611</v>
       </c>
       <c r="N13" s="1">
-        <f>N12*N25</f>
-        <v>272.77062765315424</v>
+        <f t="shared" si="13"/>
+        <v>148.30894246148245</v>
       </c>
       <c r="O13" s="1">
-        <f>O12*O25</f>
-        <v>354.62278266478586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>193.22032866005281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
         <f>B12-B13</f>
@@ -1361,457 +1355,457 @@
         <v>-35</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:O14" si="13">J12-J13</f>
+        <f t="shared" ref="J14:O14" si="14">J12-J13</f>
         <v>1861.9369999999999</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="13"/>
-        <v>402.22998022500002</v>
+        <f t="shared" si="14"/>
+        <v>397.2285580250001</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="13"/>
-        <v>614.18279556150765</v>
+        <f t="shared" si="14"/>
+        <v>622.86626578960272</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="13"/>
-        <v>865.81596847259584</v>
+        <f t="shared" si="14"/>
+        <v>888.57420976270305</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="13"/>
-        <v>1162.864254731868</v>
+        <f t="shared" si="14"/>
+        <v>1199.9541708247216</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="13"/>
-        <v>1511.8129155709289</v>
+        <f t="shared" si="14"/>
+        <v>1563.3281137040635</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14:AU14" si="14">O14*(1+$R$33)</f>
-        <v>1526.9310447266382</v>
+        <f>O14*(1+$R$31)</f>
+        <v>1578.9613948411043</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="14"/>
-        <v>1542.2003551739047</v>
+        <f>P14*(1+$R$31)</f>
+        <v>1594.7510087895153</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="14"/>
-        <v>1557.6223587256436</v>
+        <f>Q14*(1+$R$31)</f>
+        <v>1610.6985188774104</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="14"/>
-        <v>1573.1985823129</v>
+        <f>R14*(1+$R$31)</f>
+        <v>1626.8055040661845</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="14"/>
-        <v>1588.930568136029</v>
+        <f>S14*(1+$R$31)</f>
+        <v>1643.0735591068465</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="14"/>
-        <v>1604.8198738173894</v>
+        <f>T14*(1+$R$31)</f>
+        <v>1659.5042946979149</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="14"/>
-        <v>1620.8680725555632</v>
+        <f>U14*(1+$R$31)</f>
+        <v>1676.0993376448941</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="14"/>
-        <v>1637.076753281119</v>
+        <f>V14*(1+$R$31)</f>
+        <v>1692.8603310213432</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="14"/>
-        <v>1653.4475208139302</v>
+        <f>W14*(1+$R$31)</f>
+        <v>1709.7889343315567</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="14"/>
-        <v>1669.9819960220696</v>
+        <f>X14*(1+$R$31)</f>
+        <v>1726.8868236748722</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="14"/>
-        <v>1686.6818159822903</v>
+        <f>Y14*(1+$R$31)</f>
+        <v>1744.1556919116208</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="14"/>
-        <v>1703.5486341421133</v>
+        <f>Z14*(1+$R$31)</f>
+        <v>1761.597248830737</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="14"/>
-        <v>1720.5841204835344</v>
+        <f>AA14*(1+$R$31)</f>
+        <v>1779.2132213190444</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="14"/>
-        <v>1737.7899616883699</v>
+        <f>AB14*(1+$R$31)</f>
+        <v>1797.0053535322347</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="14"/>
-        <v>1755.1678613052536</v>
+        <f>AC14*(1+$R$31)</f>
+        <v>1814.9754070675572</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="14"/>
-        <v>1772.7195399183061</v>
+        <f>AD14*(1+$R$31)</f>
+        <v>1833.1251611382327</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="14"/>
-        <v>1790.4467353174891</v>
+        <f>AE14*(1+$R$31)</f>
+        <v>1851.4564127496151</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="14"/>
-        <v>1808.351202670664</v>
+        <f>AF14*(1+$R$31)</f>
+        <v>1869.9709768771113</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="14"/>
-        <v>1826.4347146973705</v>
+        <f>AG14*(1+$R$31)</f>
+        <v>1888.6706866458824</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="14"/>
-        <v>1844.6990618443442</v>
+        <f>AH14*(1+$R$31)</f>
+        <v>1907.5573935123412</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="14"/>
-        <v>1863.1460524627876</v>
+        <f>AI14*(1+$R$31)</f>
+        <v>1926.6329674474646</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="14"/>
-        <v>1881.7775129874155</v>
+        <f>AJ14*(1+$R$31)</f>
+        <v>1945.8992971219393</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="14"/>
-        <v>1900.5952881172898</v>
+        <f>AK14*(1+$R$31)</f>
+        <v>1965.3582900931588</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="14"/>
-        <v>1919.6012409984628</v>
+        <f>AL14*(1+$R$31)</f>
+        <v>1985.0118729940903</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="14"/>
-        <v>1938.7972534084474</v>
+        <f>AM14*(1+$R$31)</f>
+        <v>2004.8619917240312</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="14"/>
-        <v>1958.1852259425318</v>
+        <f>AN14*(1+$R$31)</f>
+        <v>2024.9106116412715</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="14"/>
-        <v>1977.7670782019572</v>
+        <f>AO14*(1+$R$31)</f>
+        <v>2045.1597177576843</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="14"/>
-        <v>1997.5447489839769</v>
+        <f>AP14*(1+$R$31)</f>
+        <v>2065.6113149352614</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="14"/>
-        <v>2017.5201964738167</v>
+        <f>AQ14*(1+$R$31)</f>
+        <v>2086.267428084614</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="14"/>
-        <v>2037.6953984385548</v>
+        <f>AR14*(1+$R$31)</f>
+        <v>2107.1301023654601</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="14"/>
-        <v>2058.0723524229402</v>
+        <f>AS14*(1+$R$31)</f>
+        <v>2128.2014033891146</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="14"/>
-        <v>2078.6530759471698</v>
+        <f>AT14*(1+$R$31)</f>
+        <v>2149.4834174230059</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" ref="AV14:CA14" si="15">AU14*(1+$R$33)</f>
-        <v>2099.4396067066414</v>
+        <f>AU14*(1+$R$31)</f>
+        <v>2170.9782515972361</v>
       </c>
       <c r="AW14" s="3">
-        <f t="shared" si="15"/>
-        <v>2120.434002773708</v>
+        <f>AV14*(1+$R$31)</f>
+        <v>2192.6880341132082</v>
       </c>
       <c r="AX14" s="3">
-        <f t="shared" si="15"/>
-        <v>2141.6383428014451</v>
+        <f>AW14*(1+$R$31)</f>
+        <v>2214.6149144543401</v>
       </c>
       <c r="AY14" s="3">
-        <f t="shared" si="15"/>
-        <v>2163.0547262294594</v>
+        <f>AX14*(1+$R$31)</f>
+        <v>2236.7610635988835</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="15"/>
-        <v>2184.6852734917543</v>
+        <f>AY14*(1+$R$31)</f>
+        <v>2259.1286742348725</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="15"/>
-        <v>2206.5321262266721</v>
+        <f>AZ14*(1+$R$31)</f>
+        <v>2281.719960977221</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="15"/>
-        <v>2228.597447488939</v>
+        <f>BA14*(1+$R$31)</f>
+        <v>2304.5371605869932</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" si="15"/>
-        <v>2250.8834219638284</v>
+        <f>BB14*(1+$R$31)</f>
+        <v>2327.5825321928633</v>
       </c>
       <c r="BD14" s="3">
-        <f t="shared" si="15"/>
-        <v>2273.3922561834665</v>
+        <f>BC14*(1+$R$31)</f>
+        <v>2350.8583575147918</v>
       </c>
       <c r="BE14" s="3">
-        <f t="shared" si="15"/>
-        <v>2296.1261787453013</v>
+        <f>BD14*(1+$R$31)</f>
+        <v>2374.3669410899397</v>
       </c>
       <c r="BF14" s="3">
-        <f t="shared" si="15"/>
-        <v>2319.0874405327545</v>
+        <f>BE14*(1+$R$31)</f>
+        <v>2398.1106105008389</v>
       </c>
       <c r="BG14" s="3">
-        <f t="shared" si="15"/>
-        <v>2342.2783149380821</v>
+        <f>BF14*(1+$R$31)</f>
+        <v>2422.0917166058475</v>
       </c>
       <c r="BH14" s="3">
-        <f t="shared" si="15"/>
-        <v>2365.7010980874629</v>
+        <f>BG14*(1+$R$31)</f>
+        <v>2446.3126337719059</v>
       </c>
       <c r="BI14" s="3">
-        <f t="shared" si="15"/>
-        <v>2389.3581090683374</v>
+        <f>BH14*(1+$R$31)</f>
+        <v>2470.775760109625</v>
       </c>
       <c r="BJ14" s="3">
-        <f t="shared" si="15"/>
-        <v>2413.2516901590207</v>
+        <f>BI14*(1+$R$31)</f>
+        <v>2495.4835177107211</v>
       </c>
       <c r="BK14" s="3">
-        <f t="shared" si="15"/>
-        <v>2437.3842070606111</v>
+        <f>BJ14*(1+$R$31)</f>
+        <v>2520.4383528878284</v>
       </c>
       <c r="BL14" s="3">
-        <f t="shared" si="15"/>
-        <v>2461.7580491312174</v>
+        <f>BK14*(1+$R$31)</f>
+        <v>2545.6427364167066</v>
       </c>
       <c r="BM14" s="3">
-        <f t="shared" si="15"/>
-        <v>2486.3756296225297</v>
+        <f>BL14*(1+$R$31)</f>
+        <v>2571.0991637808738</v>
       </c>
       <c r="BN14" s="3">
-        <f t="shared" si="15"/>
-        <v>2511.239385918755</v>
+        <f>BM14*(1+$R$31)</f>
+        <v>2596.8101554186824</v>
       </c>
       <c r="BO14" s="3">
-        <f t="shared" si="15"/>
-        <v>2536.3517797779427</v>
+        <f>BN14*(1+$R$31)</f>
+        <v>2622.7782569728693</v>
       </c>
       <c r="BP14" s="3">
-        <f t="shared" si="15"/>
-        <v>2561.7152975757222</v>
+        <f>BO14*(1+$R$31)</f>
+        <v>2649.006039542598</v>
       </c>
       <c r="BQ14" s="3">
-        <f t="shared" si="15"/>
-        <v>2587.3324505514793</v>
+        <f>BP14*(1+$R$31)</f>
+        <v>2675.4960999380241</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="15"/>
-        <v>2613.2057750569943</v>
+        <f>BQ14*(1+$R$31)</f>
+        <v>2702.2510609374044</v>
       </c>
       <c r="BS14" s="3">
-        <f t="shared" si="15"/>
-        <v>2639.3378328075642</v>
+        <f>BR14*(1+$R$31)</f>
+        <v>2729.2735715467784</v>
       </c>
       <c r="BT14" s="3">
-        <f t="shared" si="15"/>
-        <v>2665.73121113564</v>
+        <f>BS14*(1+$R$31)</f>
+        <v>2756.566307262246</v>
       </c>
       <c r="BU14" s="3">
-        <f t="shared" si="15"/>
-        <v>2692.3885232469966</v>
+        <f>BT14*(1+$R$31)</f>
+        <v>2784.1319703348686</v>
       </c>
       <c r="BV14" s="3">
-        <f t="shared" si="15"/>
-        <v>2719.3124084794667</v>
+        <f>BU14*(1+$R$31)</f>
+        <v>2811.9732900382173</v>
       </c>
       <c r="BW14" s="3">
-        <f t="shared" si="15"/>
-        <v>2746.5055325642616</v>
+        <f>BV14*(1+$R$31)</f>
+        <v>2840.0930229385995</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="15"/>
-        <v>2773.970587889904</v>
+        <f>BW14*(1+$R$31)</f>
+        <v>2868.4939531679856</v>
       </c>
       <c r="BY14" s="3">
-        <f t="shared" si="15"/>
-        <v>2801.7102937688032</v>
+        <f>BX14*(1+$R$31)</f>
+        <v>2897.1788926996655</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="15"/>
-        <v>2829.7273967064912</v>
+        <f>BY14*(1+$R$31)</f>
+        <v>2926.1506816266624</v>
       </c>
       <c r="CA14" s="3">
-        <f t="shared" si="15"/>
-        <v>2858.0246706735561</v>
+        <f>BZ14*(1+$R$31)</f>
+        <v>2955.4121884429292</v>
       </c>
       <c r="CB14" s="3">
-        <f t="shared" ref="CB14:DG14" si="16">CA14*(1+$R$33)</f>
-        <v>2886.6049173802917</v>
+        <f>CA14*(1+$R$31)</f>
+        <v>2984.9663103273583</v>
       </c>
       <c r="CC14" s="3">
-        <f t="shared" si="16"/>
-        <v>2915.4709665540945</v>
+        <f>CB14*(1+$R$31)</f>
+        <v>3014.8159734306319</v>
       </c>
       <c r="CD14" s="3">
-        <f t="shared" si="16"/>
-        <v>2944.6256762196354</v>
+        <f>CC14*(1+$R$31)</f>
+        <v>3044.9641331649382</v>
       </c>
       <c r="CE14" s="3">
-        <f t="shared" si="16"/>
-        <v>2974.0719329818317</v>
+        <f>CD14*(1+$R$31)</f>
+        <v>3075.4137744965874</v>
       </c>
       <c r="CF14" s="3">
-        <f t="shared" si="16"/>
-        <v>3003.8126523116498</v>
+        <f>CE14*(1+$R$31)</f>
+        <v>3106.1679122415535</v>
       </c>
       <c r="CG14" s="3">
-        <f t="shared" si="16"/>
-        <v>3033.8507788347665</v>
+        <f>CF14*(1+$R$31)</f>
+        <v>3137.2295913639691</v>
       </c>
       <c r="CH14" s="3">
-        <f t="shared" si="16"/>
-        <v>3064.1892866231142</v>
+        <f>CG14*(1+$R$31)</f>
+        <v>3168.601887277609</v>
       </c>
       <c r="CI14" s="3">
-        <f t="shared" si="16"/>
-        <v>3094.8311794893452</v>
+        <f>CH14*(1+$R$31)</f>
+        <v>3200.287906150385</v>
       </c>
       <c r="CJ14" s="3">
-        <f t="shared" si="16"/>
-        <v>3125.7794912842387</v>
+        <f>CI14*(1+$R$31)</f>
+        <v>3232.2907852118888</v>
       </c>
       <c r="CK14" s="3">
-        <f t="shared" si="16"/>
-        <v>3157.0372861970809</v>
+        <f>CJ14*(1+$R$31)</f>
+        <v>3264.6136930640077</v>
       </c>
       <c r="CL14" s="3">
-        <f t="shared" si="16"/>
-        <v>3188.6076590590519</v>
+        <f>CK14*(1+$R$31)</f>
+        <v>3297.259829994648</v>
       </c>
       <c r="CM14" s="3">
-        <f t="shared" si="16"/>
-        <v>3220.4937356496425</v>
+        <f>CL14*(1+$R$31)</f>
+        <v>3330.2324282945947</v>
       </c>
       <c r="CN14" s="3">
-        <f t="shared" si="16"/>
-        <v>3252.698673006139</v>
+        <f>CM14*(1+$R$31)</f>
+        <v>3363.5347525775405</v>
       </c>
       <c r="CO14" s="3">
-        <f t="shared" si="16"/>
-        <v>3285.2256597362002</v>
+        <f>CN14*(1+$R$31)</f>
+        <v>3397.1701001033161</v>
       </c>
       <c r="CP14" s="3">
-        <f t="shared" si="16"/>
-        <v>3318.0779163335624</v>
+        <f>CO14*(1+$R$31)</f>
+        <v>3431.1418011043493</v>
       </c>
       <c r="CQ14" s="3">
-        <f t="shared" si="16"/>
-        <v>3351.2586954968979</v>
+        <f>CP14*(1+$R$31)</f>
+        <v>3465.4532191153926</v>
       </c>
       <c r="CR14" s="3">
-        <f t="shared" si="16"/>
-        <v>3384.7712824518667</v>
+        <f>CQ14*(1+$R$31)</f>
+        <v>3500.1077513065466</v>
       </c>
       <c r="CS14" s="3">
-        <f t="shared" si="16"/>
-        <v>3418.6189952763852</v>
+        <f>CR14*(1+$R$31)</f>
+        <v>3535.108828819612</v>
       </c>
       <c r="CT14" s="3">
-        <f t="shared" si="16"/>
-        <v>3452.8051852291492</v>
+        <f>CS14*(1+$R$31)</f>
+        <v>3570.459917107808</v>
       </c>
       <c r="CU14" s="3">
-        <f t="shared" si="16"/>
-        <v>3487.3332370814405</v>
+        <f>CT14*(1+$R$31)</f>
+        <v>3606.1645162788859</v>
       </c>
       <c r="CV14" s="3">
-        <f t="shared" si="16"/>
-        <v>3522.2065694522548</v>
+        <f>CU14*(1+$R$31)</f>
+        <v>3642.2261614416748</v>
       </c>
       <c r="CW14" s="3">
-        <f t="shared" si="16"/>
-        <v>3557.4286351467772</v>
+        <f>CV14*(1+$R$31)</f>
+        <v>3678.6484230560914</v>
       </c>
       <c r="CX14" s="3">
-        <f t="shared" si="16"/>
-        <v>3593.0029214982451</v>
+        <f>CW14*(1+$R$31)</f>
+        <v>3715.4349072866521</v>
       </c>
       <c r="CY14" s="3">
-        <f t="shared" si="16"/>
-        <v>3628.9329507132275</v>
+        <f>CX14*(1+$R$31)</f>
+        <v>3752.5892563595185</v>
       </c>
       <c r="CZ14" s="3">
-        <f t="shared" si="16"/>
-        <v>3665.2222802203596</v>
+        <f>CY14*(1+$R$31)</f>
+        <v>3790.1151489231138</v>
       </c>
       <c r="DA14" s="3">
-        <f t="shared" si="16"/>
-        <v>3701.8745030225632</v>
+        <f>CZ14*(1+$R$31)</f>
+        <v>3828.0163004123451</v>
       </c>
       <c r="DB14" s="3">
-        <f t="shared" si="16"/>
-        <v>3738.8932480527887</v>
+        <f>DA14*(1+$R$31)</f>
+        <v>3866.2964634164687</v>
       </c>
       <c r="DC14" s="3">
-        <f t="shared" si="16"/>
-        <v>3776.2821805333165</v>
+        <f>DB14*(1+$R$31)</f>
+        <v>3904.9594280506335</v>
       </c>
       <c r="DD14" s="3">
-        <f t="shared" si="16"/>
-        <v>3814.0450023386497</v>
+        <f>DC14*(1+$R$31)</f>
+        <v>3944.0090223311399</v>
       </c>
       <c r="DE14" s="3">
-        <f t="shared" si="16"/>
-        <v>3852.1854523620364</v>
+        <f>DD14*(1+$R$31)</f>
+        <v>3983.4491125544514</v>
       </c>
       <c r="DF14" s="3">
-        <f t="shared" si="16"/>
-        <v>3890.7073068856566</v>
+        <f>DE14*(1+$R$31)</f>
+        <v>4023.2836036799958</v>
       </c>
       <c r="DG14" s="3">
-        <f t="shared" si="16"/>
-        <v>3929.6143799545134</v>
+        <f>DF14*(1+$R$31)</f>
+        <v>4063.516439716796</v>
       </c>
       <c r="DH14" s="3">
-        <f t="shared" ref="DH14:DQ14" si="17">DG14*(1+$R$33)</f>
-        <v>3968.9105237540584</v>
+        <f>DG14*(1+$R$31)</f>
+        <v>4104.1516041139639</v>
       </c>
       <c r="DI14" s="3">
-        <f t="shared" si="17"/>
-        <v>4008.5996289915993</v>
+        <f>DH14*(1+$R$31)</f>
+        <v>4145.1931201551033</v>
       </c>
       <c r="DJ14" s="3">
-        <f t="shared" si="17"/>
-        <v>4048.6856252815155</v>
+        <f>DI14*(1+$R$31)</f>
+        <v>4186.6450513566542</v>
       </c>
       <c r="DK14" s="3">
-        <f t="shared" si="17"/>
-        <v>4089.1724815343309</v>
+        <f>DJ14*(1+$R$31)</f>
+        <v>4228.5115018702209</v>
       </c>
       <c r="DL14" s="3">
-        <f t="shared" si="17"/>
-        <v>4130.0642063496744</v>
+        <f>DK14*(1+$R$31)</f>
+        <v>4270.7966168889234</v>
       </c>
       <c r="DM14" s="3">
-        <f t="shared" si="17"/>
-        <v>4171.3648484131709</v>
+        <f>DL14*(1+$R$31)</f>
+        <v>4313.5045830578129</v>
       </c>
       <c r="DN14" s="3">
-        <f t="shared" si="17"/>
-        <v>4213.078496897303</v>
+        <f>DM14*(1+$R$31)</f>
+        <v>4356.6396288883907</v>
       </c>
       <c r="DO14" s="3">
-        <f t="shared" si="17"/>
-        <v>4255.2092818662759</v>
+        <f>DN14*(1+$R$31)</f>
+        <v>4400.2060251772746</v>
       </c>
       <c r="DP14" s="3">
-        <f t="shared" si="17"/>
-        <v>4297.7613746849383</v>
+        <f>DO14*(1+$R$31)</f>
+        <v>4444.2080854290471</v>
       </c>
       <c r="DQ14" s="3">
-        <f t="shared" si="17"/>
-        <v>4340.7389884317881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f>DP14*(1+$R$31)</f>
+        <v>4488.650166283338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>678.24</v>
@@ -1832,48 +1826,48 @@
         <v>678.24</v>
       </c>
     </row>
-    <row r="16" spans="1:121" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="7">
+        <v>34</v>
+      </c>
+      <c r="J16" s="4">
         <f>J14/J15</f>
         <v>2.7452479948100965</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" ref="K16:O16" si="18">K14/K15</f>
-        <v>0.59304962878184719</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="18"/>
-        <v>0.90555377972621443</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" si="18"/>
-        <v>1.2765628221169436</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="18"/>
-        <v>1.7145321047591826</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="18"/>
-        <v>2.229023524963035</v>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:O16" si="15">K14/K15</f>
+        <v>0.58567551018076214</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="15"/>
+        <v>0.91835672592239137</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3101176718605554</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="15"/>
+        <v>1.7692176380406959</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3049777566997869</v>
       </c>
     </row>
     <row r="17" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1882,36 +1876,36 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18:O18" si="19">I2/H2-1</f>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18:O18" si="16">I2/H2-1</f>
         <v>9.0292648108494022E-2</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="19"/>
+      <c r="J18" s="6">
+        <f t="shared" si="16"/>
         <v>0.1934533551554829</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="19"/>
+      <c r="K18" s="6">
+        <f t="shared" si="16"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L18" s="5">
-        <f t="shared" si="19"/>
+      <c r="L18" s="6">
+        <f t="shared" si="16"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="M18" s="5">
-        <f t="shared" si="19"/>
+      <c r="M18" s="6">
+        <f t="shared" si="16"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="19"/>
+      <c r="N18" s="6">
+        <f t="shared" si="16"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="19"/>
+      <c r="O18" s="6">
+        <f t="shared" si="16"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:147" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1920,1003 +1914,955 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="e">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="e">
         <f>B4/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C20" s="4" t="e">
+      <c r="C20" s="5" t="e">
         <f>C4/C2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="4" t="e">
+      <c r="D20" s="5" t="e">
         <f>D4/D2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <f>E4/E2</f>
         <v>0.82937608318890821</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>0.83</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <f>H4/H2</f>
         <v>1</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <f>I4/I2</f>
         <v>0.77454664484451707</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <f>J4/J2</f>
         <v>0.79419775095995615</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <f>J20*1.01</f>
         <v>0.80213972846955572</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" ref="L20:O20" si="20">K20*1.01</f>
+      <c r="L20" s="5">
+        <f t="shared" ref="L20:O20" si="17">K20*1.01</f>
         <v>0.81016112575425125</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="20"/>
+      <c r="M20" s="5">
+        <f t="shared" si="17"/>
         <v>0.81826273701179375</v>
       </c>
-      <c r="N20" s="4">
-        <f t="shared" si="20"/>
+      <c r="N20" s="5">
+        <f t="shared" si="17"/>
         <v>0.82644536438191174</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="20"/>
+      <c r="O20" s="5">
+        <f t="shared" si="17"/>
         <v>0.83470981802573085</v>
       </c>
     </row>
     <row r="21" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:O21" si="21">H9/H2</f>
+        <v>37</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="5">
+        <f t="shared" ref="H21:O21" si="18">H9/H2</f>
         <v>1</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="21"/>
+      <c r="I21" s="5">
+        <f t="shared" si="18"/>
         <v>-4.1132569558101573E-2</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="21"/>
+      <c r="J21" s="5">
+        <f t="shared" si="18"/>
         <v>4.9273450356555087E-2</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="21"/>
+      <c r="K21" s="5">
+        <f t="shared" si="18"/>
         <v>9.4461642896324763E-2</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="21"/>
+      <c r="L21" s="5">
+        <f t="shared" si="18"/>
         <v>0.13786694445968189</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="21"/>
+      <c r="M21" s="5">
+        <f t="shared" si="18"/>
         <v>0.17958326478195297</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="21"/>
+      <c r="N21" s="5">
+        <f t="shared" si="18"/>
         <v>0.21969986576356315</v>
       </c>
-      <c r="O21" s="4">
-        <f t="shared" si="21"/>
+      <c r="O21" s="5">
+        <f t="shared" si="18"/>
         <v>0.25830159433829952</v>
       </c>
     </row>
     <row r="22" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4">
-        <f>H29/H2</f>
+        <v>36</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="H22" s="5">
+        <f>H27/H2</f>
         <v>0.12169878658101356</v>
       </c>
-      <c r="I22" s="4">
-        <f>I29/I2</f>
+      <c r="I22" s="5">
+        <f>I27/I2</f>
         <v>0.18854337152209494</v>
       </c>
-      <c r="J22" s="4">
-        <f>J29/J2</f>
+      <c r="J22" s="5">
+        <f>J27/J2</f>
         <v>0.20405924300603401</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <f>J22*1.01</f>
         <v>0.20609983543609434</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" ref="L22:O22" si="22">K22*1.05</f>
+      <c r="L22" s="5">
+        <f t="shared" ref="L22:O22" si="19">K22*1.05</f>
         <v>0.21640482720789905</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="22"/>
+      <c r="M22" s="5">
+        <f t="shared" si="19"/>
         <v>0.22722506856829403</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="22"/>
+      <c r="N22" s="5">
+        <f t="shared" si="19"/>
         <v>0.23858632199670873</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="22"/>
+      <c r="O22" s="5">
+        <f t="shared" si="19"/>
         <v>0.2505156380965442</v>
       </c>
     </row>
     <row r="23" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="4">
+        <v>39</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="H23" s="5">
         <f>H8/H2</f>
         <v>0</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" ref="I23:J23" si="23">I8/I2</f>
+      <c r="I23" s="5">
+        <f t="shared" ref="I23:J23" si="20">I8/I2</f>
         <v>0.8156792144026187</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="23"/>
+      <c r="J23" s="5">
+        <f t="shared" si="20"/>
         <v>0.74492430060340098</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <f>J23*0.95</f>
         <v>0.70767808557323086</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" ref="L23:O23" si="24">K23*0.95</f>
+      <c r="L23" s="5">
+        <f t="shared" ref="L23:O23" si="21">K23*0.95</f>
         <v>0.6722941812945693</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="24"/>
+      <c r="M23" s="5">
+        <f t="shared" si="21"/>
         <v>0.63867947222984078</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="24"/>
+      <c r="N23" s="5">
+        <f t="shared" si="21"/>
         <v>0.6067454986183487</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" si="24"/>
+      <c r="O23" s="5">
+        <f t="shared" si="21"/>
         <v>0.57640822368743128</v>
       </c>
-      <c r="R23" s="4"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="H25" s="4">
-        <f>H13/H12</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f>I13/I12</f>
-        <v>-1.1646415552855192</v>
-      </c>
-      <c r="J25" s="4">
-        <f>J13/J12</f>
-        <v>-5.4777446109742725</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0.19</v>
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>469</v>
+      </c>
+      <c r="I25" s="1">
+        <v>613</v>
+      </c>
+      <c r="J25" s="1">
+        <v>965</v>
+      </c>
+      <c r="K25" s="1">
+        <f>K2*0.35</f>
+        <v>1467.5149999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:O25" si="22">L2*0.35</f>
+        <v>1628.9416499999998</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="22"/>
+        <v>1808.1252314999997</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="22"/>
+        <v>2007.0190069649998</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="22"/>
+        <v>2227.7910977311499</v>
       </c>
     </row>
     <row r="26" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H26" s="4">
-        <f>H27/H2</f>
-        <v>0.16738044254104212</v>
-      </c>
-      <c r="I26" s="4">
-        <f>I27/I2</f>
-        <v>0.20065466448445171</v>
-      </c>
-      <c r="J26" s="4">
-        <f>J27/J2</f>
-        <v>0.26467361492046076</v>
-      </c>
-      <c r="K26" s="4">
-        <f>J26*1.05</f>
-        <v>0.27790729566648381</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" ref="L26:O26" si="25">K26*1.05</f>
-        <v>0.29180266044980802</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="25"/>
-        <v>0.30639279347229842</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="25"/>
-        <v>0.32171243314591336</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="25"/>
-        <v>0.33779805480320901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="1">
-        <v>469</v>
-      </c>
-      <c r="I27" s="1">
-        <v>613</v>
-      </c>
-      <c r="J27" s="1">
-        <v>965</v>
-      </c>
-      <c r="K27" s="1">
-        <f>K26*K2</f>
-        <v>1165.2375</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" ref="L27:O27" si="26">L26*L2</f>
-        <v>1358.0843062500001</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="26"/>
-        <v>1582.8472589343748</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="26"/>
-        <v>1844.8084802880142</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="26"/>
-        <v>2150.1242837756809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1">
         <v>128</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I26" s="1">
         <v>37</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J26" s="1">
         <v>221</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K26" s="1">
         <f>K2*0.02</f>
         <v>83.85799999999999</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" ref="L28:O28" si="27">L2*0.02</f>
+      <c r="L26" s="1">
+        <f>L2*0.02</f>
         <v>93.082380000000001</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="27"/>
+      <c r="M26" s="1">
+        <f>M2*0.02</f>
         <v>103.3214418</v>
       </c>
-      <c r="N28" s="1">
-        <f t="shared" si="27"/>
+      <c r="N26" s="1">
+        <f>N2*0.02</f>
         <v>114.686800398</v>
       </c>
-      <c r="O28" s="1">
-        <f t="shared" si="27"/>
+      <c r="O26" s="1">
+        <f>O2*0.02</f>
         <v>127.30234844178001</v>
       </c>
     </row>
-    <row r="29" spans="1:147" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3">
-        <f>B27-B28</f>
+    <row r="27" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B25-B26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="3">
-        <f>C27-C28</f>
+      <c r="C27" s="3">
+        <f>C25-C26</f>
         <v>0</v>
       </c>
-      <c r="D29" s="3">
-        <f>D27-D28</f>
+      <c r="D27" s="3">
+        <f>D25-D26</f>
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <f>E27-E28</f>
+      <c r="E27" s="3">
+        <f>E25-E26</f>
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <f>F27-F28</f>
+      <c r="F27" s="3">
+        <f>F25-F26</f>
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
-        <f>H27-H28</f>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f>H25-H26</f>
         <v>341</v>
       </c>
-      <c r="I29" s="3">
-        <f>I27-I28</f>
+      <c r="I27" s="3">
+        <f>I25-I26</f>
         <v>576</v>
       </c>
-      <c r="J29" s="3">
-        <f>J27-J28</f>
+      <c r="J27" s="3">
+        <f>J25-J26</f>
         <v>744</v>
       </c>
-      <c r="K29" s="3">
-        <f>K27-K28</f>
-        <v>1081.3795</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" ref="L29:O29" si="28">L27-L28</f>
-        <v>1265.00192625</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="28"/>
-        <v>1479.5258171343748</v>
-      </c>
-      <c r="N29" s="3">
-        <f t="shared" si="28"/>
-        <v>1730.1216798900141</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="28"/>
-        <v>2022.8219353339009</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" ref="P29:AU29" si="29">O29*(1+$R$33)</f>
-        <v>2043.0501546872399</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="29"/>
-        <v>2063.4806562341123</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="29"/>
-        <v>2084.1154627964534</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="29"/>
-        <v>2104.9566174244178</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="29"/>
-        <v>2126.0061835986621</v>
-      </c>
-      <c r="U29" s="3">
-        <f t="shared" si="29"/>
-        <v>2147.2662454346487</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="29"/>
-        <v>2168.7389078889951</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="29"/>
-        <v>2190.4262969678853</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" si="29"/>
-        <v>2212.330559937564</v>
-      </c>
-      <c r="Y29" s="3">
-        <f t="shared" si="29"/>
-        <v>2234.4538655369397</v>
-      </c>
-      <c r="Z29" s="3">
-        <f t="shared" si="29"/>
-        <v>2256.7984041923091</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="29"/>
-        <v>2279.3663882342321</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="29"/>
-        <v>2302.1600521165742</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="29"/>
-        <v>2325.1816526377402</v>
-      </c>
-      <c r="AD29" s="3">
-        <f t="shared" si="29"/>
-        <v>2348.4334691641175</v>
-      </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="29"/>
-        <v>2371.9178038557588</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="29"/>
-        <v>2395.6369818943162</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="29"/>
-        <v>2419.5933517132594</v>
-      </c>
-      <c r="AH29" s="3">
-        <f t="shared" si="29"/>
-        <v>2443.7892852303921</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="29"/>
-        <v>2468.2271780826959</v>
-      </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="29"/>
-        <v>2492.9094498635227</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="29"/>
-        <v>2517.8385443621578</v>
-      </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="29"/>
-        <v>2543.0169298057795</v>
-      </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="29"/>
-        <v>2568.4470991038374</v>
-      </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="29"/>
-        <v>2594.1315700948758</v>
-      </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="29"/>
-        <v>2620.0728857958247</v>
-      </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="29"/>
-        <v>2646.2736146537832</v>
-      </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="29"/>
-        <v>2672.7363508003209</v>
-      </c>
-      <c r="AR29" s="3">
-        <f t="shared" si="29"/>
-        <v>2699.4637143083241</v>
-      </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="29"/>
-        <v>2726.4583514514075</v>
-      </c>
-      <c r="AT29" s="3">
-        <f t="shared" si="29"/>
-        <v>2753.7229349659215</v>
-      </c>
-      <c r="AU29" s="3">
-        <f t="shared" si="29"/>
-        <v>2781.2601643155808</v>
-      </c>
-      <c r="AV29" s="3">
-        <f t="shared" ref="AV29:CA29" si="30">AU29*(1+$R$33)</f>
-        <v>2809.0727659587365</v>
-      </c>
-      <c r="AW29" s="3">
-        <f t="shared" si="30"/>
-        <v>2837.1634936183236</v>
-      </c>
-      <c r="AX29" s="3">
-        <f t="shared" si="30"/>
-        <v>2865.5351285545071</v>
-      </c>
-      <c r="AY29" s="3">
-        <f t="shared" si="30"/>
-        <v>2894.1904798400524</v>
-      </c>
-      <c r="AZ29" s="3">
-        <f t="shared" si="30"/>
-        <v>2923.132384638453</v>
-      </c>
-      <c r="BA29" s="3">
-        <f t="shared" si="30"/>
-        <v>2952.3637084848374</v>
-      </c>
-      <c r="BB29" s="3">
-        <f t="shared" si="30"/>
-        <v>2981.8873455696857</v>
-      </c>
-      <c r="BC29" s="3">
-        <f t="shared" si="30"/>
-        <v>3011.7062190253828</v>
-      </c>
-      <c r="BD29" s="3">
-        <f t="shared" si="30"/>
-        <v>3041.8232812156366</v>
-      </c>
-      <c r="BE29" s="3">
-        <f t="shared" si="30"/>
-        <v>3072.2415140277931</v>
-      </c>
-      <c r="BF29" s="3">
-        <f t="shared" si="30"/>
-        <v>3102.963929168071</v>
-      </c>
-      <c r="BG29" s="3">
-        <f t="shared" si="30"/>
-        <v>3133.9935684597517</v>
-      </c>
-      <c r="BH29" s="3">
-        <f t="shared" si="30"/>
-        <v>3165.3335041443493</v>
-      </c>
-      <c r="BI29" s="3">
-        <f t="shared" si="30"/>
-        <v>3196.9868391857926</v>
-      </c>
-      <c r="BJ29" s="3">
-        <f t="shared" si="30"/>
-        <v>3228.9567075776504</v>
-      </c>
-      <c r="BK29" s="3">
-        <f t="shared" si="30"/>
-        <v>3261.246274653427</v>
-      </c>
-      <c r="BL29" s="3">
-        <f t="shared" si="30"/>
-        <v>3293.8587373999612</v>
-      </c>
-      <c r="BM29" s="3">
-        <f t="shared" si="30"/>
-        <v>3326.797324773961</v>
-      </c>
-      <c r="BN29" s="3">
-        <f t="shared" si="30"/>
-        <v>3360.0652980217005</v>
-      </c>
-      <c r="BO29" s="3">
-        <f t="shared" si="30"/>
-        <v>3393.6659510019176</v>
-      </c>
-      <c r="BP29" s="3">
-        <f t="shared" si="30"/>
-        <v>3427.6026105119367</v>
-      </c>
-      <c r="BQ29" s="3">
-        <f t="shared" si="30"/>
-        <v>3461.8786366170561</v>
-      </c>
-      <c r="BR29" s="3">
-        <f t="shared" si="30"/>
-        <v>3496.4974229832269</v>
-      </c>
-      <c r="BS29" s="3">
-        <f t="shared" si="30"/>
-        <v>3531.4623972130594</v>
-      </c>
-      <c r="BT29" s="3">
-        <f t="shared" si="30"/>
-        <v>3566.7770211851898</v>
-      </c>
-      <c r="BU29" s="3">
-        <f t="shared" si="30"/>
-        <v>3602.4447913970416</v>
-      </c>
-      <c r="BV29" s="3">
-        <f t="shared" si="30"/>
-        <v>3638.4692393110122</v>
-      </c>
-      <c r="BW29" s="3">
-        <f t="shared" si="30"/>
-        <v>3674.8539317041223</v>
-      </c>
-      <c r="BX29" s="3">
-        <f t="shared" si="30"/>
-        <v>3711.6024710211636</v>
-      </c>
-      <c r="BY29" s="3">
-        <f t="shared" si="30"/>
-        <v>3748.7184957313752</v>
-      </c>
-      <c r="BZ29" s="3">
-        <f t="shared" si="30"/>
-        <v>3786.205680688689</v>
-      </c>
-      <c r="CA29" s="3">
-        <f t="shared" si="30"/>
-        <v>3824.0677374955758</v>
-      </c>
-      <c r="CB29" s="3">
-        <f t="shared" ref="CB29:DG29" si="31">CA29*(1+$R$33)</f>
-        <v>3862.3084148705316</v>
-      </c>
-      <c r="CC29" s="3">
-        <f t="shared" si="31"/>
-        <v>3900.931499019237</v>
-      </c>
-      <c r="CD29" s="3">
-        <f t="shared" si="31"/>
-        <v>3939.9408140094292</v>
-      </c>
-      <c r="CE29" s="3">
-        <f t="shared" si="31"/>
-        <v>3979.3402221495235</v>
-      </c>
-      <c r="CF29" s="3">
-        <f t="shared" si="31"/>
-        <v>4019.1336243710189</v>
-      </c>
-      <c r="CG29" s="3">
-        <f t="shared" si="31"/>
-        <v>4059.3249606147292</v>
-      </c>
-      <c r="CH29" s="3">
-        <f t="shared" si="31"/>
-        <v>4099.918210220877</v>
-      </c>
-      <c r="CI29" s="3">
-        <f t="shared" si="31"/>
-        <v>4140.9173923230856</v>
-      </c>
-      <c r="CJ29" s="3">
-        <f t="shared" si="31"/>
-        <v>4182.3265662463164</v>
-      </c>
-      <c r="CK29" s="3">
-        <f t="shared" si="31"/>
-        <v>4224.1498319087796</v>
-      </c>
-      <c r="CL29" s="3">
-        <f t="shared" si="31"/>
-        <v>4266.391330227867</v>
-      </c>
-      <c r="CM29" s="3">
-        <f t="shared" si="31"/>
-        <v>4309.0552435301461</v>
-      </c>
-      <c r="CN29" s="3">
-        <f t="shared" si="31"/>
-        <v>4352.1457959654472</v>
-      </c>
-      <c r="CO29" s="3">
-        <f t="shared" si="31"/>
-        <v>4395.6672539251012</v>
-      </c>
-      <c r="CP29" s="3">
-        <f t="shared" si="31"/>
-        <v>4439.6239264643527</v>
-      </c>
-      <c r="CQ29" s="3">
-        <f t="shared" si="31"/>
-        <v>4484.0201657289963</v>
-      </c>
-      <c r="CR29" s="3">
-        <f t="shared" si="31"/>
-        <v>4528.8603673862863</v>
-      </c>
-      <c r="CS29" s="3">
-        <f t="shared" si="31"/>
-        <v>4574.1489710601491</v>
-      </c>
-      <c r="CT29" s="3">
-        <f t="shared" si="31"/>
-        <v>4619.8904607707509</v>
-      </c>
-      <c r="CU29" s="3">
-        <f t="shared" si="31"/>
-        <v>4666.0893653784588</v>
-      </c>
-      <c r="CV29" s="3">
-        <f t="shared" si="31"/>
-        <v>4712.7502590322438</v>
-      </c>
-      <c r="CW29" s="3">
-        <f t="shared" si="31"/>
-        <v>4759.8777616225661</v>
-      </c>
-      <c r="CX29" s="3">
-        <f t="shared" si="31"/>
-        <v>4807.4765392387917</v>
-      </c>
-      <c r="CY29" s="3">
-        <f t="shared" si="31"/>
-        <v>4855.5513046311798</v>
-      </c>
-      <c r="CZ29" s="3">
-        <f t="shared" si="31"/>
-        <v>4904.1068176774916</v>
-      </c>
-      <c r="DA29" s="3">
-        <f t="shared" si="31"/>
-        <v>4953.1478858542669</v>
-      </c>
-      <c r="DB29" s="3">
-        <f t="shared" si="31"/>
-        <v>5002.6793647128097</v>
-      </c>
-      <c r="DC29" s="3">
-        <f t="shared" si="31"/>
-        <v>5052.7061583599379</v>
-      </c>
-      <c r="DD29" s="3">
-        <f t="shared" si="31"/>
-        <v>5103.2332199435377</v>
-      </c>
-      <c r="DE29" s="3">
-        <f t="shared" si="31"/>
-        <v>5154.2655521429733</v>
-      </c>
-      <c r="DF29" s="3">
-        <f t="shared" si="31"/>
-        <v>5205.8082076644032</v>
-      </c>
-      <c r="DG29" s="3">
-        <f t="shared" si="31"/>
-        <v>5257.8662897410477</v>
-      </c>
-      <c r="DH29" s="3">
-        <f t="shared" ref="DH29:EQ29" si="32">DG29*(1+$R$33)</f>
-        <v>5310.4449526384578</v>
-      </c>
-      <c r="DI29" s="3">
-        <f t="shared" si="32"/>
-        <v>5363.5494021648428</v>
-      </c>
-      <c r="DJ29" s="3">
-        <f t="shared" si="32"/>
-        <v>5417.1848961864916</v>
-      </c>
-      <c r="DK29" s="3">
-        <f t="shared" si="32"/>
-        <v>5471.3567451483568</v>
-      </c>
-      <c r="DL29" s="3">
-        <f t="shared" si="32"/>
-        <v>5526.0703125998407</v>
-      </c>
-      <c r="DM29" s="3">
-        <f t="shared" si="32"/>
-        <v>5581.3310157258393</v>
-      </c>
-      <c r="DN29" s="3">
-        <f t="shared" si="32"/>
-        <v>5637.1443258830977</v>
-      </c>
-      <c r="DO29" s="3">
-        <f t="shared" si="32"/>
-        <v>5693.515769141929</v>
-      </c>
-      <c r="DP29" s="3">
-        <f t="shared" si="32"/>
-        <v>5750.4509268333486</v>
-      </c>
-      <c r="DQ29" s="3">
-        <f t="shared" si="32"/>
-        <v>5807.9554361016817</v>
-      </c>
-      <c r="DR29" s="3">
-        <f t="shared" si="32"/>
-        <v>5866.0349904626983</v>
-      </c>
-      <c r="DS29" s="3">
-        <f t="shared" si="32"/>
-        <v>5924.6953403673251</v>
-      </c>
-      <c r="DT29" s="3">
-        <f t="shared" si="32"/>
-        <v>5983.9422937709987</v>
-      </c>
-      <c r="DU29" s="3">
-        <f t="shared" si="32"/>
-        <v>6043.7817167087087</v>
-      </c>
-      <c r="DV29" s="3">
-        <f t="shared" si="32"/>
-        <v>6104.2195338757956</v>
-      </c>
-      <c r="DW29" s="3">
-        <f t="shared" si="32"/>
-        <v>6165.2617292145533</v>
-      </c>
-      <c r="DX29" s="3">
-        <f t="shared" si="32"/>
-        <v>6226.9143465066991</v>
-      </c>
-      <c r="DY29" s="3">
-        <f t="shared" si="32"/>
-        <v>6289.183489971766</v>
-      </c>
-      <c r="DZ29" s="3">
-        <f t="shared" si="32"/>
-        <v>6352.0753248714836</v>
-      </c>
-      <c r="EA29" s="3">
-        <f t="shared" si="32"/>
-        <v>6415.5960781201984</v>
-      </c>
-      <c r="EB29" s="3">
-        <f t="shared" si="32"/>
-        <v>6479.7520389014007</v>
-      </c>
-      <c r="EC29" s="3">
-        <f t="shared" si="32"/>
-        <v>6544.5495592904144</v>
-      </c>
-      <c r="ED29" s="3">
-        <f t="shared" si="32"/>
-        <v>6609.9950548833185</v>
-      </c>
-      <c r="EE29" s="3">
-        <f t="shared" si="32"/>
-        <v>6676.095005432152</v>
-      </c>
-      <c r="EF29" s="3">
-        <f t="shared" si="32"/>
-        <v>6742.8559554864732</v>
-      </c>
-      <c r="EG29" s="3">
-        <f t="shared" si="32"/>
-        <v>6810.2845150413377</v>
-      </c>
-      <c r="EH29" s="3">
-        <f t="shared" si="32"/>
-        <v>6878.3873601917512</v>
-      </c>
-      <c r="EI29" s="3">
-        <f t="shared" si="32"/>
-        <v>6947.1712337936688</v>
-      </c>
-      <c r="EJ29" s="3">
-        <f t="shared" si="32"/>
-        <v>7016.6429461316056</v>
-      </c>
-      <c r="EK29" s="3">
-        <f t="shared" si="32"/>
-        <v>7086.8093755929222</v>
-      </c>
-      <c r="EL29" s="3">
-        <f t="shared" si="32"/>
-        <v>7157.6774693488514</v>
-      </c>
-      <c r="EM29" s="3">
-        <f t="shared" si="32"/>
-        <v>7229.2542440423404</v>
-      </c>
-      <c r="EN29" s="3">
-        <f t="shared" si="32"/>
-        <v>7301.5467864827642</v>
-      </c>
-      <c r="EO29" s="3">
-        <f t="shared" si="32"/>
-        <v>7374.562254347592</v>
-      </c>
-      <c r="EP29" s="3">
-        <f t="shared" si="32"/>
-        <v>7448.3078768910682</v>
-      </c>
-      <c r="EQ29" s="3">
-        <f t="shared" si="32"/>
-        <v>7522.7909556599789</v>
+      <c r="K27" s="3">
+        <f>K25-K26</f>
+        <v>1383.6569999999999</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27:O27" si="23">L25-L26</f>
+        <v>1535.8592699999997</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="23"/>
+        <v>1704.8037896999997</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="23"/>
+        <v>1892.3322065669997</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="23"/>
+        <v>2100.4887492893699</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:AU27" si="24">O27*(1+$R$31)</f>
+        <v>2121.4936367822638</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="24"/>
+        <v>2142.7085731500865</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="24"/>
+        <v>2164.1356588815875</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="24"/>
+        <v>2185.7770154704035</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="24"/>
+        <v>2207.6347856251077</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="24"/>
+        <v>2229.711133481359</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="24"/>
+        <v>2252.0082448161725</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="24"/>
+        <v>2274.5283272643342</v>
+      </c>
+      <c r="X27" s="3">
+        <f t="shared" si="24"/>
+        <v>2297.2736105369777</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="24"/>
+        <v>2320.2463466423474</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="24"/>
+        <v>2343.4488101087709</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" si="24"/>
+        <v>2366.8832982098588</v>
+      </c>
+      <c r="AB27" s="3">
+        <f t="shared" si="24"/>
+        <v>2390.5521311919574</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" si="24"/>
+        <v>2414.4576525038769</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" si="24"/>
+        <v>2438.6022290289156</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" si="24"/>
+        <v>2462.9882513192047</v>
+      </c>
+      <c r="AF27" s="3">
+        <f t="shared" si="24"/>
+        <v>2487.6181338323968</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="24"/>
+        <v>2512.4943151707207</v>
+      </c>
+      <c r="AH27" s="3">
+        <f t="shared" si="24"/>
+        <v>2537.6192583224279</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" si="24"/>
+        <v>2562.995450905652</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="24"/>
+        <v>2588.6254054147084</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="24"/>
+        <v>2614.5116594688557</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" si="24"/>
+        <v>2640.6567760635444</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" si="24"/>
+        <v>2667.0633438241798</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="24"/>
+        <v>2693.7339772624218</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" si="24"/>
+        <v>2720.6713170350463</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="24"/>
+        <v>2747.878030205397</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="24"/>
+        <v>2775.356810507451</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="24"/>
+        <v>2803.1103786125254</v>
+      </c>
+      <c r="AS27" s="3">
+        <f t="shared" si="24"/>
+        <v>2831.1414823986506</v>
+      </c>
+      <c r="AT27" s="3">
+        <f t="shared" si="24"/>
+        <v>2859.4528972226371</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" si="24"/>
+        <v>2888.0474261948634</v>
+      </c>
+      <c r="AV27" s="3">
+        <f t="shared" ref="AV27:CA27" si="25">AU27*(1+$R$31)</f>
+        <v>2916.927900456812</v>
+      </c>
+      <c r="AW27" s="3">
+        <f t="shared" si="25"/>
+        <v>2946.0971794613802</v>
+      </c>
+      <c r="AX27" s="3">
+        <f t="shared" si="25"/>
+        <v>2975.5581512559938</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" si="25"/>
+        <v>3005.313732768554</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="25"/>
+        <v>3035.3668700962394</v>
+      </c>
+      <c r="BA27" s="3">
+        <f t="shared" si="25"/>
+        <v>3065.7205387972017</v>
+      </c>
+      <c r="BB27" s="3">
+        <f t="shared" si="25"/>
+        <v>3096.3777441851739</v>
+      </c>
+      <c r="BC27" s="3">
+        <f t="shared" si="25"/>
+        <v>3127.3415216270255</v>
+      </c>
+      <c r="BD27" s="3">
+        <f t="shared" si="25"/>
+        <v>3158.6149368432957</v>
+      </c>
+      <c r="BE27" s="3">
+        <f t="shared" si="25"/>
+        <v>3190.2010862117286</v>
+      </c>
+      <c r="BF27" s="3">
+        <f t="shared" si="25"/>
+        <v>3222.1030970738457</v>
+      </c>
+      <c r="BG27" s="3">
+        <f t="shared" si="25"/>
+        <v>3254.3241280445841</v>
+      </c>
+      <c r="BH27" s="3">
+        <f t="shared" si="25"/>
+        <v>3286.8673693250298</v>
+      </c>
+      <c r="BI27" s="3">
+        <f t="shared" si="25"/>
+        <v>3319.7360430182803</v>
+      </c>
+      <c r="BJ27" s="3">
+        <f t="shared" si="25"/>
+        <v>3352.9334034484632</v>
+      </c>
+      <c r="BK27" s="3">
+        <f t="shared" si="25"/>
+        <v>3386.4627374829479</v>
+      </c>
+      <c r="BL27" s="3">
+        <f t="shared" si="25"/>
+        <v>3420.3273648577774</v>
+      </c>
+      <c r="BM27" s="3">
+        <f t="shared" si="25"/>
+        <v>3454.530638506355</v>
+      </c>
+      <c r="BN27" s="3">
+        <f t="shared" si="25"/>
+        <v>3489.0759448914187</v>
+      </c>
+      <c r="BO27" s="3">
+        <f t="shared" si="25"/>
+        <v>3523.9667043403329</v>
+      </c>
+      <c r="BP27" s="3">
+        <f t="shared" si="25"/>
+        <v>3559.206371383736</v>
+      </c>
+      <c r="BQ27" s="3">
+        <f t="shared" si="25"/>
+        <v>3594.7984350975735</v>
+      </c>
+      <c r="BR27" s="3">
+        <f t="shared" si="25"/>
+        <v>3630.7464194485492</v>
+      </c>
+      <c r="BS27" s="3">
+        <f t="shared" si="25"/>
+        <v>3667.0538836430346</v>
+      </c>
+      <c r="BT27" s="3">
+        <f t="shared" si="25"/>
+        <v>3703.7244224794649</v>
+      </c>
+      <c r="BU27" s="3">
+        <f t="shared" si="25"/>
+        <v>3740.7616667042598</v>
+      </c>
+      <c r="BV27" s="3">
+        <f t="shared" si="25"/>
+        <v>3778.1692833713023</v>
+      </c>
+      <c r="BW27" s="3">
+        <f t="shared" si="25"/>
+        <v>3815.9509762050152</v>
+      </c>
+      <c r="BX27" s="3">
+        <f t="shared" si="25"/>
+        <v>3854.1104859670654</v>
+      </c>
+      <c r="BY27" s="3">
+        <f t="shared" si="25"/>
+        <v>3892.6515908267361</v>
+      </c>
+      <c r="BZ27" s="3">
+        <f t="shared" si="25"/>
+        <v>3931.5781067350035</v>
+      </c>
+      <c r="CA27" s="3">
+        <f t="shared" si="25"/>
+        <v>3970.8938878023537</v>
+      </c>
+      <c r="CB27" s="3">
+        <f t="shared" ref="CB27:DG27" si="26">CA27*(1+$R$31)</f>
+        <v>4010.6028266803773</v>
+      </c>
+      <c r="CC27" s="3">
+        <f t="shared" si="26"/>
+        <v>4050.708854947181</v>
+      </c>
+      <c r="CD27" s="3">
+        <f t="shared" si="26"/>
+        <v>4091.2159434966529</v>
+      </c>
+      <c r="CE27" s="3">
+        <f t="shared" si="26"/>
+        <v>4132.1281029316197</v>
+      </c>
+      <c r="CF27" s="3">
+        <f t="shared" si="26"/>
+        <v>4173.4493839609358</v>
+      </c>
+      <c r="CG27" s="3">
+        <f t="shared" si="26"/>
+        <v>4215.1838778005449</v>
+      </c>
+      <c r="CH27" s="3">
+        <f t="shared" si="26"/>
+        <v>4257.3357165785501</v>
+      </c>
+      <c r="CI27" s="3">
+        <f t="shared" si="26"/>
+        <v>4299.9090737443357</v>
+      </c>
+      <c r="CJ27" s="3">
+        <f t="shared" si="26"/>
+        <v>4342.9081644817788</v>
+      </c>
+      <c r="CK27" s="3">
+        <f t="shared" si="26"/>
+        <v>4386.3372461265963</v>
+      </c>
+      <c r="CL27" s="3">
+        <f t="shared" si="26"/>
+        <v>4430.2006185878627</v>
+      </c>
+      <c r="CM27" s="3">
+        <f t="shared" si="26"/>
+        <v>4474.5026247737414</v>
+      </c>
+      <c r="CN27" s="3">
+        <f t="shared" si="26"/>
+        <v>4519.2476510214792</v>
+      </c>
+      <c r="CO27" s="3">
+        <f t="shared" si="26"/>
+        <v>4564.4401275316941</v>
+      </c>
+      <c r="CP27" s="3">
+        <f t="shared" si="26"/>
+        <v>4610.0845288070113</v>
+      </c>
+      <c r="CQ27" s="3">
+        <f t="shared" si="26"/>
+        <v>4656.1853740950819</v>
+      </c>
+      <c r="CR27" s="3">
+        <f t="shared" si="26"/>
+        <v>4702.7472278360328</v>
+      </c>
+      <c r="CS27" s="3">
+        <f t="shared" si="26"/>
+        <v>4749.7747001143935</v>
+      </c>
+      <c r="CT27" s="3">
+        <f t="shared" si="26"/>
+        <v>4797.272447115537</v>
+      </c>
+      <c r="CU27" s="3">
+        <f t="shared" si="26"/>
+        <v>4845.2451715866928</v>
+      </c>
+      <c r="CV27" s="3">
+        <f t="shared" si="26"/>
+        <v>4893.6976233025598</v>
+      </c>
+      <c r="CW27" s="3">
+        <f t="shared" si="26"/>
+        <v>4942.634599535585</v>
+      </c>
+      <c r="CX27" s="3">
+        <f t="shared" si="26"/>
+        <v>4992.0609455309414</v>
+      </c>
+      <c r="CY27" s="3">
+        <f t="shared" si="26"/>
+        <v>5041.9815549862506</v>
+      </c>
+      <c r="CZ27" s="3">
+        <f t="shared" si="26"/>
+        <v>5092.4013705361131</v>
+      </c>
+      <c r="DA27" s="3">
+        <f t="shared" si="26"/>
+        <v>5143.3253842414742</v>
+      </c>
+      <c r="DB27" s="3">
+        <f t="shared" si="26"/>
+        <v>5194.7586380838893</v>
+      </c>
+      <c r="DC27" s="3">
+        <f t="shared" si="26"/>
+        <v>5246.7062244647286</v>
+      </c>
+      <c r="DD27" s="3">
+        <f t="shared" si="26"/>
+        <v>5299.173286709376</v>
+      </c>
+      <c r="DE27" s="3">
+        <f t="shared" si="26"/>
+        <v>5352.1650195764696</v>
+      </c>
+      <c r="DF27" s="3">
+        <f t="shared" si="26"/>
+        <v>5405.6866697722344</v>
+      </c>
+      <c r="DG27" s="3">
+        <f t="shared" si="26"/>
+        <v>5459.7435364699568</v>
+      </c>
+      <c r="DH27" s="3">
+        <f t="shared" ref="DH27:EQ27" si="27">DG27*(1+$R$31)</f>
+        <v>5514.3409718346566</v>
+      </c>
+      <c r="DI27" s="3">
+        <f t="shared" si="27"/>
+        <v>5569.484381553003</v>
+      </c>
+      <c r="DJ27" s="3">
+        <f t="shared" si="27"/>
+        <v>5625.1792253685335</v>
+      </c>
+      <c r="DK27" s="3">
+        <f t="shared" si="27"/>
+        <v>5681.4310176222189</v>
+      </c>
+      <c r="DL27" s="3">
+        <f t="shared" si="27"/>
+        <v>5738.2453277984414</v>
+      </c>
+      <c r="DM27" s="3">
+        <f t="shared" si="27"/>
+        <v>5795.6277810764259</v>
+      </c>
+      <c r="DN27" s="3">
+        <f t="shared" si="27"/>
+        <v>5853.5840588871906</v>
+      </c>
+      <c r="DO27" s="3">
+        <f t="shared" si="27"/>
+        <v>5912.1198994760625</v>
+      </c>
+      <c r="DP27" s="3">
+        <f t="shared" si="27"/>
+        <v>5971.2410984708231</v>
+      </c>
+      <c r="DQ27" s="3">
+        <f t="shared" si="27"/>
+        <v>6030.9535094555313</v>
+      </c>
+      <c r="DR27" s="3">
+        <f t="shared" si="27"/>
+        <v>6091.2630445500863</v>
+      </c>
+      <c r="DS27" s="3">
+        <f t="shared" si="27"/>
+        <v>6152.1756749955875</v>
+      </c>
+      <c r="DT27" s="3">
+        <f t="shared" si="27"/>
+        <v>6213.6974317455433</v>
+      </c>
+      <c r="DU27" s="3">
+        <f t="shared" si="27"/>
+        <v>6275.8344060629988</v>
+      </c>
+      <c r="DV27" s="3">
+        <f t="shared" si="27"/>
+        <v>6338.5927501236292</v>
+      </c>
+      <c r="DW27" s="3">
+        <f t="shared" si="27"/>
+        <v>6401.9786776248657</v>
+      </c>
+      <c r="DX27" s="3">
+        <f t="shared" si="27"/>
+        <v>6465.9984644011147</v>
+      </c>
+      <c r="DY27" s="3">
+        <f t="shared" si="27"/>
+        <v>6530.658449045126</v>
+      </c>
+      <c r="DZ27" s="3">
+        <f t="shared" si="27"/>
+        <v>6595.9650335355773</v>
+      </c>
+      <c r="EA27" s="3">
+        <f t="shared" si="27"/>
+        <v>6661.9246838709332</v>
+      </c>
+      <c r="EB27" s="3">
+        <f t="shared" si="27"/>
+        <v>6728.5439307096431</v>
+      </c>
+      <c r="EC27" s="3">
+        <f t="shared" si="27"/>
+        <v>6795.8293700167396</v>
+      </c>
+      <c r="ED27" s="3">
+        <f t="shared" si="27"/>
+        <v>6863.7876637169074</v>
+      </c>
+      <c r="EE27" s="3">
+        <f t="shared" si="27"/>
+        <v>6932.4255403540765</v>
+      </c>
+      <c r="EF27" s="3">
+        <f t="shared" si="27"/>
+        <v>7001.749795757617</v>
+      </c>
+      <c r="EG27" s="3">
+        <f t="shared" si="27"/>
+        <v>7071.7672937151929</v>
+      </c>
+      <c r="EH27" s="3">
+        <f t="shared" si="27"/>
+        <v>7142.4849666523451</v>
+      </c>
+      <c r="EI27" s="3">
+        <f t="shared" si="27"/>
+        <v>7213.9098163188683</v>
+      </c>
+      <c r="EJ27" s="3">
+        <f t="shared" si="27"/>
+        <v>7286.0489144820567</v>
+      </c>
+      <c r="EK27" s="3">
+        <f t="shared" si="27"/>
+        <v>7358.9094036268771</v>
+      </c>
+      <c r="EL27" s="3">
+        <f t="shared" si="27"/>
+        <v>7432.4984976631458</v>
+      </c>
+      <c r="EM27" s="3">
+        <f t="shared" si="27"/>
+        <v>7506.8234826397775</v>
+      </c>
+      <c r="EN27" s="3">
+        <f t="shared" si="27"/>
+        <v>7581.8917174661756</v>
+      </c>
+      <c r="EO27" s="3">
+        <f t="shared" si="27"/>
+        <v>7657.7106346408373</v>
+      </c>
+      <c r="EP27" s="3">
+        <f t="shared" si="27"/>
+        <v>7734.2877409872453</v>
+      </c>
+      <c r="EQ27" s="3">
+        <f t="shared" si="27"/>
+        <v>7811.6306183971183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4">
+        <f>J27/J15</f>
+        <v>1.0969568294409058</v>
+      </c>
+      <c r="K29" s="4">
+        <f>K27/K15</f>
+        <v>2.0400698867657465</v>
+      </c>
+      <c r="L29" s="4">
+        <f>L27/L15</f>
+        <v>2.2644775743099781</v>
+      </c>
+      <c r="M29" s="4">
+        <f>M27/M15</f>
+        <v>2.5135701074840759</v>
+      </c>
+      <c r="N29" s="4">
+        <f>N27/N15</f>
+        <v>2.7900628193073245</v>
+      </c>
+      <c r="O29" s="4">
+        <f>O27/O15</f>
+        <v>3.0969697294311302</v>
       </c>
     </row>
     <row r="30" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1">
+        <f>J32-J34</f>
+        <v>2512.8000000000002</v>
+      </c>
+      <c r="K30" s="1">
+        <f>J30+K14</f>
+        <v>2910.0285580250002</v>
+      </c>
+      <c r="L30" s="1">
+        <f>K30+L14</f>
+        <v>3532.8948238146031</v>
+      </c>
+      <c r="M30" s="1">
+        <f>L30+M14</f>
+        <v>4421.4690335773066</v>
+      </c>
+      <c r="N30" s="1">
+        <f>M30+N14</f>
+        <v>5621.4232044020282</v>
+      </c>
+      <c r="O30" s="1">
+        <f>N30+O14</f>
+        <v>7184.7513181060913</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="31" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="7">
-        <f t="shared" ref="J31:O31" si="33">J29/J15</f>
-        <v>1.0969568294409058</v>
-      </c>
-      <c r="K31" s="7">
-        <f t="shared" si="33"/>
-        <v>1.5943906286860108</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="33"/>
-        <v>1.8651243309890304</v>
-      </c>
-      <c r="M31" s="7">
-        <f t="shared" si="33"/>
-        <v>2.1814192868813027</v>
-      </c>
-      <c r="N31" s="7">
-        <f t="shared" si="33"/>
-        <v>2.5508989146762415</v>
-      </c>
-      <c r="O31" s="7">
-        <f t="shared" si="33"/>
-        <v>2.9824574418110124</v>
+      <c r="Q31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1">
-        <f>J34-J36</f>
+        <f>1136.4+1376.4</f>
         <v>2512.8000000000002</v>
       </c>
-      <c r="K32" s="1">
-        <f>J32+K14</f>
-        <v>2915.0299802250001</v>
-      </c>
-      <c r="L32" s="1">
-        <f>K32+L14</f>
-        <v>3529.2127757865078</v>
-      </c>
-      <c r="M32" s="1">
-        <f>L32+M14</f>
-        <v>4395.0287442591034</v>
-      </c>
-      <c r="N32" s="1">
-        <f>M32+N14</f>
-        <v>5557.8929989909711</v>
-      </c>
-      <c r="O32" s="1">
-        <f>N32+O14</f>
-        <v>7069.7059145619005</v>
-      </c>
       <c r="Q32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0.04</v>
+        <v>17</v>
+      </c>
+      <c r="R32" s="8">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0.01</v>
+        <v>18</v>
+      </c>
+      <c r="R33" s="1">
+        <f>NPV(R32,K27:EQ27)+main!O5-main!O6</f>
+        <v>28000.176101595349</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2924,54 +2870,30 @@
         <v>4</v>
       </c>
       <c r="J34" s="1">
-        <f>1136.4+1376.4</f>
-        <v>2512.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <f>R33/main!O3</f>
+        <v>41.283581183055183</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="1">
-        <f>NPV(R34,K29:EQ29)+Sheet1!E5-Sheet1!E6</f>
-        <v>24849.762774279887</v>
+      <c r="R35" s="5">
+        <f>R34/main!O2-1</f>
+        <v>0.29011191197047448</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R36" s="7">
-        <f>R35/Sheet1!E3</f>
-        <v>36.638598098431068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="4">
-        <f>R36/Sheet1!E2-1</f>
-        <v>0.14495619057597087</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1">
         <v>553</v>
       </c>
     </row>
